--- a/cgi-bin/mishin_family.xls.xlsx
+++ b/cgi-bin/mishin_family.xls.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1161" uniqueCount="599">
   <si>
     <t>ID</t>
   </si>
@@ -184,6 +184,9 @@
     <t>18/6/1939</t>
   </si>
   <si>
+    <t>4/10/2014</t>
+  </si>
+  <si>
     <t>I41</t>
   </si>
   <si>
@@ -343,6 +346,15 @@
     <t>I14</t>
   </si>
   <si>
+    <t xml:space="preserve">Винюкова </t>
+  </si>
+  <si>
+    <t>10/6/1984</t>
+  </si>
+  <si>
+    <t>ур Мишина</t>
+  </si>
+  <si>
     <t>Григорьевна</t>
   </si>
   <si>
@@ -367,6 +379,12 @@
     <t>I53</t>
   </si>
   <si>
+    <t>18/2/1859</t>
+  </si>
+  <si>
+    <t>24/3/1929</t>
+  </si>
+  <si>
     <t>I39</t>
   </si>
   <si>
@@ -397,6 +415,18 @@
     <t>Александрович</t>
   </si>
   <si>
+    <t>I139</t>
+  </si>
+  <si>
+    <t>I140</t>
+  </si>
+  <si>
+    <t>22/1/1882</t>
+  </si>
+  <si>
+    <t>8/12/1937</t>
+  </si>
+  <si>
     <t>I10</t>
   </si>
   <si>
@@ -541,7 +571,7 @@
     <t>I75</t>
   </si>
   <si>
-    <t>1/1/1834</t>
+    <t>12/1/1830</t>
   </si>
   <si>
     <t>каширского мещанина. Красильня у них там была по словам вашего отца. Жена его Анна Васильевна. (Видимо она была родней моих предков, похожа лицом на бабку прадеда.) Их фото есть в вашем семейном архиве.</t>
@@ -595,9 +625,15 @@
     <t>Анастасия</t>
   </si>
   <si>
+    <t>I146</t>
+  </si>
+  <si>
     <t>I79</t>
   </si>
   <si>
+    <t>урожд Заренкова</t>
+  </si>
+  <si>
     <t>Заренкова</t>
   </si>
   <si>
@@ -895,9 +931,6 @@
     <t xml:space="preserve">Сергеевна </t>
   </si>
   <si>
-    <t xml:space="preserve">Мишина </t>
-  </si>
-  <si>
     <t>9/2/2010</t>
   </si>
   <si>
@@ -922,7 +955,7 @@
     <t>I113</t>
   </si>
   <si>
-    <t xml:space="preserve">Мишин </t>
+    <t>I208</t>
   </si>
   <si>
     <t>I114</t>
@@ -934,6 +967,9 @@
     <t xml:space="preserve">Алексеевич </t>
   </si>
   <si>
+    <t>крестный сын I0</t>
+  </si>
+  <si>
     <t>I115</t>
   </si>
   <si>
@@ -1016,6 +1052,762 @@
   </si>
   <si>
     <t>Грибкова</t>
+  </si>
+  <si>
+    <t>I124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Юрий </t>
+  </si>
+  <si>
+    <t>Тевелев</t>
+  </si>
+  <si>
+    <t>I125</t>
+  </si>
+  <si>
+    <t>I126</t>
+  </si>
+  <si>
+    <t>30/08/1970</t>
+  </si>
+  <si>
+    <t>Вениаминович</t>
+  </si>
+  <si>
+    <t>I129</t>
+  </si>
+  <si>
+    <t>I130</t>
+  </si>
+  <si>
+    <t>26/6/1947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Павловна </t>
+  </si>
+  <si>
+    <t>Тевелева</t>
+  </si>
+  <si>
+    <t>I128</t>
+  </si>
+  <si>
+    <t>I127</t>
+  </si>
+  <si>
+    <t>1/8/1946</t>
+  </si>
+  <si>
+    <t>ур Чмеренко</t>
+  </si>
+  <si>
+    <t>Чмеренко</t>
+  </si>
+  <si>
+    <t>1/9/1922</t>
+  </si>
+  <si>
+    <t>ур Алонцева</t>
+  </si>
+  <si>
+    <t>Назарович</t>
+  </si>
+  <si>
+    <t>14/12/1914</t>
+  </si>
+  <si>
+    <t>1/1/1977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Вениамин </t>
+  </si>
+  <si>
+    <t>Самуилович</t>
+  </si>
+  <si>
+    <t>1/1/1915</t>
+  </si>
+  <si>
+    <t>1/1/1987</t>
+  </si>
+  <si>
+    <t>Филипповна</t>
+  </si>
+  <si>
+    <t>ур Новикова</t>
+  </si>
+  <si>
+    <t>I131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Аркадий </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Вениаминович </t>
+  </si>
+  <si>
+    <t>8/3/1941</t>
+  </si>
+  <si>
+    <t>I132</t>
+  </si>
+  <si>
+    <t>Лев</t>
+  </si>
+  <si>
+    <t>21/1/2012</t>
+  </si>
+  <si>
+    <t>I133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Владимир </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кириллович </t>
+  </si>
+  <si>
+    <t>6/1/1947</t>
+  </si>
+  <si>
+    <t>I134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Александр </t>
+  </si>
+  <si>
+    <t>5/12/1948</t>
+  </si>
+  <si>
+    <t>I135</t>
+  </si>
+  <si>
+    <t>Винюков</t>
+  </si>
+  <si>
+    <t>I138</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I137</t>
+  </si>
+  <si>
+    <t>16/6/1981</t>
+  </si>
+  <si>
+    <t>I136</t>
+  </si>
+  <si>
+    <t>Виктория</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Александровна </t>
+  </si>
+  <si>
+    <t>Винюкова</t>
+  </si>
+  <si>
+    <t>14/6/2014</t>
+  </si>
+  <si>
+    <t>I137</t>
+  </si>
+  <si>
+    <t>Владимировна</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Виктор </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Евгеньевич </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Винюков </t>
+  </si>
+  <si>
+    <t>30/09/1850</t>
+  </si>
+  <si>
+    <t>22/01/1908</t>
+  </si>
+  <si>
+    <t>I144</t>
+  </si>
+  <si>
+    <t>I145</t>
+  </si>
+  <si>
+    <t>25/3/1859</t>
+  </si>
+  <si>
+    <t>30/10/1951</t>
+  </si>
+  <si>
+    <t>Саломия ур Сапарова</t>
+  </si>
+  <si>
+    <t>I141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7/3/1888 </t>
+  </si>
+  <si>
+    <t>8/6/1937</t>
+  </si>
+  <si>
+    <t>I142</t>
+  </si>
+  <si>
+    <t>13/12/1899</t>
+  </si>
+  <si>
+    <t>14/7/1961</t>
+  </si>
+  <si>
+    <t>I143</t>
+  </si>
+  <si>
+    <t>Юлия</t>
+  </si>
+  <si>
+    <t>Александровна</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>15/1/1908</t>
+  </si>
+  <si>
+    <t>Герасимович</t>
+  </si>
+  <si>
+    <t>Сапаров</t>
+  </si>
+  <si>
+    <t>София</t>
+  </si>
+  <si>
+    <t>Сапарова</t>
+  </si>
+  <si>
+    <t>(урожденная Паатова)</t>
+  </si>
+  <si>
+    <t>Заренков</t>
+  </si>
+  <si>
+    <t>I147</t>
+  </si>
+  <si>
+    <t>Столяров</t>
+  </si>
+  <si>
+    <t>I148</t>
+  </si>
+  <si>
+    <t>Валерия</t>
+  </si>
+  <si>
+    <t>Столярова</t>
+  </si>
+  <si>
+    <t>ур Хомякова двоюродная сестра I52 ЕА Мишиной</t>
+  </si>
+  <si>
+    <t>I149</t>
+  </si>
+  <si>
+    <t>21/5/1911</t>
+  </si>
+  <si>
+    <t>5/4/1956</t>
+  </si>
+  <si>
+    <t>I150</t>
+  </si>
+  <si>
+    <t>ур Зарубина</t>
+  </si>
+  <si>
+    <t>I151</t>
+  </si>
+  <si>
+    <t>7/6/1936</t>
+  </si>
+  <si>
+    <t>I152</t>
+  </si>
+  <si>
+    <t>21/3/1941</t>
+  </si>
+  <si>
+    <t>ур Захарова</t>
+  </si>
+  <si>
+    <t>I153</t>
+  </si>
+  <si>
+    <t>18/9/1967</t>
+  </si>
+  <si>
+    <t>I154</t>
+  </si>
+  <si>
+    <t>Олеговна</t>
+  </si>
+  <si>
+    <t>8/4/1969</t>
+  </si>
+  <si>
+    <t>ур Комендант</t>
+  </si>
+  <si>
+    <t>I155</t>
+  </si>
+  <si>
+    <t>8/11/1993</t>
+  </si>
+  <si>
+    <t>I156</t>
+  </si>
+  <si>
+    <t>19/2/2000</t>
+  </si>
+  <si>
+    <t>I157</t>
+  </si>
+  <si>
+    <t>Варвара</t>
+  </si>
+  <si>
+    <t>1/4/2002</t>
+  </si>
+  <si>
+    <t>I158</t>
+  </si>
+  <si>
+    <t>Павловна</t>
+  </si>
+  <si>
+    <t>20/4/1970</t>
+  </si>
+  <si>
+    <t>I159</t>
+  </si>
+  <si>
+    <t>31/11/1937</t>
+  </si>
+  <si>
+    <t>I160</t>
+  </si>
+  <si>
+    <t>13/5/1940</t>
+  </si>
+  <si>
+    <t>ур Николкина</t>
+  </si>
+  <si>
+    <t>I161</t>
+  </si>
+  <si>
+    <t>Наталия</t>
+  </si>
+  <si>
+    <t>20/2/1965</t>
+  </si>
+  <si>
+    <t>I162</t>
+  </si>
+  <si>
+    <t>Брайцева</t>
+  </si>
+  <si>
+    <t>12/7/1936</t>
+  </si>
+  <si>
+    <t>I163</t>
+  </si>
+  <si>
+    <t>11/9/1940</t>
+  </si>
+  <si>
+    <t>17/10/2008</t>
+  </si>
+  <si>
+    <t>I164</t>
+  </si>
+  <si>
+    <t>19/3/1942</t>
+  </si>
+  <si>
+    <t>ур Афонина</t>
+  </si>
+  <si>
+    <t>I165</t>
+  </si>
+  <si>
+    <t>23/12/1946</t>
+  </si>
+  <si>
+    <t>I166</t>
+  </si>
+  <si>
+    <t>Владимирович</t>
+  </si>
+  <si>
+    <t>11/10/1974</t>
+  </si>
+  <si>
+    <t>I167</t>
+  </si>
+  <si>
+    <t>Дина</t>
+  </si>
+  <si>
+    <t>Раливовна</t>
+  </si>
+  <si>
+    <t>27/4/1974</t>
+  </si>
+  <si>
+    <t>ур Зианурова</t>
+  </si>
+  <si>
+    <t>I168</t>
+  </si>
+  <si>
+    <t>2/7/2001</t>
+  </si>
+  <si>
+    <t>I169</t>
+  </si>
+  <si>
+    <t>18/11/2003</t>
+  </si>
+  <si>
+    <t>I170</t>
+  </si>
+  <si>
+    <t>1/6/1977</t>
+  </si>
+  <si>
+    <t>I171</t>
+  </si>
+  <si>
+    <t>28/01/1974</t>
+  </si>
+  <si>
+    <t>ур Симонова</t>
+  </si>
+  <si>
+    <t>I172</t>
+  </si>
+  <si>
+    <t>22/9/1998</t>
+  </si>
+  <si>
+    <t>I173</t>
+  </si>
+  <si>
+    <t>8/10/2008</t>
+  </si>
+  <si>
+    <t>I174</t>
+  </si>
+  <si>
+    <t>Светлана</t>
+  </si>
+  <si>
+    <t>Васильвена</t>
+  </si>
+  <si>
+    <t>12/5/1947</t>
+  </si>
+  <si>
+    <t>ур Кретова</t>
+  </si>
+  <si>
+    <t>I175</t>
+  </si>
+  <si>
+    <t>4/7/1980</t>
+  </si>
+  <si>
+    <t>I176</t>
+  </si>
+  <si>
+    <t>12/10/1947</t>
+  </si>
+  <si>
+    <t>ур Осипова</t>
+  </si>
+  <si>
+    <t>I177</t>
+  </si>
+  <si>
+    <t>20/8/1974</t>
+  </si>
+  <si>
+    <t>I178</t>
+  </si>
+  <si>
+    <t>8/12/1979</t>
+  </si>
+  <si>
+    <t>I179</t>
+  </si>
+  <si>
+    <t>28/10/1921</t>
+  </si>
+  <si>
+    <t>I180</t>
+  </si>
+  <si>
+    <t>23/12/1947</t>
+  </si>
+  <si>
+    <t>I181</t>
+  </si>
+  <si>
+    <t>29/10/1952</t>
+  </si>
+  <si>
+    <t>I182</t>
+  </si>
+  <si>
+    <t>11/10/1924</t>
+  </si>
+  <si>
+    <t>19/8/2014</t>
+  </si>
+  <si>
+    <t>I183</t>
+  </si>
+  <si>
+    <t>I189</t>
+  </si>
+  <si>
+    <t>18/8/1933</t>
+  </si>
+  <si>
+    <t>I184</t>
+  </si>
+  <si>
+    <t>Донара</t>
+  </si>
+  <si>
+    <t>Николаевна</t>
+  </si>
+  <si>
+    <t>Смокотина</t>
+  </si>
+  <si>
+    <t>29/3/1934</t>
+  </si>
+  <si>
+    <t>2/1/2015</t>
+  </si>
+  <si>
+    <t>I185</t>
+  </si>
+  <si>
+    <t>Леонидона</t>
+  </si>
+  <si>
+    <t>Фокина</t>
+  </si>
+  <si>
+    <t>6/8/1958</t>
+  </si>
+  <si>
+    <t>ур Флоренская</t>
+  </si>
+  <si>
+    <t>I186</t>
+  </si>
+  <si>
+    <t>Андреевна</t>
+  </si>
+  <si>
+    <t>12/3/1939</t>
+  </si>
+  <si>
+    <t>I187</t>
+  </si>
+  <si>
+    <t>Фомина</t>
+  </si>
+  <si>
+    <t>1982</t>
+  </si>
+  <si>
+    <t>I188</t>
+  </si>
+  <si>
+    <t>Апександр</t>
+  </si>
+  <si>
+    <t>11/09/1927</t>
+  </si>
+  <si>
+    <t>01/05/1957</t>
+  </si>
+  <si>
+    <t>Антонина</t>
+  </si>
+  <si>
+    <t>I190</t>
+  </si>
+  <si>
+    <t>I191</t>
+  </si>
+  <si>
+    <t>27/09/1903</t>
+  </si>
+  <si>
+    <t>7/09/1979</t>
+  </si>
+  <si>
+    <t>ур Григорьева</t>
+  </si>
+  <si>
+    <t>Кузьмич</t>
+  </si>
+  <si>
+    <t>Григорьев</t>
+  </si>
+  <si>
+    <t>Евдокия</t>
+  </si>
+  <si>
+    <t>Григорьева</t>
+  </si>
+  <si>
+    <t>1962</t>
+  </si>
+  <si>
+    <t>I192</t>
+  </si>
+  <si>
+    <t>I193</t>
+  </si>
+  <si>
+    <t>I194</t>
+  </si>
+  <si>
+    <t>11/4/2010</t>
+  </si>
+  <si>
+    <t>Екатерина</t>
+  </si>
+  <si>
+    <t>6/2/1981</t>
+  </si>
+  <si>
+    <t>I195</t>
+  </si>
+  <si>
+    <t>Людмила</t>
+  </si>
+  <si>
+    <t>Никитична</t>
+  </si>
+  <si>
+    <t>I196</t>
+  </si>
+  <si>
+    <t>26/5/2009</t>
+  </si>
+  <si>
+    <t>Полуевская</t>
+  </si>
+  <si>
+    <t>08/03/1973</t>
+  </si>
+  <si>
+    <t>I197</t>
+  </si>
+  <si>
+    <t>I198</t>
+  </si>
+  <si>
+    <t>27/11/1996</t>
+  </si>
+  <si>
+    <t>Оксана</t>
+  </si>
+  <si>
+    <t>Леонидовна</t>
+  </si>
+  <si>
+    <t>27/5/2015</t>
+  </si>
+  <si>
+    <t>I199</t>
+  </si>
+  <si>
+    <t>Сергеевна</t>
+  </si>
+  <si>
+    <t>I200</t>
+  </si>
+  <si>
+    <t>24/2/1994</t>
+  </si>
+  <si>
+    <t>крестная дочь</t>
+  </si>
+  <si>
+    <t>Левицкий</t>
+  </si>
+  <si>
+    <t>I202</t>
+  </si>
+  <si>
+    <t>I201</t>
+  </si>
+  <si>
+    <t>Лиана</t>
+  </si>
+  <si>
+    <t>I203</t>
+  </si>
+  <si>
+    <t>Раиса</t>
+  </si>
+  <si>
+    <t>Даниловна</t>
+  </si>
+  <si>
+    <t>I204</t>
+  </si>
+  <si>
+    <t>29/8/1992</t>
+  </si>
+  <si>
+    <t>I205</t>
+  </si>
+  <si>
+    <t>27/5/1991</t>
+  </si>
+  <si>
+    <t>I206</t>
+  </si>
+  <si>
+    <t>18/7/1990</t>
+  </si>
+  <si>
+    <t>I207</t>
+  </si>
+  <si>
+    <t>Герман</t>
+  </si>
+  <si>
+    <t>Никитович</t>
+  </si>
+  <si>
+    <t>Волгин</t>
   </si>
 </sst>
 </file>
@@ -1025,7 +1817,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd\/mm\/yyyy"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -1046,16 +1838,29 @@
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
     </font>
+    <font/>
     <font>
       <sz val="10.0"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="lightGray"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB7DEE8"/>
+        <bgColor rgb="FFB7DEE8"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1069,27 +1874,42 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="16">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="14" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="14" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1345,7 +2165,7 @@
       <c r="M5" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="N5" s="3" t="s">
+      <c r="N5" s="2" t="s">
         <v>40</v>
       </c>
       <c r="O5" s="1">
@@ -1474,10 +2294,12 @@
       </c>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
-      <c r="M8" s="2" t="s">
+      <c r="M8" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="N8" s="1"/>
+      <c r="N8" s="4" t="s">
+        <v>57</v>
+      </c>
       <c r="O8" s="1">
         <v>0.0</v>
       </c>
@@ -1495,16 +2317,16 @@
     </row>
     <row r="9" ht="12.75" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
@@ -1539,7 +2361,7 @@
         <v>49</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>51</v>
@@ -1547,18 +2369,18 @@
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
-      <c r="M10" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="N10" s="2" t="s">
+      <c r="M10" s="3" t="s">
         <v>64</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>65</v>
       </c>
       <c r="O10" s="1">
         <v>0.0</v>
@@ -1577,12 +2399,12 @@
     </row>
     <row r="11" ht="12.75" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>44</v>
@@ -1624,7 +2446,7 @@
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1" t="s">
@@ -1655,15 +2477,15 @@
     </row>
     <row r="13" ht="12.75" customHeight="1">
       <c r="A13" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>51</v>
@@ -1671,10 +2493,10 @@
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
@@ -1697,31 +2519,31 @@
     </row>
     <row r="14" ht="12.75" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
-      <c r="M14" s="4" t="s">
-        <v>76</v>
+      <c r="M14" s="5" t="s">
+        <v>77</v>
       </c>
       <c r="N14" s="1"/>
       <c r="O14" s="1">
@@ -1746,10 +2568,10 @@
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>45</v>
@@ -1757,18 +2579,18 @@
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K15" s="1"/>
-      <c r="L15" s="5" t="str">
+      <c r="L15" s="6" t="str">
         <f>HYPERLINK("http://www.geni.com/photo/view/?photo_id=6000000001951156276","http://www.geni.com/photo/view/?photo_id=6000000001951156276")</f>
         <v>http://www.geni.com/photo/view/?photo_id=6000000001951156276</v>
       </c>
-      <c r="M15" s="2" t="s">
-        <v>81</v>
+      <c r="M15" s="3" t="s">
+        <v>82</v>
       </c>
       <c r="N15" s="1"/>
       <c r="O15" s="1">
@@ -1788,23 +2610,23 @@
     </row>
     <row r="16" ht="12.75" customHeight="1">
       <c r="A16" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>47</v>
@@ -1830,12 +2652,12 @@
     </row>
     <row r="17" ht="12.75" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>50</v>
@@ -1851,16 +2673,16 @@
       <c r="J17" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="K17" s="5" t="str">
+      <c r="K17" s="6" t="str">
         <f>HYPERLINK("mailto:mi@ya.ru","mi@ya.ru")</f>
         <v>mi@ya.ru</v>
       </c>
-      <c r="L17" s="5" t="str">
+      <c r="L17" s="6" t="str">
         <f>HYPERLINK("http://www.geni.com/photo/view/?photo_id=6000000000910785672","http://www.geni.com/photo/view/?photo_id=6000000000910785672")</f>
         <v>http://www.geni.com/photo/view/?photo_id=6000000000910785672</v>
       </c>
-      <c r="M17" s="2" t="s">
-        <v>87</v>
+      <c r="M17" s="3" t="s">
+        <v>88</v>
       </c>
       <c r="N17" s="1"/>
       <c r="O17" s="1">
@@ -1870,7 +2692,7 @@
         <v>1.0</v>
       </c>
       <c r="Q17" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="R17" s="1"/>
       <c r="S17" s="1"/>
@@ -1878,7 +2700,7 @@
         <v>780.0</v>
       </c>
       <c r="U17" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="V17" s="1"/>
       <c r="W17" s="1"/>
@@ -1891,29 +2713,29 @@
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>37</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
-      <c r="M18" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="N18" s="2" t="s">
+      <c r="M18" s="3" t="s">
         <v>95</v>
+      </c>
+      <c r="N18" s="3" t="s">
+        <v>96</v>
       </c>
       <c r="O18" s="1">
         <v>1.0</v>
@@ -1932,18 +2754,18 @@
     </row>
     <row r="19" ht="12.75" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>44</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
@@ -1955,8 +2777,8 @@
       </c>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
-      <c r="M19" s="2" t="s">
-        <v>98</v>
+      <c r="M19" s="3" t="s">
+        <v>99</v>
       </c>
       <c r="N19" s="1"/>
       <c r="O19" s="1">
@@ -1976,16 +2798,16 @@
     </row>
     <row r="20" ht="12.75" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
@@ -1993,8 +2815,8 @@
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
-      <c r="M20" s="2" t="s">
-        <v>102</v>
+      <c r="M20" s="3" t="s">
+        <v>103</v>
       </c>
       <c r="N20" s="1"/>
       <c r="O20" s="1">
@@ -2014,34 +2836,34 @@
     </row>
     <row r="21" ht="12.75" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="J21" s="1" t="s">
         <v>36</v>
       </c>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
-      <c r="M21" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="N21" s="2" t="s">
+      <c r="M21" s="3" t="s">
         <v>108</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>109</v>
       </c>
       <c r="O21" s="1">
         <v>0.0</v>
@@ -2060,7 +2882,7 @@
     </row>
     <row r="22" ht="12.75" customHeight="1">
       <c r="A22" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -2070,8 +2892,8 @@
       <c r="E22" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F22" s="1" t="s">
-        <v>45</v>
+      <c r="F22" s="4" t="s">
+        <v>111</v>
       </c>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
@@ -2083,7 +2905,9 @@
       </c>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
-      <c r="M22" s="1"/>
+      <c r="M22" s="4" t="s">
+        <v>112</v>
+      </c>
       <c r="N22" s="1"/>
       <c r="O22" s="1">
         <v>1.0</v>
@@ -2098,11 +2922,13 @@
       <c r="U22" s="1"/>
       <c r="V22" s="1"/>
       <c r="W22" s="1"/>
-      <c r="X22" s="1"/>
+      <c r="X22" s="4" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="23" ht="12.75" customHeight="1">
       <c r="A23" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -2110,10 +2936,10 @@
         <v>31</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
@@ -2136,22 +2962,22 @@
       <c r="U23" s="1"/>
       <c r="V23" s="1"/>
       <c r="W23" s="1"/>
-      <c r="X23" s="6" t="s">
-        <v>111</v>
+      <c r="X23" s="7" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="24" ht="12.75" customHeight="1">
       <c r="A24" s="1" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E24" s="1"/>
       <c r="F24" s="1" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
@@ -2178,7 +3004,7 @@
     </row>
     <row r="25" ht="12.75" customHeight="1">
       <c r="A25" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -2189,20 +3015,24 @@
         <v>53</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
-      <c r="M25" s="1"/>
-      <c r="N25" s="1"/>
+      <c r="M25" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="N25" s="4" t="s">
+        <v>123</v>
+      </c>
       <c r="O25" s="1">
         <v>0.0</v>
       </c>
@@ -2220,21 +3050,21 @@
     </row>
     <row r="26" ht="12.75" customHeight="1">
       <c r="A26" s="1" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="E26" s="1"/>
       <c r="F26" s="1" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="J26" s="1" t="s">
         <v>24</v>
@@ -2265,16 +3095,16 @@
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="E27" s="1"/>
       <c r="F27" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J27" s="1" t="s">
         <v>27</v>
@@ -2300,21 +3130,21 @@
     </row>
     <row r="28" ht="12.75" customHeight="1">
       <c r="A28" s="1" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="E28" s="1"/>
       <c r="F28" s="1" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="J28" s="1" t="s">
         <v>24</v>
@@ -2340,15 +3170,15 @@
     </row>
     <row r="29" ht="12.75" customHeight="1">
       <c r="A29" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>38</v>
@@ -2356,15 +3186,15 @@
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="J29" s="1" t="s">
         <v>30</v>
       </c>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
-      <c r="M29" s="2" t="s">
-        <v>125</v>
+      <c r="M29" s="3" t="s">
+        <v>131</v>
       </c>
       <c r="N29" s="1"/>
       <c r="O29" s="1">
@@ -2384,32 +3214,40 @@
     </row>
     <row r="30" ht="12.75" customHeight="1">
       <c r="A30" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
+      <c r="I30" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="J30" s="4" t="s">
+        <v>135</v>
+      </c>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
-      <c r="M30" s="1"/>
-      <c r="N30" s="1"/>
+      <c r="M30" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="N30" s="8" t="s">
+        <v>137</v>
+      </c>
       <c r="O30" s="1">
         <v>0.0</v>
       </c>
-      <c r="P30" s="1">
-        <v>1.0</v>
+      <c r="P30" s="4">
+        <v>0.0</v>
       </c>
       <c r="Q30" s="1"/>
       <c r="R30" s="1"/>
@@ -2422,12 +3260,12 @@
     </row>
     <row r="31" ht="12.75" customHeight="1">
       <c r="A31" s="1" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>50</v>
@@ -2463,32 +3301,32 @@
       <c r="X31" s="1"/>
     </row>
     <row r="32" ht="12.75" customHeight="1">
-      <c r="A32" s="2" t="s">
-        <v>130</v>
+      <c r="A32" s="3" t="s">
+        <v>140</v>
       </c>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
-      <c r="M32" s="2" t="s">
-        <v>136</v>
+      <c r="M32" s="3" t="s">
+        <v>146</v>
       </c>
       <c r="N32" s="1"/>
       <c r="O32" s="1">
@@ -2507,32 +3345,32 @@
       <c r="X32" s="1"/>
     </row>
     <row r="33" ht="12.75" customHeight="1">
-      <c r="A33" s="2" t="s">
-        <v>137</v>
+      <c r="A33" s="3" t="s">
+        <v>147</v>
       </c>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>51</v>
       </c>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
-      <c r="I33" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="J33" s="2" t="s">
-        <v>130</v>
+      <c r="I33" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="J33" s="3" t="s">
+        <v>140</v>
       </c>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
-      <c r="M33" s="3" t="s">
-        <v>140</v>
+      <c r="M33" s="9" t="s">
+        <v>150</v>
       </c>
       <c r="N33" s="1"/>
       <c r="O33" s="1">
@@ -2552,7 +3390,7 @@
     </row>
     <row r="34" ht="12.75" customHeight="1">
       <c r="A34" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -2568,10 +3406,10 @@
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
       <c r="I34" s="1" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
@@ -2591,23 +3429,23 @@
       <c r="V34" s="1"/>
       <c r="W34" s="1"/>
       <c r="X34" s="1" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
     </row>
     <row r="35" ht="12.75" customHeight="1">
       <c r="A35" s="1" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
@@ -2634,7 +3472,7 @@
     </row>
     <row r="36" ht="12.75" customHeight="1">
       <c r="A36" s="1" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -2642,10 +3480,10 @@
         <v>49</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
@@ -2672,7 +3510,7 @@
     </row>
     <row r="37" ht="12.75" customHeight="1">
       <c r="A37" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -2680,10 +3518,10 @@
         <v>25</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
@@ -2707,23 +3545,23 @@
       <c r="V37" s="1"/>
       <c r="W37" s="1"/>
       <c r="X37" s="1" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
     </row>
     <row r="38" ht="12.75" customHeight="1">
       <c r="A38" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
@@ -2750,12 +3588,12 @@
     </row>
     <row r="39" ht="12.75" customHeight="1">
       <c r="A39" s="1" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>53</v>
@@ -2773,8 +3611,8 @@
       </c>
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
-      <c r="M39" s="3" t="s">
-        <v>152</v>
+      <c r="M39" s="9" t="s">
+        <v>162</v>
       </c>
       <c r="N39" s="1"/>
       <c r="O39" s="1">
@@ -2794,7 +3632,7 @@
     </row>
     <row r="40" ht="12.75" customHeight="1">
       <c r="A40" s="1" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -2817,8 +3655,8 @@
       </c>
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
-      <c r="M40" s="3" t="s">
-        <v>154</v>
+      <c r="M40" s="9" t="s">
+        <v>164</v>
       </c>
       <c r="N40" s="1"/>
       <c r="O40" s="1">
@@ -2838,15 +3676,15 @@
     </row>
     <row r="41" ht="12.75" customHeight="1">
       <c r="A41" s="1" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
-      <c r="D41" s="2" t="s">
-        <v>122</v>
+      <c r="D41" s="3" t="s">
+        <v>128</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F41" s="1" t="s">
         <v>51</v>
@@ -2854,18 +3692,18 @@
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
       <c r="I41" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
-      <c r="M41" s="3" t="s">
-        <v>156</v>
+      <c r="M41" s="9" t="s">
+        <v>166</v>
       </c>
       <c r="N41" s="1" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="O41" s="1">
         <v>0.0</v>
@@ -2884,15 +3722,15 @@
     </row>
     <row r="42" ht="12.75" customHeight="1">
       <c r="A42" s="1" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
-      <c r="D42" s="2" t="s">
-        <v>86</v>
+      <c r="D42" s="3" t="s">
+        <v>87</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F42" s="1" t="s">
         <v>51</v>
@@ -2900,18 +3738,18 @@
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
       <c r="I42" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
-      <c r="M42" s="3" t="s">
-        <v>159</v>
+      <c r="M42" s="9" t="s">
+        <v>169</v>
       </c>
       <c r="N42" s="1" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="O42" s="1">
         <v>0.0</v>
@@ -2930,15 +3768,15 @@
     </row>
     <row r="43" ht="12.75" customHeight="1">
       <c r="A43" s="1" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
-      <c r="D43" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>162</v>
+      <c r="D43" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>172</v>
       </c>
       <c r="F43" s="1" t="s">
         <v>51</v>
@@ -2946,7 +3784,7 @@
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
       <c r="I43" s="1" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
@@ -2970,15 +3808,15 @@
     </row>
     <row r="44" ht="12.75" customHeight="1">
       <c r="A44" s="1" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
-      <c r="D44" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>162</v>
+      <c r="D44" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>172</v>
       </c>
       <c r="F44" s="1" t="s">
         <v>51</v>
@@ -2986,7 +3824,7 @@
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
       <c r="I44" s="1" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
@@ -3010,15 +3848,15 @@
     </row>
     <row r="45" ht="12.75" customHeight="1">
       <c r="A45" s="1" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
-      <c r="D45" s="2" t="s">
+      <c r="D45" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="E45" s="2" t="s">
-        <v>162</v>
+      <c r="E45" s="3" t="s">
+        <v>172</v>
       </c>
       <c r="F45" s="1" t="s">
         <v>51</v>
@@ -3026,7 +3864,7 @@
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
       <c r="I45" s="1" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
@@ -3050,15 +3888,15 @@
     </row>
     <row r="46" ht="12.75" customHeight="1">
       <c r="A46" s="1" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
-      <c r="D46" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>162</v>
+      <c r="D46" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>172</v>
       </c>
       <c r="F46" s="1" t="s">
         <v>51</v>
@@ -3066,7 +3904,7 @@
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
       <c r="I46" s="1" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
@@ -3090,15 +3928,15 @@
     </row>
     <row r="47" ht="12.75" customHeight="1">
       <c r="A47" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F47" s="1" t="s">
         <v>51</v>
@@ -3106,15 +3944,15 @@
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
       <c r="I47" s="1" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="K47" s="1"/>
       <c r="L47" s="1"/>
-      <c r="M47" s="2" t="s">
-        <v>170</v>
+      <c r="M47" s="3" t="s">
+        <v>180</v>
       </c>
       <c r="N47" s="1">
         <v>1917.0</v>
@@ -3136,7 +3974,7 @@
     </row>
     <row r="48" ht="12.75" customHeight="1">
       <c r="A48" s="1" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -3144,7 +3982,7 @@
         <v>49</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F48" s="1" t="s">
         <v>51</v>
@@ -3152,15 +3990,15 @@
       <c r="G48" s="1"/>
       <c r="H48" s="1"/>
       <c r="I48" s="1" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="K48" s="1"/>
       <c r="L48" s="1"/>
-      <c r="M48" s="2" t="s">
-        <v>172</v>
+      <c r="M48" s="3" t="s">
+        <v>182</v>
       </c>
       <c r="N48" s="1">
         <v>1917.0</v>
@@ -3179,20 +4017,20 @@
       <c r="V48" s="1"/>
       <c r="W48" s="1"/>
       <c r="X48" s="1" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
     </row>
     <row r="49" ht="12.75" customHeight="1">
       <c r="A49" s="1" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="F49" s="1" t="s">
         <v>51</v>
@@ -3200,13 +4038,13 @@
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
       <c r="I49" s="1" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
       <c r="L49" s="1"/>
       <c r="M49" s="2" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="N49" s="1"/>
       <c r="O49" s="1">
@@ -3223,12 +4061,12 @@
       <c r="V49" s="1"/>
       <c r="W49" s="1"/>
       <c r="X49" s="1" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
     </row>
     <row r="50" ht="12.75" customHeight="1">
       <c r="A50" s="1" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -3266,15 +4104,15 @@
     </row>
     <row r="51" ht="12.75" customHeight="1">
       <c r="A51" s="1" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="F51" s="1" t="s">
         <v>45</v>
@@ -3282,15 +4120,15 @@
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
       <c r="I51" s="1" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="K51" s="1"/>
       <c r="L51" s="1"/>
-      <c r="M51" s="2" t="s">
-        <v>181</v>
+      <c r="M51" s="3" t="s">
+        <v>191</v>
       </c>
       <c r="N51" s="1"/>
       <c r="O51" s="1">
@@ -3310,12 +4148,12 @@
     </row>
     <row r="52" ht="12.75" customHeight="1">
       <c r="A52" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1" t="s">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>44</v>
@@ -3345,20 +4183,20 @@
       <c r="V52" s="1"/>
       <c r="W52" s="1"/>
       <c r="X52" s="1" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
     </row>
     <row r="53" ht="12.75" customHeight="1">
       <c r="A53" s="1" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F53" s="1" t="s">
         <v>51</v>
@@ -3366,10 +4204,10 @@
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
       <c r="I53" s="1" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="K53" s="1"/>
       <c r="L53" s="1"/>
@@ -3392,15 +4230,15 @@
     </row>
     <row r="54" ht="12.75" customHeight="1">
       <c r="A54" s="1" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1" t="s">
-        <v>186</v>
+        <v>196</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F54" s="1" t="s">
         <v>51</v>
@@ -3408,10 +4246,10 @@
       <c r="G54" s="1"/>
       <c r="H54" s="1"/>
       <c r="I54" s="1" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="K54" s="1"/>
       <c r="L54" s="1"/>
@@ -3434,15 +4272,15 @@
     </row>
     <row r="55" ht="12.75" customHeight="1">
       <c r="A55" s="1" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1" t="s">
-        <v>188</v>
+        <v>198</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
       <c r="F55" s="1" t="s">
         <v>45</v>
@@ -3469,17 +4307,17 @@
       <c r="V55" s="1"/>
       <c r="W55" s="1"/>
       <c r="X55" s="1" t="s">
-        <v>190</v>
+        <v>200</v>
       </c>
     </row>
     <row r="56" ht="12.75" customHeight="1">
       <c r="A56" s="1" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1" t="s">
-        <v>191</v>
+        <v>201</v>
       </c>
       <c r="E56" s="1"/>
       <c r="F56" s="1" t="s">
@@ -3491,8 +4329,8 @@
       <c r="J56" s="1"/>
       <c r="K56" s="1"/>
       <c r="L56" s="1"/>
-      <c r="M56" s="2" t="s">
-        <v>192</v>
+      <c r="M56" s="3" t="s">
+        <v>202</v>
       </c>
       <c r="N56" s="1"/>
       <c r="O56" s="1">
@@ -3512,7 +4350,7 @@
     </row>
     <row r="57" ht="12.75" customHeight="1">
       <c r="A57" s="1" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
@@ -3523,12 +4361,16 @@
         <v>53</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="G57" s="1"/>
       <c r="H57" s="1"/>
-      <c r="I57" s="1"/>
-      <c r="J57" s="1"/>
+      <c r="I57" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="J57" s="1" t="s">
+        <v>121</v>
+      </c>
       <c r="K57" s="1"/>
       <c r="L57" s="1"/>
       <c r="M57" s="1"/>
@@ -3550,24 +4392,26 @@
     </row>
     <row r="58" ht="12.75" customHeight="1">
       <c r="A58" s="1" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1" t="s">
-        <v>193</v>
+        <v>203</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G58" s="1"/>
       <c r="H58" s="1"/>
-      <c r="I58" s="1"/>
+      <c r="I58" s="4" t="s">
+        <v>204</v>
+      </c>
       <c r="J58" s="1" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="K58" s="1"/>
       <c r="L58" s="1"/>
@@ -3586,20 +4430,22 @@
       <c r="U58" s="1"/>
       <c r="V58" s="1"/>
       <c r="W58" s="1"/>
-      <c r="X58" s="1"/>
+      <c r="X58" s="4" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="59" ht="12.75" customHeight="1">
       <c r="A59" s="1" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1" t="s">
-        <v>195</v>
+        <v>207</v>
       </c>
       <c r="E59" s="1"/>
       <c r="F59" s="1" t="s">
-        <v>195</v>
+        <v>207</v>
       </c>
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
@@ -3609,10 +4455,10 @@
       <c r="L59" s="1"/>
       <c r="M59" s="1"/>
       <c r="N59" s="1"/>
-      <c r="O59" s="7">
+      <c r="O59" s="4">
         <v>1.0</v>
       </c>
-      <c r="P59" s="7">
+      <c r="P59" s="4">
         <v>0.0</v>
       </c>
       <c r="Q59" s="1"/>
@@ -3626,37 +4472,37 @@
     </row>
     <row r="60" ht="12.75" customHeight="1">
       <c r="A60" s="1" t="s">
-        <v>196</v>
+        <v>208</v>
       </c>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
-      <c r="D60" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="E60" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="F60" s="7" t="s">
-        <v>133</v>
+      <c r="D60" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="E60" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="F60" s="4" t="s">
+        <v>143</v>
       </c>
       <c r="G60" s="1"/>
       <c r="H60" s="1"/>
       <c r="I60" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="J60" s="2" t="s">
-        <v>130</v>
+        <v>210</v>
+      </c>
+      <c r="J60" s="3" t="s">
+        <v>140</v>
       </c>
       <c r="K60" s="1"/>
       <c r="L60" s="1"/>
-      <c r="M60" s="7" t="s">
-        <v>199</v>
+      <c r="M60" s="4" t="s">
+        <v>211</v>
       </c>
       <c r="N60" s="1"/>
-      <c r="O60" s="7">
+      <c r="O60" s="4">
         <v>1.0</v>
       </c>
-      <c r="P60" s="7">
+      <c r="P60" s="4">
         <v>1.0</v>
       </c>
       <c r="Q60" s="1"/>
@@ -3670,37 +4516,37 @@
     </row>
     <row r="61" ht="12.75" customHeight="1">
       <c r="A61" s="1" t="s">
-        <v>198</v>
+        <v>210</v>
       </c>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
-      <c r="D61" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="E61" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="F61" s="7" t="s">
-        <v>201</v>
+      <c r="D61" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="E61" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="F61" s="4" t="s">
+        <v>213</v>
       </c>
       <c r="G61" s="1"/>
       <c r="H61" s="1"/>
       <c r="I61" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="J61" s="7" t="s">
-        <v>203</v>
+        <v>214</v>
+      </c>
+      <c r="J61" s="4" t="s">
+        <v>215</v>
       </c>
       <c r="K61" s="1"/>
       <c r="L61" s="1"/>
-      <c r="M61" s="7" t="s">
-        <v>204</v>
+      <c r="M61" s="4" t="s">
+        <v>216</v>
       </c>
       <c r="N61" s="1"/>
-      <c r="O61" s="7">
+      <c r="O61" s="4">
         <v>0.0</v>
       </c>
-      <c r="P61" s="7">
+      <c r="P61" s="4">
         <v>1.0</v>
       </c>
       <c r="Q61" s="1"/>
@@ -3714,31 +4560,31 @@
     </row>
     <row r="62" ht="12.75" customHeight="1">
       <c r="A62" s="1" t="s">
-        <v>202</v>
+        <v>214</v>
       </c>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
-      <c r="D62" s="7" t="s">
-        <v>205</v>
+      <c r="D62" s="4" t="s">
+        <v>217</v>
       </c>
       <c r="E62" s="1"/>
-      <c r="F62" s="7" t="s">
-        <v>201</v>
+      <c r="F62" s="4" t="s">
+        <v>213</v>
       </c>
       <c r="G62" s="1"/>
       <c r="H62" s="1"/>
       <c r="I62" s="1"/>
       <c r="J62" s="1" t="s">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="K62" s="1"/>
       <c r="L62" s="1"/>
       <c r="M62" s="1"/>
       <c r="N62" s="1"/>
-      <c r="O62" s="7">
+      <c r="O62" s="4">
         <v>0.0</v>
       </c>
-      <c r="P62" s="7">
+      <c r="P62" s="4">
         <v>0.0</v>
       </c>
       <c r="Q62" s="1"/>
@@ -3752,16 +4598,16 @@
     </row>
     <row r="63" ht="12.75" customHeight="1">
       <c r="A63" s="1" t="s">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
-      <c r="D63" s="7" t="s">
-        <v>207</v>
+      <c r="D63" s="4" t="s">
+        <v>219</v>
       </c>
       <c r="E63" s="1"/>
-      <c r="F63" s="7" t="s">
-        <v>208</v>
+      <c r="F63" s="4" t="s">
+        <v>220</v>
       </c>
       <c r="G63" s="1"/>
       <c r="H63" s="1"/>
@@ -3770,13 +4616,13 @@
       <c r="K63" s="1"/>
       <c r="L63" s="1"/>
       <c r="M63" s="1"/>
-      <c r="N63" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="O63" s="7">
+      <c r="N63" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="O63" s="4">
         <v>1.0</v>
       </c>
-      <c r="P63" s="7">
+      <c r="P63" s="4">
         <v>0.0</v>
       </c>
       <c r="Q63" s="1"/>
@@ -3786,43 +4632,43 @@
       <c r="U63" s="1"/>
       <c r="V63" s="1"/>
       <c r="W63" s="1"/>
-      <c r="X63" s="7" t="s">
-        <v>210</v>
+      <c r="X63" s="4" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="64" ht="12.75" customHeight="1">
       <c r="A64" s="1" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
-      <c r="D64" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="E64" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="F64" s="7" t="s">
-        <v>101</v>
+      <c r="D64" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="E64" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="F64" s="4" t="s">
+        <v>102</v>
       </c>
       <c r="G64" s="1"/>
       <c r="H64" s="1"/>
       <c r="I64" s="1" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="K64" s="1"/>
       <c r="L64" s="1"/>
-      <c r="M64" s="7" t="s">
-        <v>215</v>
+      <c r="M64" s="4" t="s">
+        <v>227</v>
       </c>
       <c r="N64" s="1"/>
-      <c r="O64" s="7">
+      <c r="O64" s="4">
         <v>1.0</v>
       </c>
-      <c r="P64" s="7">
+      <c r="P64" s="4">
         <v>1.0</v>
       </c>
       <c r="Q64" s="1"/>
@@ -3832,43 +4678,43 @@
       <c r="U64" s="1"/>
       <c r="V64" s="1"/>
       <c r="W64" s="1"/>
-      <c r="X64" s="7" t="s">
-        <v>216</v>
+      <c r="X64" s="4" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="65" ht="12.75" customHeight="1">
       <c r="A65" s="1" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
-      <c r="D65" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="E65" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="F65" s="7" t="s">
-        <v>218</v>
+      <c r="D65" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="E65" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="F65" s="4" t="s">
+        <v>230</v>
       </c>
       <c r="G65" s="1"/>
       <c r="H65" s="1"/>
       <c r="I65" s="1"/>
-      <c r="J65" s="8" t="s">
-        <v>219</v>
+      <c r="J65" s="10" t="s">
+        <v>231</v>
       </c>
       <c r="K65" s="1"/>
       <c r="L65" s="1"/>
-      <c r="M65" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="N65" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="O65" s="7">
+      <c r="M65" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="N65" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="O65" s="4">
         <v>0.0</v>
       </c>
-      <c r="P65" s="7">
+      <c r="P65" s="4">
         <v>0.0</v>
       </c>
       <c r="Q65" s="1"/>
@@ -3882,37 +4728,37 @@
     </row>
     <row r="66" ht="12.75" customHeight="1">
       <c r="A66" s="1" t="s">
-        <v>222</v>
+        <v>234</v>
       </c>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
-      <c r="D66" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="E66" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="F66" s="7" t="s">
-        <v>218</v>
+      <c r="D66" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="E66" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="F66" s="4" t="s">
+        <v>230</v>
       </c>
       <c r="G66" s="1"/>
       <c r="H66" s="1"/>
       <c r="I66" s="1" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="K66" s="1"/>
       <c r="L66" s="1"/>
-      <c r="M66" s="7" t="s">
-        <v>224</v>
+      <c r="M66" s="4" t="s">
+        <v>236</v>
       </c>
       <c r="N66" s="1"/>
-      <c r="O66" s="7">
+      <c r="O66" s="4">
         <v>0.0</v>
       </c>
-      <c r="P66" s="7">
+      <c r="P66" s="4">
         <v>1.0</v>
       </c>
       <c r="Q66" s="1"/>
@@ -3926,39 +4772,39 @@
     </row>
     <row r="67" ht="12.75" customHeight="1">
       <c r="A67" s="1" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
-      <c r="D67" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="E67" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="F67" s="7" t="s">
-        <v>227</v>
+      <c r="D67" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="E67" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="F67" s="4" t="s">
+        <v>239</v>
       </c>
       <c r="G67" s="1"/>
       <c r="H67" s="1"/>
       <c r="I67" s="1" t="s">
-        <v>228</v>
+        <v>240</v>
       </c>
       <c r="J67" s="1" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
-      <c r="M67" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="N67" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="O67" s="7">
+      <c r="M67" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="N67" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="O67" s="4">
         <v>0.0</v>
       </c>
-      <c r="P67" s="7">
+      <c r="P67" s="4">
         <v>0.0</v>
       </c>
       <c r="Q67" s="1"/>
@@ -3972,18 +4818,18 @@
     </row>
     <row r="68" ht="12.75" customHeight="1">
       <c r="A68" s="1" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
-      <c r="D68" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="E68" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="F68" s="7" t="s">
-        <v>227</v>
+      <c r="D68" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="E68" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="F68" s="4" t="s">
+        <v>239</v>
       </c>
       <c r="G68" s="1"/>
       <c r="H68" s="1"/>
@@ -3991,16 +4837,16 @@
       <c r="J68" s="1"/>
       <c r="K68" s="1"/>
       <c r="L68" s="1"/>
-      <c r="M68" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="N68" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="O68" s="7">
+      <c r="M68" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="N68" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="O68" s="4">
         <v>1.0</v>
       </c>
-      <c r="P68" s="7">
+      <c r="P68" s="4">
         <v>0.0</v>
       </c>
       <c r="Q68" s="1"/>
@@ -4010,22 +4856,22 @@
       <c r="U68" s="1"/>
       <c r="V68" s="1"/>
       <c r="W68" s="1"/>
-      <c r="X68" s="7" t="s">
-        <v>235</v>
+      <c r="X68" s="4" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="69" ht="12.75" customHeight="1">
       <c r="A69" s="1" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
-      <c r="D69" s="7" t="s">
-        <v>193</v>
+      <c r="D69" s="4" t="s">
+        <v>203</v>
       </c>
       <c r="E69" s="1"/>
-      <c r="F69" s="7" t="s">
-        <v>227</v>
+      <c r="F69" s="4" t="s">
+        <v>239</v>
       </c>
       <c r="G69" s="1"/>
       <c r="H69" s="1"/>
@@ -4035,10 +4881,10 @@
       <c r="L69" s="1"/>
       <c r="M69" s="1"/>
       <c r="N69" s="1"/>
-      <c r="O69" s="7">
+      <c r="O69" s="4">
         <v>1.0</v>
       </c>
-      <c r="P69" s="7">
+      <c r="P69" s="4">
         <v>0.0</v>
       </c>
       <c r="Q69" s="1"/>
@@ -4052,16 +4898,16 @@
     </row>
     <row r="70" ht="12.75" customHeight="1">
       <c r="A70" s="1" t="s">
-        <v>228</v>
+        <v>240</v>
       </c>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
-      <c r="D70" s="7" t="s">
-        <v>236</v>
+      <c r="D70" s="4" t="s">
+        <v>248</v>
       </c>
       <c r="E70" s="1"/>
-      <c r="F70" s="7" t="s">
-        <v>227</v>
+      <c r="F70" s="4" t="s">
+        <v>239</v>
       </c>
       <c r="G70" s="1"/>
       <c r="H70" s="1"/>
@@ -4071,10 +4917,10 @@
       <c r="L70" s="1"/>
       <c r="M70" s="1"/>
       <c r="N70" s="1"/>
-      <c r="O70" s="7">
+      <c r="O70" s="4">
         <v>1.0</v>
       </c>
-      <c r="P70" s="7">
+      <c r="P70" s="4">
         <v>0.0</v>
       </c>
       <c r="Q70" s="1"/>
@@ -4088,35 +4934,35 @@
     </row>
     <row r="71" ht="12.75" customHeight="1">
       <c r="A71" s="1" t="s">
-        <v>237</v>
+        <v>249</v>
       </c>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
-      <c r="D71" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="E71" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="F71" s="7" t="s">
-        <v>227</v>
+      <c r="D71" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="E71" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="F71" s="4" t="s">
+        <v>239</v>
       </c>
       <c r="G71" s="1"/>
       <c r="H71" s="1"/>
       <c r="I71" s="1" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="J71" s="1" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="K71" s="1"/>
       <c r="L71" s="1"/>
       <c r="M71" s="1"/>
       <c r="N71" s="1"/>
-      <c r="O71" s="7">
+      <c r="O71" s="4">
         <v>1.0</v>
       </c>
-      <c r="P71" s="7">
+      <c r="P71" s="4">
         <v>1.0</v>
       </c>
       <c r="Q71" s="1"/>
@@ -4126,41 +4972,41 @@
       <c r="U71" s="1"/>
       <c r="V71" s="1"/>
       <c r="W71" s="1"/>
-      <c r="X71" s="7" t="s">
-        <v>216</v>
+      <c r="X71" s="4" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="72" ht="12.75" customHeight="1">
       <c r="A72" s="1" t="s">
-        <v>239</v>
+        <v>251</v>
       </c>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
-      <c r="D72" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="E72" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="F72" s="7" t="s">
-        <v>240</v>
+      <c r="D72" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="E72" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="F72" s="4" t="s">
+        <v>252</v>
       </c>
       <c r="G72" s="1"/>
       <c r="H72" s="1"/>
       <c r="I72" s="1" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="J72" s="1" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="K72" s="1"/>
       <c r="L72" s="1"/>
       <c r="M72" s="1"/>
       <c r="N72" s="1"/>
-      <c r="O72" s="7">
+      <c r="O72" s="4">
         <v>1.0</v>
       </c>
-      <c r="P72" s="7">
+      <c r="P72" s="4">
         <v>1.0</v>
       </c>
       <c r="Q72" s="1"/>
@@ -4170,41 +5016,41 @@
       <c r="U72" s="1"/>
       <c r="V72" s="1"/>
       <c r="W72" s="1"/>
-      <c r="X72" s="7" t="s">
-        <v>216</v>
+      <c r="X72" s="4" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="73" ht="12.75" customHeight="1">
       <c r="A73" s="1" t="s">
-        <v>241</v>
+        <v>253</v>
       </c>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
-      <c r="D73" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="E73" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="F73" s="7" t="s">
-        <v>227</v>
+      <c r="D73" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="E73" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="F73" s="4" t="s">
+        <v>239</v>
       </c>
       <c r="G73" s="1"/>
       <c r="H73" s="1"/>
       <c r="I73" s="1" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="J73" s="1" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="K73" s="1"/>
       <c r="L73" s="1"/>
       <c r="M73" s="1"/>
       <c r="N73" s="1"/>
-      <c r="O73" s="7">
+      <c r="O73" s="4">
         <v>0.0</v>
       </c>
-      <c r="P73" s="7">
+      <c r="P73" s="4">
         <v>1.0</v>
       </c>
       <c r="Q73" s="1"/>
@@ -4218,35 +5064,35 @@
     </row>
     <row r="74" ht="12.75" customHeight="1">
       <c r="A74" s="1" t="s">
-        <v>243</v>
+        <v>255</v>
       </c>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
-      <c r="D74" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="E74" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="F74" s="7" t="s">
-        <v>227</v>
+      <c r="D74" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E74" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="F74" s="4" t="s">
+        <v>239</v>
       </c>
       <c r="G74" s="1"/>
       <c r="H74" s="1"/>
       <c r="I74" s="1" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="J74" s="1" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="K74" s="1"/>
       <c r="L74" s="1"/>
       <c r="M74" s="1"/>
       <c r="N74" s="1"/>
-      <c r="O74" s="7">
+      <c r="O74" s="4">
         <v>0.0</v>
       </c>
-      <c r="P74" s="7">
+      <c r="P74" s="4">
         <v>0.0</v>
       </c>
       <c r="Q74" s="1"/>
@@ -4260,35 +5106,35 @@
     </row>
     <row r="75" ht="12.75" customHeight="1">
       <c r="A75" s="1" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
-      <c r="D75" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="E75" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="F75" s="7" t="s">
-        <v>227</v>
+      <c r="D75" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E75" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="F75" s="4" t="s">
+        <v>239</v>
       </c>
       <c r="G75" s="1"/>
       <c r="H75" s="1"/>
       <c r="I75" s="1" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="J75" s="1" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="K75" s="1"/>
       <c r="L75" s="1"/>
       <c r="M75" s="1"/>
       <c r="N75" s="1"/>
-      <c r="O75" s="7">
+      <c r="O75" s="4">
         <v>0.0</v>
       </c>
-      <c r="P75" s="7">
+      <c r="P75" s="4">
         <v>0.0</v>
       </c>
       <c r="Q75" s="1"/>
@@ -4301,486 +5147,486 @@
       <c r="X75" s="1"/>
     </row>
     <row r="76" ht="12.75" customHeight="1">
-      <c r="A76" s="8" t="s">
-        <v>245</v>
-      </c>
-      <c r="B76" s="9"/>
-      <c r="C76" s="9"/>
-      <c r="D76" s="8" t="s">
-        <v>246</v>
-      </c>
-      <c r="E76" s="8" t="s">
-        <v>242</v>
-      </c>
-      <c r="F76" s="8" t="s">
-        <v>227</v>
-      </c>
-      <c r="G76" s="9"/>
-      <c r="H76" s="9"/>
-      <c r="I76" s="8" t="s">
-        <v>213</v>
-      </c>
-      <c r="J76" s="8" t="s">
-        <v>214</v>
-      </c>
-      <c r="K76" s="9"/>
-      <c r="L76" s="9"/>
-      <c r="M76" s="9"/>
-      <c r="N76" s="9"/>
-      <c r="O76" s="8">
+      <c r="A76" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="B76" s="11"/>
+      <c r="C76" s="11"/>
+      <c r="D76" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="E76" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="F76" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="G76" s="11"/>
+      <c r="H76" s="11"/>
+      <c r="I76" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="J76" s="10" t="s">
+        <v>226</v>
+      </c>
+      <c r="K76" s="11"/>
+      <c r="L76" s="11"/>
+      <c r="M76" s="11"/>
+      <c r="N76" s="11"/>
+      <c r="O76" s="10">
         <v>0.0</v>
       </c>
-      <c r="P76" s="8">
+      <c r="P76" s="10">
         <v>0.0</v>
       </c>
-      <c r="Q76" s="9"/>
-      <c r="R76" s="9"/>
-      <c r="S76" s="9"/>
-      <c r="T76" s="9"/>
-      <c r="U76" s="9"/>
-      <c r="V76" s="9"/>
-      <c r="W76" s="9"/>
-      <c r="X76" s="9"/>
+      <c r="Q76" s="11"/>
+      <c r="R76" s="11"/>
+      <c r="S76" s="11"/>
+      <c r="T76" s="11"/>
+      <c r="U76" s="11"/>
+      <c r="V76" s="11"/>
+      <c r="W76" s="11"/>
+      <c r="X76" s="11"/>
     </row>
     <row r="77" ht="12.75" customHeight="1">
-      <c r="A77" s="8" t="s">
-        <v>219</v>
-      </c>
-      <c r="B77" s="9"/>
-      <c r="C77" s="9"/>
-      <c r="D77" s="8" t="s">
-        <v>193</v>
-      </c>
-      <c r="E77" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="F77" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="G77" s="9"/>
-      <c r="H77" s="9"/>
-      <c r="I77" s="8" t="s">
-        <v>247</v>
-      </c>
-      <c r="J77" s="8" t="s">
-        <v>248</v>
-      </c>
-      <c r="K77" s="9"/>
-      <c r="L77" s="9"/>
-      <c r="M77" s="8" t="s">
+      <c r="A77" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="B77" s="11"/>
+      <c r="C77" s="11"/>
+      <c r="D77" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="E77" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="F77" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="G77" s="11"/>
+      <c r="H77" s="11"/>
+      <c r="I77" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="J77" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="K77" s="11"/>
+      <c r="L77" s="11"/>
+      <c r="M77" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="N77" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="O77" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="P77" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="Q77" s="11"/>
+      <c r="R77" s="11"/>
+      <c r="S77" s="11"/>
+      <c r="T77" s="11"/>
+      <c r="U77" s="11"/>
+      <c r="V77" s="11"/>
+      <c r="W77" s="11"/>
+      <c r="X77" s="11"/>
+    </row>
+    <row r="78" ht="12.75" customHeight="1">
+      <c r="A78" s="10" t="s">
+        <v>263</v>
+      </c>
+      <c r="B78" s="11"/>
+      <c r="C78" s="11"/>
+      <c r="D78" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="E78" s="11"/>
+      <c r="F78" s="10" t="s">
+        <v>264</v>
+      </c>
+      <c r="G78" s="11"/>
+      <c r="H78" s="11"/>
+      <c r="I78" s="11"/>
+      <c r="J78" s="11"/>
+      <c r="K78" s="11"/>
+      <c r="L78" s="11"/>
+      <c r="M78" s="11"/>
+      <c r="N78" s="11"/>
+      <c r="O78" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="P78" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="Q78" s="11"/>
+      <c r="R78" s="11"/>
+      <c r="S78" s="11"/>
+      <c r="T78" s="11"/>
+      <c r="U78" s="11"/>
+      <c r="V78" s="11"/>
+      <c r="W78" s="11"/>
+      <c r="X78" s="11"/>
+    </row>
+    <row r="79" ht="12.75" customHeight="1">
+      <c r="A79" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="B79" s="11"/>
+      <c r="C79" s="11"/>
+      <c r="D79" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="E79" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="F79" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="G79" s="11"/>
+      <c r="H79" s="11"/>
+      <c r="I79" s="11"/>
+      <c r="J79" s="11"/>
+      <c r="K79" s="11"/>
+      <c r="L79" s="11"/>
+      <c r="M79" s="10" t="s">
+        <v>266</v>
+      </c>
+      <c r="N79" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="O79" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="P79" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="Q79" s="11"/>
+      <c r="R79" s="11"/>
+      <c r="S79" s="11"/>
+      <c r="T79" s="11"/>
+      <c r="U79" s="11"/>
+      <c r="V79" s="11"/>
+      <c r="W79" s="11"/>
+      <c r="X79" s="11"/>
+    </row>
+    <row r="80" ht="12.75" customHeight="1">
+      <c r="A80" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="B80" s="11"/>
+      <c r="C80" s="11"/>
+      <c r="D80" s="10" t="s">
+        <v>268</v>
+      </c>
+      <c r="E80" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="F80" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="G80" s="11"/>
+      <c r="H80" s="11"/>
+      <c r="I80" s="11"/>
+      <c r="J80" s="11"/>
+      <c r="K80" s="11"/>
+      <c r="L80" s="11"/>
+      <c r="M80" s="10" t="s">
+        <v>269</v>
+      </c>
+      <c r="N80" s="10" t="s">
+        <v>270</v>
+      </c>
+      <c r="O80" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="P80" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="Q80" s="11"/>
+      <c r="R80" s="11"/>
+      <c r="S80" s="11"/>
+      <c r="T80" s="11"/>
+      <c r="U80" s="11"/>
+      <c r="V80" s="11"/>
+      <c r="W80" s="11"/>
+      <c r="X80" s="11"/>
+    </row>
+    <row r="81" ht="12.75" customHeight="1">
+      <c r="A81" s="10" t="s">
+        <v>271</v>
+      </c>
+      <c r="B81" s="11"/>
+      <c r="C81" s="11"/>
+      <c r="D81" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="E81" s="11"/>
+      <c r="F81" s="10" t="s">
+        <v>273</v>
+      </c>
+      <c r="G81" s="11"/>
+      <c r="H81" s="11"/>
+      <c r="I81" s="11"/>
+      <c r="J81" s="10" t="s">
         <v>249</v>
       </c>
-      <c r="N77" s="8" t="s">
-        <v>250</v>
-      </c>
-      <c r="O77" s="8">
+      <c r="K81" s="11"/>
+      <c r="L81" s="11"/>
+      <c r="M81" s="10" t="s">
+        <v>274</v>
+      </c>
+      <c r="N81" s="11"/>
+      <c r="O81" s="10">
         <v>1.0</v>
       </c>
-      <c r="P77" s="8">
+      <c r="P81" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="Q81" s="11"/>
+      <c r="R81" s="11"/>
+      <c r="S81" s="11"/>
+      <c r="T81" s="11"/>
+      <c r="U81" s="11"/>
+      <c r="V81" s="11"/>
+      <c r="W81" s="11"/>
+      <c r="X81" s="10" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="82" ht="12.75" customHeight="1">
+      <c r="A82" s="10" t="s">
+        <v>276</v>
+      </c>
+      <c r="B82" s="11"/>
+      <c r="C82" s="11"/>
+      <c r="D82" s="10" t="s">
+        <v>277</v>
+      </c>
+      <c r="E82" s="11"/>
+      <c r="F82" s="10" t="s">
+        <v>278</v>
+      </c>
+      <c r="G82" s="11"/>
+      <c r="H82" s="11"/>
+      <c r="I82" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="J82" s="10" t="s">
+        <v>280</v>
+      </c>
+      <c r="K82" s="11"/>
+      <c r="L82" s="11"/>
+      <c r="M82" s="10" t="s">
+        <v>281</v>
+      </c>
+      <c r="N82" s="11"/>
+      <c r="O82" s="10">
         <v>0.0</v>
       </c>
-      <c r="Q77" s="9"/>
-      <c r="R77" s="9"/>
-      <c r="S77" s="9"/>
-      <c r="T77" s="9"/>
-      <c r="U77" s="9"/>
-      <c r="V77" s="9"/>
-      <c r="W77" s="9"/>
-      <c r="X77" s="9"/>
-    </row>
-    <row r="78" ht="12.75" customHeight="1">
-      <c r="A78" s="8" t="s">
-        <v>251</v>
-      </c>
-      <c r="B78" s="9"/>
-      <c r="C78" s="9"/>
-      <c r="D78" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="E78" s="9"/>
-      <c r="F78" s="8" t="s">
-        <v>252</v>
-      </c>
-      <c r="G78" s="9"/>
-      <c r="H78" s="9"/>
-      <c r="I78" s="9"/>
-      <c r="J78" s="9"/>
-      <c r="K78" s="9"/>
-      <c r="L78" s="9"/>
-      <c r="M78" s="9"/>
-      <c r="N78" s="9"/>
-      <c r="O78" s="8">
+      <c r="P82" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="Q82" s="11"/>
+      <c r="R82" s="11"/>
+      <c r="S82" s="11"/>
+      <c r="T82" s="11"/>
+      <c r="U82" s="11"/>
+      <c r="V82" s="11"/>
+      <c r="W82" s="11"/>
+      <c r="X82" s="11"/>
+    </row>
+    <row r="83" ht="12.75" customHeight="1">
+      <c r="A83" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="B83" s="11"/>
+      <c r="C83" s="11"/>
+      <c r="D83" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="E83" s="10" t="s">
+        <v>284</v>
+      </c>
+      <c r="F83" s="10" t="s">
+        <v>278</v>
+      </c>
+      <c r="G83" s="11"/>
+      <c r="H83" s="11"/>
+      <c r="I83" s="10" t="s">
+        <v>276</v>
+      </c>
+      <c r="J83" s="10" t="s">
+        <v>271</v>
+      </c>
+      <c r="K83" s="11"/>
+      <c r="L83" s="11"/>
+      <c r="M83" s="11"/>
+      <c r="N83" s="11"/>
+      <c r="O83" s="10">
         <v>0.0</v>
       </c>
-      <c r="P78" s="8">
+      <c r="P83" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="Q83" s="11"/>
+      <c r="R83" s="11"/>
+      <c r="S83" s="11"/>
+      <c r="T83" s="11"/>
+      <c r="U83" s="11"/>
+      <c r="V83" s="11"/>
+      <c r="W83" s="11"/>
+      <c r="X83" s="11"/>
+    </row>
+    <row r="84" ht="12.75" customHeight="1">
+      <c r="A84" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="B84" s="11"/>
+      <c r="C84" s="11"/>
+      <c r="D84" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="E84" s="10" t="s">
+        <v>287</v>
+      </c>
+      <c r="F84" s="10" t="s">
+        <v>273</v>
+      </c>
+      <c r="G84" s="11"/>
+      <c r="H84" s="11"/>
+      <c r="I84" s="10" t="s">
+        <v>276</v>
+      </c>
+      <c r="J84" s="10" t="s">
+        <v>271</v>
+      </c>
+      <c r="K84" s="11"/>
+      <c r="L84" s="11"/>
+      <c r="M84" s="11"/>
+      <c r="N84" s="11"/>
+      <c r="O84" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="P84" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="Q84" s="11"/>
+      <c r="R84" s="11"/>
+      <c r="S84" s="11"/>
+      <c r="T84" s="11"/>
+      <c r="U84" s="11"/>
+      <c r="V84" s="11"/>
+      <c r="W84" s="11"/>
+      <c r="X84" s="11"/>
+    </row>
+    <row r="85" ht="12.75" customHeight="1">
+      <c r="A85" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="B85" s="11"/>
+      <c r="C85" s="11"/>
+      <c r="D85" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="E85" s="10" t="s">
+        <v>288</v>
+      </c>
+      <c r="F85" s="10" t="s">
+        <v>278</v>
+      </c>
+      <c r="G85" s="11"/>
+      <c r="H85" s="11"/>
+      <c r="I85" s="11"/>
+      <c r="J85" s="11"/>
+      <c r="K85" s="11"/>
+      <c r="L85" s="11"/>
+      <c r="M85" s="11"/>
+      <c r="N85" s="11"/>
+      <c r="O85" s="10">
         <v>0.0</v>
       </c>
-      <c r="Q78" s="9"/>
-      <c r="R78" s="9"/>
-      <c r="S78" s="9"/>
-      <c r="T78" s="9"/>
-      <c r="U78" s="9"/>
-      <c r="V78" s="9"/>
-      <c r="W78" s="9"/>
-      <c r="X78" s="9"/>
-    </row>
-    <row r="79" ht="12.75" customHeight="1">
-      <c r="A79" s="8" t="s">
-        <v>247</v>
-      </c>
-      <c r="B79" s="9"/>
-      <c r="C79" s="9"/>
-      <c r="D79" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="E79" s="8" t="s">
-        <v>253</v>
-      </c>
-      <c r="F79" s="8" t="s">
-        <v>218</v>
-      </c>
-      <c r="G79" s="9"/>
-      <c r="H79" s="9"/>
-      <c r="I79" s="9"/>
-      <c r="J79" s="9"/>
-      <c r="K79" s="9"/>
-      <c r="L79" s="9"/>
-      <c r="M79" s="8" t="s">
-        <v>254</v>
-      </c>
-      <c r="N79" s="8" t="s">
-        <v>255</v>
-      </c>
-      <c r="O79" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="P79" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="Q79" s="9"/>
-      <c r="R79" s="9"/>
-      <c r="S79" s="9"/>
-      <c r="T79" s="9"/>
-      <c r="U79" s="9"/>
-      <c r="V79" s="9"/>
-      <c r="W79" s="9"/>
-      <c r="X79" s="9"/>
-    </row>
-    <row r="80" ht="12.75" customHeight="1">
-      <c r="A80" s="8" t="s">
-        <v>248</v>
-      </c>
-      <c r="B80" s="9"/>
-      <c r="C80" s="9"/>
-      <c r="D80" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="E80" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="F80" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="G80" s="9"/>
-      <c r="H80" s="9"/>
-      <c r="I80" s="9"/>
-      <c r="J80" s="9"/>
-      <c r="K80" s="9"/>
-      <c r="L80" s="9"/>
-      <c r="M80" s="8" t="s">
-        <v>257</v>
-      </c>
-      <c r="N80" s="8" t="s">
-        <v>258</v>
-      </c>
-      <c r="O80" s="8">
+      <c r="P85" s="10">
         <v>1.0</v>
       </c>
-      <c r="P80" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="Q80" s="9"/>
-      <c r="R80" s="9"/>
-      <c r="S80" s="9"/>
-      <c r="T80" s="9"/>
-      <c r="U80" s="9"/>
-      <c r="V80" s="9"/>
-      <c r="W80" s="9"/>
-      <c r="X80" s="9"/>
-    </row>
-    <row r="81" ht="12.75" customHeight="1">
-      <c r="A81" s="8" t="s">
-        <v>259</v>
-      </c>
-      <c r="B81" s="9"/>
-      <c r="C81" s="9"/>
-      <c r="D81" s="8" t="s">
-        <v>260</v>
-      </c>
-      <c r="E81" s="9"/>
-      <c r="F81" s="8" t="s">
-        <v>261</v>
-      </c>
-      <c r="G81" s="9"/>
-      <c r="H81" s="9"/>
-      <c r="I81" s="9"/>
-      <c r="J81" s="8" t="s">
-        <v>237</v>
-      </c>
-      <c r="K81" s="9"/>
-      <c r="L81" s="9"/>
-      <c r="M81" s="8" t="s">
-        <v>262</v>
-      </c>
-      <c r="N81" s="9"/>
-      <c r="O81" s="8">
+      <c r="Q85" s="11"/>
+      <c r="R85" s="11"/>
+      <c r="S85" s="11"/>
+      <c r="T85" s="11"/>
+      <c r="U85" s="11"/>
+      <c r="V85" s="11"/>
+      <c r="W85" s="11"/>
+      <c r="X85" s="11"/>
+    </row>
+    <row r="86" ht="12.75" customHeight="1">
+      <c r="A86" s="10" t="s">
+        <v>280</v>
+      </c>
+      <c r="B86" s="11"/>
+      <c r="C86" s="11"/>
+      <c r="D86" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="E86" s="11"/>
+      <c r="F86" s="10" t="s">
+        <v>273</v>
+      </c>
+      <c r="G86" s="11"/>
+      <c r="H86" s="11"/>
+      <c r="I86" s="11"/>
+      <c r="J86" s="11"/>
+      <c r="K86" s="11"/>
+      <c r="L86" s="11"/>
+      <c r="M86" s="11"/>
+      <c r="N86" s="11"/>
+      <c r="O86" s="10">
         <v>1.0</v>
       </c>
-      <c r="P81" s="8">
+      <c r="P86" s="10">
         <v>1.0</v>
       </c>
-      <c r="Q81" s="9"/>
-      <c r="R81" s="9"/>
-      <c r="S81" s="9"/>
-      <c r="T81" s="9"/>
-      <c r="U81" s="9"/>
-      <c r="V81" s="9"/>
-      <c r="W81" s="9"/>
-      <c r="X81" s="8" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="82" ht="12.75" customHeight="1">
-      <c r="A82" s="8" t="s">
-        <v>264</v>
-      </c>
-      <c r="B82" s="9"/>
-      <c r="C82" s="9"/>
-      <c r="D82" s="8" t="s">
-        <v>265</v>
-      </c>
-      <c r="E82" s="9"/>
-      <c r="F82" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="G82" s="9"/>
-      <c r="H82" s="9"/>
-      <c r="I82" s="8" t="s">
-        <v>267</v>
-      </c>
-      <c r="J82" s="8" t="s">
-        <v>268</v>
-      </c>
-      <c r="K82" s="9"/>
-      <c r="L82" s="9"/>
-      <c r="M82" s="8" t="s">
-        <v>269</v>
-      </c>
-      <c r="N82" s="9"/>
-      <c r="O82" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="P82" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="Q82" s="9"/>
-      <c r="R82" s="9"/>
-      <c r="S82" s="9"/>
-      <c r="T82" s="9"/>
-      <c r="U82" s="9"/>
-      <c r="V82" s="9"/>
-      <c r="W82" s="9"/>
-      <c r="X82" s="9"/>
-    </row>
-    <row r="83" ht="12.75" customHeight="1">
-      <c r="A83" s="8" t="s">
-        <v>270</v>
-      </c>
-      <c r="B83" s="9"/>
-      <c r="C83" s="9"/>
-      <c r="D83" s="8" t="s">
-        <v>271</v>
-      </c>
-      <c r="E83" s="8" t="s">
-        <v>272</v>
-      </c>
-      <c r="F83" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="G83" s="9"/>
-      <c r="H83" s="9"/>
-      <c r="I83" s="8" t="s">
-        <v>264</v>
-      </c>
-      <c r="J83" s="8" t="s">
-        <v>259</v>
-      </c>
-      <c r="K83" s="9"/>
-      <c r="L83" s="9"/>
-      <c r="M83" s="9"/>
-      <c r="N83" s="9"/>
-      <c r="O83" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="P83" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="Q83" s="9"/>
-      <c r="R83" s="9"/>
-      <c r="S83" s="9"/>
-      <c r="T83" s="9"/>
-      <c r="U83" s="9"/>
-      <c r="V83" s="9"/>
-      <c r="W83" s="9"/>
-      <c r="X83" s="9"/>
-    </row>
-    <row r="84" ht="12.75" customHeight="1">
-      <c r="A84" s="8" t="s">
-        <v>273</v>
-      </c>
-      <c r="B84" s="9"/>
-      <c r="C84" s="9"/>
-      <c r="D84" s="8" t="s">
-        <v>274</v>
-      </c>
-      <c r="E84" s="8" t="s">
-        <v>275</v>
-      </c>
-      <c r="F84" s="8" t="s">
-        <v>261</v>
-      </c>
-      <c r="G84" s="9"/>
-      <c r="H84" s="9"/>
-      <c r="I84" s="8" t="s">
-        <v>264</v>
-      </c>
-      <c r="J84" s="8" t="s">
-        <v>259</v>
-      </c>
-      <c r="K84" s="9"/>
-      <c r="L84" s="9"/>
-      <c r="M84" s="9"/>
-      <c r="N84" s="9"/>
-      <c r="O84" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="P84" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="Q84" s="9"/>
-      <c r="R84" s="9"/>
-      <c r="S84" s="9"/>
-      <c r="T84" s="9"/>
-      <c r="U84" s="9"/>
-      <c r="V84" s="9"/>
-      <c r="W84" s="9"/>
-      <c r="X84" s="9"/>
-    </row>
-    <row r="85" ht="12.75" customHeight="1">
-      <c r="A85" s="8" t="s">
-        <v>267</v>
-      </c>
-      <c r="B85" s="9"/>
-      <c r="C85" s="9"/>
-      <c r="D85" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="E85" s="8" t="s">
-        <v>276</v>
-      </c>
-      <c r="F85" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="G85" s="9"/>
-      <c r="H85" s="9"/>
-      <c r="I85" s="9"/>
-      <c r="J85" s="9"/>
-      <c r="K85" s="9"/>
-      <c r="L85" s="9"/>
-      <c r="M85" s="9"/>
-      <c r="N85" s="9"/>
-      <c r="O85" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="P85" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="Q85" s="9"/>
-      <c r="R85" s="9"/>
-      <c r="S85" s="9"/>
-      <c r="T85" s="9"/>
-      <c r="U85" s="9"/>
-      <c r="V85" s="9"/>
-      <c r="W85" s="9"/>
-      <c r="X85" s="9"/>
-    </row>
-    <row r="86" ht="12.75" customHeight="1">
-      <c r="A86" s="8" t="s">
-        <v>268</v>
-      </c>
-      <c r="B86" s="9"/>
-      <c r="C86" s="9"/>
-      <c r="D86" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="E86" s="9"/>
-      <c r="F86" s="8" t="s">
-        <v>261</v>
-      </c>
-      <c r="G86" s="9"/>
-      <c r="H86" s="9"/>
-      <c r="I86" s="9"/>
-      <c r="J86" s="9"/>
-      <c r="K86" s="9"/>
-      <c r="L86" s="9"/>
-      <c r="M86" s="9"/>
-      <c r="N86" s="9"/>
-      <c r="O86" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="P86" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="Q86" s="9"/>
-      <c r="R86" s="9"/>
-      <c r="S86" s="9"/>
-      <c r="T86" s="9"/>
-      <c r="U86" s="9"/>
-      <c r="V86" s="9"/>
-      <c r="W86" s="9"/>
-      <c r="X86" s="9"/>
+      <c r="Q86" s="11"/>
+      <c r="R86" s="11"/>
+      <c r="S86" s="11"/>
+      <c r="T86" s="11"/>
+      <c r="U86" s="11"/>
+      <c r="V86" s="11"/>
+      <c r="W86" s="11"/>
+      <c r="X86" s="11"/>
     </row>
     <row r="87" ht="12.75" customHeight="1">
-      <c r="A87" s="7" t="s">
-        <v>277</v>
+      <c r="A87" s="4" t="s">
+        <v>289</v>
       </c>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
-      <c r="D87" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="E87" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="F87" s="7" t="s">
+      <c r="D87" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="E87" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="F87" s="4" t="s">
         <v>45</v>
       </c>
       <c r="G87" s="1"/>
       <c r="H87" s="1"/>
-      <c r="I87" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="J87" s="10" t="s">
+      <c r="I87" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="J87" s="12" t="s">
         <v>42</v>
       </c>
       <c r="K87" s="1"/>
       <c r="L87" s="1"/>
       <c r="M87" s="1"/>
       <c r="N87" s="1"/>
-      <c r="O87" s="7">
+      <c r="O87" s="4">
         <v>1.0</v>
       </c>
-      <c r="P87" s="7">
+      <c r="P87" s="4">
         <v>1.0</v>
       </c>
       <c r="Q87" s="1"/>
@@ -4793,17 +5639,17 @@
       <c r="X87" s="1"/>
     </row>
     <row r="88" ht="12.75" customHeight="1">
-      <c r="A88" s="7" t="s">
-        <v>281</v>
+      <c r="A88" s="4" t="s">
+        <v>293</v>
       </c>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
-      <c r="D88" s="7" t="s">
-        <v>282</v>
+      <c r="D88" s="4" t="s">
+        <v>294</v>
       </c>
       <c r="E88" s="1"/>
-      <c r="F88" s="7" t="s">
-        <v>283</v>
+      <c r="F88" s="4" t="s">
+        <v>295</v>
       </c>
       <c r="G88" s="1"/>
       <c r="H88" s="1"/>
@@ -4813,10 +5659,10 @@
       <c r="L88" s="1"/>
       <c r="M88" s="1"/>
       <c r="N88" s="1"/>
-      <c r="O88" s="7">
+      <c r="O88" s="4">
         <v>0.0</v>
       </c>
-      <c r="P88" s="7">
+      <c r="P88" s="4">
         <v>1.0</v>
       </c>
       <c r="Q88" s="1"/>
@@ -4829,38 +5675,38 @@
       <c r="X88" s="1"/>
     </row>
     <row r="89" ht="12.75" customHeight="1">
-      <c r="A89" s="7" t="s">
-        <v>284</v>
+      <c r="A89" s="4" t="s">
+        <v>296</v>
       </c>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
-      <c r="D89" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="E89" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="F89" s="7" t="s">
-        <v>287</v>
+      <c r="D89" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="E89" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="F89" s="4" t="s">
+        <v>299</v>
       </c>
       <c r="G89" s="1"/>
       <c r="H89" s="1"/>
-      <c r="I89" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="J89" s="7" t="s">
-        <v>289</v>
+      <c r="I89" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="J89" s="4" t="s">
+        <v>301</v>
       </c>
       <c r="K89" s="1"/>
       <c r="L89" s="1"/>
-      <c r="M89" s="7" t="s">
-        <v>290</v>
+      <c r="M89" s="4" t="s">
+        <v>302</v>
       </c>
       <c r="N89" s="1"/>
-      <c r="O89" s="7">
+      <c r="O89" s="4">
         <v>0.0</v>
       </c>
-      <c r="P89" s="7">
+      <c r="P89" s="4">
         <v>1.0</v>
       </c>
       <c r="Q89" s="1"/>
@@ -4873,38 +5719,38 @@
       <c r="X89" s="1"/>
     </row>
     <row r="90" ht="12.75" customHeight="1">
-      <c r="A90" s="7" t="s">
-        <v>291</v>
+      <c r="A90" s="4" t="s">
+        <v>303</v>
       </c>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
-      <c r="D90" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="E90" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="F90" s="7" t="s">
-        <v>294</v>
+      <c r="D90" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="E90" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="F90" s="4" t="s">
+        <v>45</v>
       </c>
       <c r="G90" s="1"/>
       <c r="H90" s="1"/>
-      <c r="I90" s="7" t="s">
-        <v>284</v>
+      <c r="I90" s="4" t="s">
+        <v>296</v>
       </c>
       <c r="J90" s="1" t="s">
         <v>42</v>
       </c>
       <c r="K90" s="1"/>
       <c r="L90" s="1"/>
-      <c r="M90" s="7" t="s">
-        <v>295</v>
+      <c r="M90" s="4" t="s">
+        <v>306</v>
       </c>
       <c r="N90" s="1"/>
-      <c r="O90" s="7">
+      <c r="O90" s="4">
         <v>1.0</v>
       </c>
-      <c r="P90" s="7">
+      <c r="P90" s="4">
         <v>1.0</v>
       </c>
       <c r="Q90" s="1"/>
@@ -4917,38 +5763,38 @@
       <c r="X90" s="1"/>
     </row>
     <row r="91" ht="12.75" customHeight="1">
-      <c r="A91" s="7" t="s">
-        <v>296</v>
+      <c r="A91" s="4" t="s">
+        <v>307</v>
       </c>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
-      <c r="D91" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="E91" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="F91" s="7" t="s">
-        <v>294</v>
+      <c r="D91" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="E91" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="F91" s="4" t="s">
+        <v>45</v>
       </c>
       <c r="G91" s="1"/>
       <c r="H91" s="1"/>
-      <c r="I91" s="7" t="s">
-        <v>284</v>
+      <c r="I91" s="4" t="s">
+        <v>296</v>
       </c>
       <c r="J91" s="1" t="s">
         <v>42</v>
       </c>
       <c r="K91" s="1"/>
       <c r="L91" s="1"/>
-      <c r="M91" s="7" t="s">
-        <v>298</v>
+      <c r="M91" s="4" t="s">
+        <v>309</v>
       </c>
       <c r="N91" s="1"/>
-      <c r="O91" s="7">
+      <c r="O91" s="4">
         <v>1.0</v>
       </c>
-      <c r="P91" s="7">
+      <c r="P91" s="4">
         <v>1.0</v>
       </c>
       <c r="Q91" s="1"/>
@@ -4961,19 +5807,19 @@
       <c r="X91" s="1"/>
     </row>
     <row r="92" ht="12.75" customHeight="1">
-      <c r="A92" s="7" t="s">
-        <v>289</v>
+      <c r="A92" s="4" t="s">
+        <v>301</v>
       </c>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
-      <c r="D92" s="7" t="s">
-        <v>299</v>
-      </c>
-      <c r="E92" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="F92" s="7" t="s">
-        <v>300</v>
+      <c r="D92" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="E92" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="F92" s="4" t="s">
+        <v>311</v>
       </c>
       <c r="G92" s="1"/>
       <c r="H92" s="1"/>
@@ -4983,10 +5829,10 @@
       <c r="L92" s="1"/>
       <c r="M92" s="1"/>
       <c r="N92" s="1"/>
-      <c r="O92" s="7">
+      <c r="O92" s="4">
         <v>1.0</v>
       </c>
-      <c r="P92" s="7">
+      <c r="P92" s="4">
         <v>1.0</v>
       </c>
       <c r="Q92" s="1"/>
@@ -4996,39 +5842,41 @@
       <c r="U92" s="1"/>
       <c r="V92" s="1"/>
       <c r="W92" s="1"/>
-      <c r="X92" s="7" t="s">
-        <v>301</v>
+      <c r="X92" s="4" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="93" ht="12.75" customHeight="1">
-      <c r="A93" s="7" t="s">
-        <v>302</v>
+      <c r="A93" s="4" t="s">
+        <v>313</v>
       </c>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
-      <c r="D93" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="E93" s="7" t="s">
+      <c r="D93" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E93" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="F93" s="7" t="s">
-        <v>303</v>
+      <c r="F93" s="4" t="s">
+        <v>51</v>
       </c>
       <c r="G93" s="1"/>
       <c r="H93" s="1"/>
-      <c r="I93" s="1"/>
+      <c r="I93" s="4" t="s">
+        <v>314</v>
+      </c>
       <c r="J93" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K93" s="1"/>
       <c r="L93" s="1"/>
       <c r="M93" s="1"/>
       <c r="N93" s="1"/>
-      <c r="O93" s="7">
+      <c r="O93" s="4">
         <v>0.0</v>
       </c>
-      <c r="P93" s="7">
+      <c r="P93" s="4">
         <v>1.0</v>
       </c>
       <c r="Q93" s="1"/>
@@ -5041,34 +5889,34 @@
       <c r="X93" s="1"/>
     </row>
     <row r="94" ht="12.75" customHeight="1">
-      <c r="A94" s="7" t="s">
-        <v>304</v>
+      <c r="A94" s="4" t="s">
+        <v>315</v>
       </c>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
-      <c r="D94" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="E94" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="F94" s="7" t="s">
-        <v>303</v>
+      <c r="D94" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="E94" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="F94" s="4" t="s">
+        <v>51</v>
       </c>
       <c r="G94" s="1"/>
       <c r="H94" s="1"/>
       <c r="I94" s="1"/>
       <c r="J94" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K94" s="1"/>
       <c r="L94" s="1"/>
       <c r="M94" s="1"/>
       <c r="N94" s="1"/>
-      <c r="O94" s="7">
+      <c r="O94" s="4">
         <v>0.0</v>
       </c>
-      <c r="P94" s="7">
+      <c r="P94" s="4">
         <v>1.0</v>
       </c>
       <c r="Q94" s="1"/>
@@ -5078,39 +5926,41 @@
       <c r="U94" s="1"/>
       <c r="V94" s="1"/>
       <c r="W94" s="1"/>
-      <c r="X94" s="1"/>
+      <c r="X94" s="4" t="s">
+        <v>318</v>
+      </c>
     </row>
     <row r="95" ht="12.75" customHeight="1">
-      <c r="A95" s="7" t="s">
-        <v>307</v>
+      <c r="A95" s="4" t="s">
+        <v>319</v>
       </c>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
-      <c r="D95" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="E95" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="F95" s="7" t="s">
-        <v>310</v>
+      <c r="D95" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="E95" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="F95" s="4" t="s">
+        <v>322</v>
       </c>
       <c r="G95" s="1"/>
       <c r="H95" s="1"/>
-      <c r="I95" s="7" t="s">
-        <v>311</v>
+      <c r="I95" s="4" t="s">
+        <v>323</v>
       </c>
       <c r="J95" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K95" s="1"/>
       <c r="L95" s="1"/>
       <c r="M95" s="1"/>
       <c r="N95" s="1"/>
-      <c r="O95" s="7">
+      <c r="O95" s="4">
         <v>0.0</v>
       </c>
-      <c r="P95" s="7">
+      <c r="P95" s="4">
         <v>1.0</v>
       </c>
       <c r="Q95" s="1"/>
@@ -5123,36 +5973,36 @@
       <c r="X95" s="1"/>
     </row>
     <row r="96" ht="12.75" customHeight="1">
-      <c r="A96" s="7" t="s">
-        <v>312</v>
+      <c r="A96" s="4" t="s">
+        <v>324</v>
       </c>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
-      <c r="D96" s="7" t="s">
+      <c r="D96" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E96" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="F96" s="7" t="s">
-        <v>314</v>
+      <c r="E96" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="F96" s="4" t="s">
+        <v>326</v>
       </c>
       <c r="G96" s="1"/>
       <c r="H96" s="1"/>
-      <c r="I96" s="7" t="s">
-        <v>311</v>
+      <c r="I96" s="4" t="s">
+        <v>323</v>
       </c>
       <c r="J96" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K96" s="1"/>
       <c r="L96" s="1"/>
       <c r="M96" s="1"/>
       <c r="N96" s="1"/>
-      <c r="O96" s="7">
+      <c r="O96" s="4">
         <v>1.0</v>
       </c>
-      <c r="P96" s="7">
+      <c r="P96" s="4">
         <v>1.0</v>
       </c>
       <c r="Q96" s="1"/>
@@ -5165,17 +6015,17 @@
       <c r="X96" s="1"/>
     </row>
     <row r="97" ht="12.75" customHeight="1">
-      <c r="A97" s="7" t="s">
-        <v>311</v>
+      <c r="A97" s="4" t="s">
+        <v>323</v>
       </c>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
-      <c r="D97" s="7" t="s">
-        <v>186</v>
+      <c r="D97" s="4" t="s">
+        <v>196</v>
       </c>
       <c r="E97" s="1"/>
-      <c r="F97" s="7" t="s">
-        <v>315</v>
+      <c r="F97" s="4" t="s">
+        <v>327</v>
       </c>
       <c r="G97" s="1"/>
       <c r="H97" s="1"/>
@@ -5185,10 +6035,10 @@
       <c r="L97" s="1"/>
       <c r="M97" s="1"/>
       <c r="N97" s="1"/>
-      <c r="O97" s="7">
+      <c r="O97" s="4">
         <v>0.0</v>
       </c>
-      <c r="P97" s="7">
+      <c r="P97" s="4">
         <v>1.0</v>
       </c>
       <c r="Q97" s="1"/>
@@ -5201,19 +6051,19 @@
       <c r="X97" s="1"/>
     </row>
     <row r="98" ht="12.75" customHeight="1">
-      <c r="A98" s="7" t="s">
-        <v>288</v>
+      <c r="A98" s="4" t="s">
+        <v>300</v>
       </c>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
-      <c r="D98" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="E98" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="F98" s="7" t="s">
-        <v>287</v>
+      <c r="D98" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="E98" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="F98" s="4" t="s">
+        <v>299</v>
       </c>
       <c r="G98" s="1"/>
       <c r="H98" s="1"/>
@@ -5223,10 +6073,10 @@
       <c r="L98" s="1"/>
       <c r="M98" s="1"/>
       <c r="N98" s="1"/>
-      <c r="O98" s="7">
+      <c r="O98" s="4">
         <v>0.0</v>
       </c>
-      <c r="P98" s="7">
+      <c r="P98" s="4">
         <v>0.0</v>
       </c>
       <c r="Q98" s="1"/>
@@ -5239,19 +6089,19 @@
       <c r="X98" s="1"/>
     </row>
     <row r="99" ht="12.75" customHeight="1">
-      <c r="A99" s="7" t="s">
-        <v>203</v>
+      <c r="A99" s="4" t="s">
+        <v>215</v>
       </c>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
-      <c r="D99" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="E99" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="F99" s="7" t="s">
-        <v>133</v>
+      <c r="D99" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="E99" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="F99" s="4" t="s">
+        <v>143</v>
       </c>
       <c r="G99" s="1"/>
       <c r="H99" s="1"/>
@@ -5259,14 +6109,14 @@
       <c r="J99" s="1"/>
       <c r="K99" s="1"/>
       <c r="L99" s="1"/>
-      <c r="M99" s="7" t="s">
-        <v>319</v>
+      <c r="M99" s="4" t="s">
+        <v>331</v>
       </c>
       <c r="N99" s="1"/>
-      <c r="O99" s="7">
+      <c r="O99" s="4">
         <v>1.0</v>
       </c>
-      <c r="P99" s="7">
+      <c r="P99" s="4">
         <v>1.0</v>
       </c>
       <c r="Q99" s="1"/>
@@ -5276,43 +6126,43 @@
       <c r="U99" s="1"/>
       <c r="V99" s="1"/>
       <c r="W99" s="1"/>
-      <c r="X99" s="7" t="s">
-        <v>320</v>
+      <c r="X99" s="4" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="100" ht="12.75" customHeight="1">
-      <c r="A100" s="7" t="s">
-        <v>321</v>
+      <c r="A100" s="4" t="s">
+        <v>333</v>
       </c>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
-      <c r="D100" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="E100" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="F100" s="7" t="s">
-        <v>323</v>
+      <c r="D100" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="E100" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="F100" s="4" t="s">
+        <v>335</v>
       </c>
       <c r="G100" s="1"/>
       <c r="H100" s="1"/>
       <c r="I100" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="J100" s="7" t="s">
-        <v>324</v>
+        <v>234</v>
+      </c>
+      <c r="J100" s="4" t="s">
+        <v>336</v>
       </c>
       <c r="K100" s="1"/>
       <c r="L100" s="1"/>
-      <c r="M100" s="7" t="s">
-        <v>325</v>
+      <c r="M100" s="4" t="s">
+        <v>337</v>
       </c>
       <c r="N100" s="1"/>
-      <c r="O100" s="7">
+      <c r="O100" s="4">
         <v>0.0</v>
       </c>
-      <c r="P100" s="7">
+      <c r="P100" s="4">
         <v>1.0</v>
       </c>
       <c r="Q100" s="1"/>
@@ -5325,38 +6175,38 @@
       <c r="X100" s="1"/>
     </row>
     <row r="101" ht="12.75" customHeight="1">
-      <c r="A101" s="7" t="s">
-        <v>326</v>
+      <c r="A101" s="4" t="s">
+        <v>338</v>
       </c>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
-      <c r="D101" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="E101" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="F101" s="7" t="s">
-        <v>327</v>
+      <c r="D101" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="E101" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="F101" s="4" t="s">
+        <v>339</v>
       </c>
       <c r="G101" s="1"/>
       <c r="H101" s="1"/>
       <c r="I101" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="J101" s="7" t="s">
-        <v>328</v>
+        <v>234</v>
+      </c>
+      <c r="J101" s="4" t="s">
+        <v>340</v>
       </c>
       <c r="K101" s="1"/>
       <c r="L101" s="1"/>
-      <c r="M101" s="7" t="s">
-        <v>329</v>
+      <c r="M101" s="4" t="s">
+        <v>341</v>
       </c>
       <c r="N101" s="1"/>
-      <c r="O101" s="7">
+      <c r="O101" s="4">
         <v>0.0</v>
       </c>
-      <c r="P101" s="7">
+      <c r="P101" s="4">
         <v>1.0</v>
       </c>
       <c r="Q101" s="1"/>
@@ -5369,17 +6219,17 @@
       <c r="X101" s="1"/>
     </row>
     <row r="102" ht="12.75" customHeight="1">
-      <c r="A102" s="7" t="s">
-        <v>324</v>
+      <c r="A102" s="4" t="s">
+        <v>336</v>
       </c>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
-      <c r="D102" s="7" t="s">
-        <v>330</v>
+      <c r="D102" s="4" t="s">
+        <v>342</v>
       </c>
       <c r="E102" s="1"/>
-      <c r="F102" s="7" t="s">
-        <v>331</v>
+      <c r="F102" s="4" t="s">
+        <v>343</v>
       </c>
       <c r="G102" s="1"/>
       <c r="H102" s="1"/>
@@ -5387,14 +6237,14 @@
       <c r="J102" s="1"/>
       <c r="K102" s="1"/>
       <c r="L102" s="1"/>
-      <c r="M102" s="7" t="s">
-        <v>332</v>
+      <c r="M102" s="4" t="s">
+        <v>344</v>
       </c>
       <c r="N102" s="1"/>
-      <c r="O102" s="7">
+      <c r="O102" s="4">
         <v>1.0</v>
       </c>
-      <c r="P102" s="7">
+      <c r="P102" s="4">
         <v>1.0</v>
       </c>
       <c r="Q102" s="1"/>
@@ -5407,17 +6257,17 @@
       <c r="X102" s="1"/>
     </row>
     <row r="103" ht="12.75" customHeight="1">
-      <c r="A103" s="7" t="s">
-        <v>328</v>
+      <c r="A103" s="4" t="s">
+        <v>340</v>
       </c>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
-      <c r="D103" s="7" t="s">
-        <v>333</v>
+      <c r="D103" s="4" t="s">
+        <v>345</v>
       </c>
       <c r="E103" s="1"/>
-      <c r="F103" s="7" t="s">
-        <v>334</v>
+      <c r="F103" s="4" t="s">
+        <v>346</v>
       </c>
       <c r="G103" s="1"/>
       <c r="H103" s="1"/>
@@ -5427,10 +6277,10 @@
       <c r="L103" s="1"/>
       <c r="M103" s="1"/>
       <c r="N103" s="1"/>
-      <c r="O103" s="7">
+      <c r="O103" s="4">
         <v>1.0</v>
       </c>
-      <c r="P103" s="7">
+      <c r="P103" s="4">
         <v>1.0</v>
       </c>
       <c r="Q103" s="1"/>
@@ -5443,22 +6293,40 @@
       <c r="X103" s="1"/>
     </row>
     <row r="104" ht="12.75" customHeight="1">
-      <c r="A104" s="1"/>
+      <c r="A104" s="4" t="s">
+        <v>347</v>
+      </c>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
-      <c r="D104" s="1"/>
-      <c r="E104" s="1"/>
-      <c r="F104" s="1"/>
+      <c r="D104" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="E104" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="F104" s="4" t="s">
+        <v>349</v>
+      </c>
       <c r="G104" s="1"/>
       <c r="H104" s="1"/>
-      <c r="I104" s="1"/>
-      <c r="J104" s="1"/>
+      <c r="I104" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="J104" s="4" t="s">
+        <v>351</v>
+      </c>
       <c r="K104" s="1"/>
       <c r="L104" s="1"/>
-      <c r="M104" s="1"/>
+      <c r="M104" s="4" t="s">
+        <v>352</v>
+      </c>
       <c r="N104" s="1"/>
-      <c r="O104" s="1"/>
-      <c r="P104" s="1"/>
+      <c r="O104" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="P104" s="4">
+        <v>1.0</v>
+      </c>
       <c r="Q104" s="1"/>
       <c r="R104" s="1"/>
       <c r="S104" s="1"/>
@@ -5469,22 +6337,40 @@
       <c r="X104" s="1"/>
     </row>
     <row r="105" ht="12.75" customHeight="1">
-      <c r="A105" s="1"/>
+      <c r="A105" s="4" t="s">
+        <v>350</v>
+      </c>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
-      <c r="D105" s="1"/>
-      <c r="E105" s="1"/>
-      <c r="F105" s="1"/>
+      <c r="D105" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="E105" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="F105" s="4" t="s">
+        <v>349</v>
+      </c>
       <c r="G105" s="1"/>
       <c r="H105" s="1"/>
-      <c r="I105" s="1"/>
-      <c r="J105" s="1"/>
+      <c r="I105" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="J105" s="4" t="s">
+        <v>355</v>
+      </c>
       <c r="K105" s="1"/>
       <c r="L105" s="1"/>
-      <c r="M105" s="1"/>
+      <c r="M105" s="4" t="s">
+        <v>356</v>
+      </c>
       <c r="N105" s="1"/>
-      <c r="O105" s="1"/>
-      <c r="P105" s="1"/>
+      <c r="O105" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="P105" s="4">
+        <v>1.0</v>
+      </c>
       <c r="Q105" s="1"/>
       <c r="R105" s="1"/>
       <c r="S105" s="1"/>
@@ -5495,22 +6381,40 @@
       <c r="X105" s="1"/>
     </row>
     <row r="106" ht="12.75" customHeight="1">
-      <c r="A106" s="1"/>
+      <c r="A106" s="4" t="s">
+        <v>351</v>
+      </c>
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
-      <c r="D106" s="1"/>
-      <c r="E106" s="1"/>
-      <c r="F106" s="1"/>
+      <c r="D106" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="E106" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="F106" s="4" t="s">
+        <v>358</v>
+      </c>
       <c r="G106" s="1"/>
       <c r="H106" s="1"/>
-      <c r="I106" s="1"/>
-      <c r="J106" s="1"/>
+      <c r="I106" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="J106" s="4" t="s">
+        <v>360</v>
+      </c>
       <c r="K106" s="1"/>
       <c r="L106" s="1"/>
-      <c r="M106" s="1"/>
+      <c r="M106" s="4" t="s">
+        <v>361</v>
+      </c>
       <c r="N106" s="1"/>
-      <c r="O106" s="1"/>
-      <c r="P106" s="1"/>
+      <c r="O106" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="P106" s="4">
+        <v>1.0</v>
+      </c>
       <c r="Q106" s="1"/>
       <c r="R106" s="1"/>
       <c r="S106" s="1"/>
@@ -5518,25 +6422,41 @@
       <c r="U106" s="1"/>
       <c r="V106" s="1"/>
       <c r="W106" s="1"/>
-      <c r="X106" s="1"/>
+      <c r="X106" s="4" t="s">
+        <v>362</v>
+      </c>
     </row>
     <row r="107" ht="12.75" customHeight="1">
-      <c r="A107" s="1"/>
+      <c r="A107" s="4" t="s">
+        <v>360</v>
+      </c>
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
-      <c r="D107" s="1"/>
-      <c r="E107" s="1"/>
-      <c r="F107" s="1"/>
+      <c r="D107" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="E107" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F107" s="4" t="s">
+        <v>363</v>
+      </c>
       <c r="G107" s="1"/>
       <c r="H107" s="1"/>
       <c r="I107" s="1"/>
       <c r="J107" s="1"/>
       <c r="K107" s="1"/>
       <c r="L107" s="1"/>
-      <c r="M107" s="1"/>
+      <c r="M107" s="4" t="s">
+        <v>364</v>
+      </c>
       <c r="N107" s="1"/>
-      <c r="O107" s="1"/>
-      <c r="P107" s="1"/>
+      <c r="O107" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="P107" s="4">
+        <v>1.0</v>
+      </c>
       <c r="Q107" s="1"/>
       <c r="R107" s="1"/>
       <c r="S107" s="1"/>
@@ -5544,25 +6464,43 @@
       <c r="U107" s="1"/>
       <c r="V107" s="1"/>
       <c r="W107" s="1"/>
-      <c r="X107" s="1"/>
+      <c r="X107" s="4" t="s">
+        <v>365</v>
+      </c>
     </row>
     <row r="108" ht="12.75" customHeight="1">
-      <c r="A108" s="1"/>
+      <c r="A108" s="4" t="s">
+        <v>359</v>
+      </c>
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
-      <c r="D108" s="1"/>
-      <c r="E108" s="1"/>
-      <c r="F108" s="1"/>
+      <c r="D108" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="E108" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="F108" s="4" t="s">
+        <v>363</v>
+      </c>
       <c r="G108" s="1"/>
       <c r="H108" s="1"/>
       <c r="I108" s="1"/>
       <c r="J108" s="1"/>
       <c r="K108" s="1"/>
       <c r="L108" s="1"/>
-      <c r="M108" s="1"/>
-      <c r="N108" s="1"/>
-      <c r="O108" s="1"/>
-      <c r="P108" s="1"/>
+      <c r="M108" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="N108" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="O108" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="P108" s="4">
+        <v>0.0</v>
+      </c>
       <c r="Q108" s="1"/>
       <c r="R108" s="1"/>
       <c r="S108" s="1"/>
@@ -5573,22 +6511,38 @@
       <c r="X108" s="1"/>
     </row>
     <row r="109" ht="12.75" customHeight="1">
-      <c r="A109" s="1"/>
+      <c r="A109" s="4" t="s">
+        <v>354</v>
+      </c>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
-      <c r="D109" s="1"/>
-      <c r="E109" s="1"/>
-      <c r="F109" s="1"/>
+      <c r="D109" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="E109" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="F109" s="4" t="s">
+        <v>349</v>
+      </c>
       <c r="G109" s="1"/>
       <c r="H109" s="1"/>
       <c r="I109" s="1"/>
       <c r="J109" s="1"/>
       <c r="K109" s="1"/>
       <c r="L109" s="1"/>
-      <c r="M109" s="1"/>
-      <c r="N109" s="1"/>
-      <c r="O109" s="1"/>
-      <c r="P109" s="1"/>
+      <c r="M109" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="N109" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="O109" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="P109" s="4">
+        <v>0.0</v>
+      </c>
       <c r="Q109" s="1"/>
       <c r="R109" s="1"/>
       <c r="S109" s="1"/>
@@ -5599,12 +6553,20 @@
       <c r="X109" s="1"/>
     </row>
     <row r="110" ht="12.75" customHeight="1">
-      <c r="A110" s="1"/>
+      <c r="A110" s="4" t="s">
+        <v>355</v>
+      </c>
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
-      <c r="D110" s="1"/>
-      <c r="E110" s="1"/>
-      <c r="F110" s="1"/>
+      <c r="D110" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="E110" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="F110" s="4" t="s">
+        <v>358</v>
+      </c>
       <c r="G110" s="1"/>
       <c r="H110" s="1"/>
       <c r="I110" s="1"/>
@@ -5613,8 +6575,12 @@
       <c r="L110" s="1"/>
       <c r="M110" s="1"/>
       <c r="N110" s="1"/>
-      <c r="O110" s="1"/>
-      <c r="P110" s="1"/>
+      <c r="O110" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="P110" s="4">
+        <v>0.0</v>
+      </c>
       <c r="Q110" s="1"/>
       <c r="R110" s="1"/>
       <c r="S110" s="1"/>
@@ -5622,25 +6588,45 @@
       <c r="U110" s="1"/>
       <c r="V110" s="1"/>
       <c r="W110" s="1"/>
-      <c r="X110" s="1"/>
+      <c r="X110" s="4" t="s">
+        <v>374</v>
+      </c>
     </row>
     <row r="111" ht="12.75" customHeight="1">
-      <c r="A111" s="1"/>
+      <c r="A111" s="4" t="s">
+        <v>375</v>
+      </c>
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
-      <c r="D111" s="1"/>
-      <c r="E111" s="1"/>
-      <c r="F111" s="1"/>
+      <c r="D111" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="E111" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="F111" s="4" t="s">
+        <v>349</v>
+      </c>
       <c r="G111" s="1"/>
       <c r="H111" s="1"/>
-      <c r="I111" s="1"/>
-      <c r="J111" s="1"/>
+      <c r="I111" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="J111" s="4" t="s">
+        <v>355</v>
+      </c>
       <c r="K111" s="1"/>
       <c r="L111" s="1"/>
-      <c r="M111" s="1"/>
+      <c r="M111" s="4" t="s">
+        <v>378</v>
+      </c>
       <c r="N111" s="1"/>
-      <c r="O111" s="1"/>
-      <c r="P111" s="1"/>
+      <c r="O111" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="P111" s="4">
+        <v>1.0</v>
+      </c>
       <c r="Q111" s="1"/>
       <c r="R111" s="1"/>
       <c r="S111" s="1"/>
@@ -5651,22 +6637,42 @@
       <c r="X111" s="1"/>
     </row>
     <row r="112" ht="12.75" customHeight="1">
-      <c r="A112" s="1"/>
+      <c r="A112" s="4" t="s">
+        <v>379</v>
+      </c>
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
-      <c r="D112" s="1"/>
-      <c r="E112" s="1"/>
-      <c r="F112" s="1"/>
+      <c r="D112" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="E112" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="F112" s="4" t="s">
+        <v>349</v>
+      </c>
       <c r="G112" s="1"/>
       <c r="H112" s="1"/>
-      <c r="I112" s="1"/>
-      <c r="J112" s="1"/>
+      <c r="I112" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="J112" s="4" t="s">
+        <v>355</v>
+      </c>
       <c r="K112" s="1"/>
       <c r="L112" s="1"/>
-      <c r="M112" s="1"/>
-      <c r="N112" s="1"/>
-      <c r="O112" s="1"/>
-      <c r="P112" s="1"/>
+      <c r="M112" s="4" t="s">
+        <v>378</v>
+      </c>
+      <c r="N112" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="O112" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="P112" s="4">
+        <v>0.0</v>
+      </c>
       <c r="Q112" s="1"/>
       <c r="R112" s="1"/>
       <c r="S112" s="1"/>
@@ -5677,22 +6683,40 @@
       <c r="X112" s="1"/>
     </row>
     <row r="113" ht="12.75" customHeight="1">
-      <c r="A113" s="1"/>
+      <c r="A113" s="4" t="s">
+        <v>382</v>
+      </c>
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
-      <c r="D113" s="1"/>
-      <c r="E113" s="1"/>
-      <c r="F113" s="1"/>
+      <c r="D113" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="E113" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="F113" s="4" t="s">
+        <v>106</v>
+      </c>
       <c r="G113" s="1"/>
       <c r="H113" s="1"/>
-      <c r="I113" s="1"/>
-      <c r="J113" s="1"/>
+      <c r="I113" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="J113" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="K113" s="1"/>
       <c r="L113" s="1"/>
-      <c r="M113" s="1"/>
+      <c r="M113" s="4" t="s">
+        <v>385</v>
+      </c>
       <c r="N113" s="1"/>
-      <c r="O113" s="1"/>
-      <c r="P113" s="1"/>
+      <c r="O113" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="P113" s="4">
+        <v>1.0</v>
+      </c>
       <c r="Q113" s="1"/>
       <c r="R113" s="1"/>
       <c r="S113" s="1"/>
@@ -5703,22 +6727,40 @@
       <c r="X113" s="1"/>
     </row>
     <row r="114" ht="12.75" customHeight="1">
-      <c r="A114" s="1"/>
+      <c r="A114" s="4" t="s">
+        <v>386</v>
+      </c>
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
-      <c r="D114" s="1"/>
-      <c r="E114" s="1"/>
-      <c r="F114" s="1"/>
+      <c r="D114" s="4" t="s">
+        <v>387</v>
+      </c>
+      <c r="E114" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="F114" s="4" t="s">
+        <v>106</v>
+      </c>
       <c r="G114" s="1"/>
       <c r="H114" s="1"/>
-      <c r="I114" s="1"/>
-      <c r="J114" s="1"/>
+      <c r="I114" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="J114" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="K114" s="1"/>
       <c r="L114" s="1"/>
-      <c r="M114" s="1"/>
+      <c r="M114" s="4" t="s">
+        <v>388</v>
+      </c>
       <c r="N114" s="1"/>
-      <c r="O114" s="1"/>
-      <c r="P114" s="1"/>
+      <c r="O114" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="P114" s="4">
+        <v>1.0</v>
+      </c>
       <c r="Q114" s="1"/>
       <c r="R114" s="1"/>
       <c r="S114" s="1"/>
@@ -5729,22 +6771,40 @@
       <c r="X114" s="1"/>
     </row>
     <row r="115" ht="12.75" customHeight="1">
-      <c r="A115" s="1"/>
+      <c r="A115" s="4" t="s">
+        <v>389</v>
+      </c>
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
-      <c r="D115" s="1"/>
-      <c r="E115" s="1"/>
-      <c r="F115" s="1"/>
+      <c r="D115" s="4" t="s">
+        <v>387</v>
+      </c>
+      <c r="E115" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="F115" s="4" t="s">
+        <v>390</v>
+      </c>
       <c r="G115" s="1"/>
       <c r="H115" s="1"/>
-      <c r="I115" s="1"/>
-      <c r="J115" s="1"/>
+      <c r="I115" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="J115" s="4" t="s">
+        <v>392</v>
+      </c>
       <c r="K115" s="1"/>
       <c r="L115" s="1"/>
-      <c r="M115" s="1"/>
+      <c r="M115" s="4" t="s">
+        <v>393</v>
+      </c>
       <c r="N115" s="1"/>
-      <c r="O115" s="1"/>
-      <c r="P115" s="1"/>
+      <c r="O115" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="P115" s="4">
+        <v>1.0</v>
+      </c>
       <c r="Q115" s="1"/>
       <c r="R115" s="1"/>
       <c r="S115" s="1"/>
@@ -5755,22 +6815,38 @@
       <c r="X115" s="1"/>
     </row>
     <row r="116" ht="12.75" customHeight="1">
-      <c r="A116" s="1"/>
+      <c r="A116" s="4" t="s">
+        <v>394</v>
+      </c>
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
-      <c r="D116" s="1"/>
-      <c r="E116" s="1"/>
-      <c r="F116" s="1"/>
+      <c r="D116" s="4" t="s">
+        <v>395</v>
+      </c>
+      <c r="E116" s="4" t="s">
+        <v>396</v>
+      </c>
+      <c r="F116" s="4" t="s">
+        <v>397</v>
+      </c>
       <c r="G116" s="1"/>
       <c r="H116" s="1"/>
-      <c r="I116" s="1"/>
+      <c r="I116" s="4" t="s">
+        <v>389</v>
+      </c>
       <c r="J116" s="1"/>
       <c r="K116" s="1"/>
       <c r="L116" s="1"/>
-      <c r="M116" s="1"/>
+      <c r="M116" s="4" t="s">
+        <v>398</v>
+      </c>
       <c r="N116" s="1"/>
-      <c r="O116" s="1"/>
-      <c r="P116" s="1"/>
+      <c r="O116" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="P116" s="4">
+        <v>1.0</v>
+      </c>
       <c r="Q116" s="1"/>
       <c r="R116" s="1"/>
       <c r="S116" s="1"/>
@@ -5781,12 +6857,20 @@
       <c r="X116" s="1"/>
     </row>
     <row r="117" ht="12.75" customHeight="1">
-      <c r="A117" s="1"/>
+      <c r="A117" s="4" t="s">
+        <v>399</v>
+      </c>
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
-      <c r="D117" s="1"/>
-      <c r="E117" s="1"/>
-      <c r="F117" s="1"/>
+      <c r="D117" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="E117" s="4" t="s">
+        <v>400</v>
+      </c>
+      <c r="F117" s="4" t="s">
+        <v>397</v>
+      </c>
       <c r="G117" s="1"/>
       <c r="H117" s="1"/>
       <c r="I117" s="1"/>
@@ -5795,8 +6879,12 @@
       <c r="L117" s="1"/>
       <c r="M117" s="1"/>
       <c r="N117" s="1"/>
-      <c r="O117" s="1"/>
-      <c r="P117" s="1"/>
+      <c r="O117" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="P117" s="4">
+        <v>1.0</v>
+      </c>
       <c r="Q117" s="1"/>
       <c r="R117" s="1"/>
       <c r="S117" s="1"/>
@@ -5807,12 +6895,20 @@
       <c r="X117" s="1"/>
     </row>
     <row r="118" ht="12.75" customHeight="1">
-      <c r="A118" s="1"/>
+      <c r="A118" s="4" t="s">
+        <v>391</v>
+      </c>
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
-      <c r="D118" s="1"/>
-      <c r="E118" s="1"/>
-      <c r="F118" s="1"/>
+      <c r="D118" s="4" t="s">
+        <v>401</v>
+      </c>
+      <c r="E118" s="4" t="s">
+        <v>402</v>
+      </c>
+      <c r="F118" s="4" t="s">
+        <v>403</v>
+      </c>
       <c r="G118" s="1"/>
       <c r="H118" s="1"/>
       <c r="I118" s="1"/>
@@ -5821,8 +6917,12 @@
       <c r="L118" s="1"/>
       <c r="M118" s="1"/>
       <c r="N118" s="1"/>
-      <c r="O118" s="1"/>
-      <c r="P118" s="1"/>
+      <c r="O118" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="P118" s="4">
+        <v>1.0</v>
+      </c>
       <c r="Q118" s="1"/>
       <c r="R118" s="1"/>
       <c r="S118" s="1"/>
@@ -5833,22 +6933,38 @@
       <c r="X118" s="1"/>
     </row>
     <row r="119" ht="12.75" customHeight="1">
-      <c r="A119" s="1"/>
+      <c r="A119" s="4" t="s">
+        <v>134</v>
+      </c>
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
-      <c r="D119" s="1"/>
-      <c r="E119" s="1"/>
-      <c r="F119" s="1"/>
+      <c r="D119" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="E119" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="F119" s="4" t="s">
+        <v>106</v>
+      </c>
       <c r="G119" s="1"/>
       <c r="H119" s="1"/>
       <c r="I119" s="1"/>
       <c r="J119" s="1"/>
       <c r="K119" s="1"/>
       <c r="L119" s="1"/>
-      <c r="M119" s="1"/>
-      <c r="N119" s="1"/>
-      <c r="O119" s="1"/>
-      <c r="P119" s="1"/>
+      <c r="M119" s="4" t="s">
+        <v>404</v>
+      </c>
+      <c r="N119" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="O119" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="P119" s="4">
+        <v>0.0</v>
+      </c>
       <c r="Q119" s="1"/>
       <c r="R119" s="1"/>
       <c r="S119" s="1"/>
@@ -5859,22 +6975,42 @@
       <c r="X119" s="1"/>
     </row>
     <row r="120" ht="12.75" customHeight="1">
-      <c r="A120" s="1"/>
+      <c r="A120" s="4" t="s">
+        <v>135</v>
+      </c>
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
-      <c r="D120" s="1"/>
-      <c r="E120" s="1"/>
-      <c r="F120" s="1"/>
+      <c r="D120" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="E120" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="F120" s="4" t="s">
+        <v>38</v>
+      </c>
       <c r="G120" s="1"/>
       <c r="H120" s="1"/>
-      <c r="I120" s="1"/>
-      <c r="J120" s="1"/>
+      <c r="I120" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="J120" s="4" t="s">
+        <v>407</v>
+      </c>
       <c r="K120" s="1"/>
       <c r="L120" s="1"/>
-      <c r="M120" s="1"/>
-      <c r="N120" s="1"/>
-      <c r="O120" s="1"/>
-      <c r="P120" s="1"/>
+      <c r="M120" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="N120" s="4" t="s">
+        <v>409</v>
+      </c>
+      <c r="O120" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="P120" s="4">
+        <v>0.0</v>
+      </c>
       <c r="Q120" s="1"/>
       <c r="R120" s="1"/>
       <c r="S120" s="1"/>
@@ -5882,25 +7018,47 @@
       <c r="U120" s="1"/>
       <c r="V120" s="1"/>
       <c r="W120" s="1"/>
-      <c r="X120" s="1"/>
+      <c r="X120" s="14" t="s">
+        <v>410</v>
+      </c>
     </row>
     <row r="121" ht="12.75" customHeight="1">
-      <c r="A121" s="1"/>
+      <c r="A121" s="4" t="s">
+        <v>411</v>
+      </c>
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
-      <c r="D121" s="1"/>
-      <c r="E121" s="1"/>
-      <c r="F121" s="1"/>
+      <c r="D121" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="E121" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="F121" s="4" t="s">
+        <v>106</v>
+      </c>
       <c r="G121" s="1"/>
       <c r="H121" s="1"/>
-      <c r="I121" s="1"/>
-      <c r="J121" s="1"/>
+      <c r="I121" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="J121" s="4" t="s">
+        <v>135</v>
+      </c>
       <c r="K121" s="1"/>
       <c r="L121" s="1"/>
-      <c r="M121" s="1"/>
-      <c r="N121" s="1"/>
-      <c r="O121" s="1"/>
-      <c r="P121" s="1"/>
+      <c r="M121" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="N121" s="8" t="s">
+        <v>413</v>
+      </c>
+      <c r="O121" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="P121" s="4">
+        <v>0.0</v>
+      </c>
       <c r="Q121" s="1"/>
       <c r="R121" s="1"/>
       <c r="S121" s="1"/>
@@ -5911,22 +7069,42 @@
       <c r="X121" s="1"/>
     </row>
     <row r="122" ht="12.75" customHeight="1">
-      <c r="A122" s="1"/>
+      <c r="A122" s="4" t="s">
+        <v>414</v>
+      </c>
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
-      <c r="D122" s="1"/>
-      <c r="E122" s="1"/>
-      <c r="F122" s="1"/>
+      <c r="D122" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="E122" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="F122" s="4" t="s">
+        <v>106</v>
+      </c>
       <c r="G122" s="1"/>
       <c r="H122" s="1"/>
-      <c r="I122" s="1"/>
-      <c r="J122" s="1"/>
+      <c r="I122" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="J122" s="4" t="s">
+        <v>135</v>
+      </c>
       <c r="K122" s="1"/>
       <c r="L122" s="1"/>
-      <c r="M122" s="1"/>
-      <c r="N122" s="1"/>
-      <c r="O122" s="1"/>
-      <c r="P122" s="1"/>
+      <c r="M122" s="4" t="s">
+        <v>415</v>
+      </c>
+      <c r="N122" s="4" t="s">
+        <v>416</v>
+      </c>
+      <c r="O122" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="P122" s="4">
+        <v>0.0</v>
+      </c>
       <c r="Q122" s="1"/>
       <c r="R122" s="1"/>
       <c r="S122" s="1"/>
@@ -5937,22 +7115,42 @@
       <c r="X122" s="1"/>
     </row>
     <row r="123" ht="12.75" customHeight="1">
-      <c r="A123" s="1"/>
+      <c r="A123" s="4" t="s">
+        <v>417</v>
+      </c>
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
-      <c r="D123" s="1"/>
-      <c r="E123" s="1"/>
-      <c r="F123" s="1"/>
+      <c r="D123" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="E123" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="F123" s="4" t="s">
+        <v>38</v>
+      </c>
       <c r="G123" s="1"/>
       <c r="H123" s="1"/>
-      <c r="I123" s="1"/>
-      <c r="J123" s="1"/>
+      <c r="I123" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="J123" s="4" t="s">
+        <v>135</v>
+      </c>
       <c r="K123" s="1"/>
       <c r="L123" s="1"/>
-      <c r="M123" s="1"/>
-      <c r="N123" s="1"/>
-      <c r="O123" s="1"/>
-      <c r="P123" s="1"/>
+      <c r="M123" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="N123" s="4" t="s">
+        <v>421</v>
+      </c>
+      <c r="O123" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="P123" s="4">
+        <v>0.0</v>
+      </c>
       <c r="Q123" s="1"/>
       <c r="R123" s="1"/>
       <c r="S123" s="1"/>
@@ -5963,12 +7161,20 @@
       <c r="X123" s="1"/>
     </row>
     <row r="124" ht="12.75" customHeight="1">
-      <c r="A124" s="1"/>
+      <c r="A124" s="4" t="s">
+        <v>406</v>
+      </c>
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
-      <c r="D124" s="1"/>
-      <c r="E124" s="1"/>
-      <c r="F124" s="1"/>
+      <c r="D124" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="E124" s="13" t="s">
+        <v>422</v>
+      </c>
+      <c r="F124" s="13" t="s">
+        <v>423</v>
+      </c>
       <c r="G124" s="1"/>
       <c r="H124" s="1"/>
       <c r="I124" s="1"/>
@@ -5977,8 +7183,12 @@
       <c r="L124" s="1"/>
       <c r="M124" s="1"/>
       <c r="N124" s="1"/>
-      <c r="O124" s="1"/>
-      <c r="P124" s="1"/>
+      <c r="O124" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="P124" s="4">
+        <v>0.0</v>
+      </c>
       <c r="Q124" s="1"/>
       <c r="R124" s="1"/>
       <c r="S124" s="1"/>
@@ -5989,12 +7199,20 @@
       <c r="X124" s="1"/>
     </row>
     <row r="125" ht="12.75" customHeight="1">
-      <c r="A125" s="1"/>
+      <c r="A125" s="4" t="s">
+        <v>407</v>
+      </c>
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
-      <c r="D125" s="1"/>
-      <c r="E125" s="1"/>
-      <c r="F125" s="1"/>
+      <c r="D125" s="4" t="s">
+        <v>424</v>
+      </c>
+      <c r="E125" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="F125" s="13" t="s">
+        <v>425</v>
+      </c>
       <c r="G125" s="1"/>
       <c r="H125" s="1"/>
       <c r="I125" s="1"/>
@@ -6003,8 +7221,12 @@
       <c r="L125" s="1"/>
       <c r="M125" s="1"/>
       <c r="N125" s="1"/>
-      <c r="O125" s="1"/>
-      <c r="P125" s="1"/>
+      <c r="O125" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="P125" s="4">
+        <v>0.0</v>
+      </c>
       <c r="Q125" s="1"/>
       <c r="R125" s="1"/>
       <c r="S125" s="1"/>
@@ -6012,15 +7234,23 @@
       <c r="U125" s="1"/>
       <c r="V125" s="1"/>
       <c r="W125" s="1"/>
-      <c r="X125" s="1"/>
+      <c r="X125" s="13" t="s">
+        <v>426</v>
+      </c>
     </row>
     <row r="126" ht="12.75" customHeight="1">
-      <c r="A126" s="1"/>
+      <c r="A126" s="4" t="s">
+        <v>204</v>
+      </c>
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
-      <c r="D126" s="1"/>
+      <c r="D126" s="4" t="s">
+        <v>68</v>
+      </c>
       <c r="E126" s="1"/>
-      <c r="F126" s="1"/>
+      <c r="F126" s="4" t="s">
+        <v>427</v>
+      </c>
       <c r="G126" s="1"/>
       <c r="H126" s="1"/>
       <c r="I126" s="1"/>
@@ -6029,8 +7259,12 @@
       <c r="L126" s="1"/>
       <c r="M126" s="1"/>
       <c r="N126" s="1"/>
-      <c r="O126" s="1"/>
-      <c r="P126" s="1"/>
+      <c r="O126" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="P126" s="4">
+        <v>0.0</v>
+      </c>
       <c r="Q126" s="1"/>
       <c r="R126" s="1"/>
       <c r="S126" s="1"/>
@@ -6041,12 +7275,20 @@
       <c r="X126" s="1"/>
     </row>
     <row r="127" ht="12.75" customHeight="1">
-      <c r="A127" s="1"/>
+      <c r="A127" s="4" t="s">
+        <v>428</v>
+      </c>
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
-      <c r="D127" s="1"/>
-      <c r="E127" s="1"/>
-      <c r="F127" s="1"/>
+      <c r="D127" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E127" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="F127" s="4" t="s">
+        <v>429</v>
+      </c>
       <c r="G127" s="1"/>
       <c r="H127" s="1"/>
       <c r="I127" s="1"/>
@@ -6055,8 +7297,12 @@
       <c r="L127" s="1"/>
       <c r="M127" s="1"/>
       <c r="N127" s="1"/>
-      <c r="O127" s="1"/>
-      <c r="P127" s="1"/>
+      <c r="O127" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="P127" s="4">
+        <v>0.0</v>
+      </c>
       <c r="Q127" s="1"/>
       <c r="R127" s="1"/>
       <c r="S127" s="1"/>
@@ -6067,12 +7313,20 @@
       <c r="X127" s="1"/>
     </row>
     <row r="128" ht="12.75" customHeight="1">
-      <c r="A128" s="1"/>
+      <c r="A128" s="4" t="s">
+        <v>430</v>
+      </c>
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
-      <c r="D128" s="1"/>
-      <c r="E128" s="1"/>
-      <c r="F128" s="1"/>
+      <c r="D128" s="4" t="s">
+        <v>431</v>
+      </c>
+      <c r="E128" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F128" s="4" t="s">
+        <v>432</v>
+      </c>
       <c r="G128" s="1"/>
       <c r="H128" s="1"/>
       <c r="I128" s="1"/>
@@ -6081,8 +7335,12 @@
       <c r="L128" s="1"/>
       <c r="M128" s="1"/>
       <c r="N128" s="1"/>
-      <c r="O128" s="1"/>
-      <c r="P128" s="1"/>
+      <c r="O128" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="P128" s="4">
+        <v>0.0</v>
+      </c>
       <c r="Q128" s="1"/>
       <c r="R128" s="1"/>
       <c r="S128" s="1"/>
@@ -6090,25 +7348,47 @@
       <c r="U128" s="1"/>
       <c r="V128" s="1"/>
       <c r="W128" s="1"/>
-      <c r="X128" s="1"/>
+      <c r="X128" s="4" t="s">
+        <v>433</v>
+      </c>
     </row>
     <row r="129" ht="12.75" customHeight="1">
-      <c r="A129" s="1"/>
+      <c r="A129" s="4" t="s">
+        <v>434</v>
+      </c>
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
-      <c r="D129" s="1"/>
-      <c r="E129" s="1"/>
-      <c r="F129" s="1"/>
+      <c r="D129" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E129" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="F129" s="4" t="s">
+        <v>106</v>
+      </c>
       <c r="G129" s="1"/>
       <c r="H129" s="1"/>
-      <c r="I129" s="1"/>
-      <c r="J129" s="1"/>
+      <c r="I129" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="J129" s="4" t="s">
+        <v>135</v>
+      </c>
       <c r="K129" s="1"/>
       <c r="L129" s="1"/>
-      <c r="M129" s="1"/>
-      <c r="N129" s="1"/>
-      <c r="O129" s="1"/>
-      <c r="P129" s="1"/>
+      <c r="M129" s="4" t="s">
+        <v>435</v>
+      </c>
+      <c r="N129" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="O129" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="P129" s="4">
+        <v>0.0</v>
+      </c>
       <c r="Q129" s="1"/>
       <c r="R129" s="1"/>
       <c r="S129" s="1"/>
@@ -6119,12 +7399,20 @@
       <c r="X129" s="1"/>
     </row>
     <row r="130" ht="12.75" customHeight="1">
-      <c r="A130" s="1"/>
+      <c r="A130" s="4" t="s">
+        <v>437</v>
+      </c>
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
-      <c r="D130" s="1"/>
-      <c r="E130" s="1"/>
-      <c r="F130" s="1"/>
+      <c r="D130" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="E130" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="F130" s="4" t="s">
+        <v>38</v>
+      </c>
       <c r="G130" s="1"/>
       <c r="H130" s="1"/>
       <c r="I130" s="1"/>
@@ -6133,8 +7421,12 @@
       <c r="L130" s="1"/>
       <c r="M130" s="1"/>
       <c r="N130" s="1"/>
-      <c r="O130" s="1"/>
-      <c r="P130" s="1"/>
+      <c r="O130" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="P130" s="4">
+        <v>0.0</v>
+      </c>
       <c r="Q130" s="1"/>
       <c r="R130" s="1"/>
       <c r="S130" s="1"/>
@@ -6142,25 +7434,45 @@
       <c r="U130" s="1"/>
       <c r="V130" s="1"/>
       <c r="W130" s="1"/>
-      <c r="X130" s="1"/>
+      <c r="X130" s="4" t="s">
+        <v>438</v>
+      </c>
     </row>
     <row r="131" ht="12.75" customHeight="1">
-      <c r="A131" s="1"/>
+      <c r="A131" s="4" t="s">
+        <v>439</v>
+      </c>
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
-      <c r="D131" s="1"/>
-      <c r="E131" s="1"/>
-      <c r="F131" s="1"/>
+      <c r="D131" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="E131" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="F131" s="4" t="s">
+        <v>106</v>
+      </c>
       <c r="G131" s="1"/>
       <c r="H131" s="1"/>
-      <c r="I131" s="1"/>
-      <c r="J131" s="1"/>
+      <c r="I131" s="4" t="s">
+        <v>434</v>
+      </c>
+      <c r="J131" s="4" t="s">
+        <v>437</v>
+      </c>
       <c r="K131" s="1"/>
       <c r="L131" s="1"/>
-      <c r="M131" s="1"/>
+      <c r="M131" s="4" t="s">
+        <v>440</v>
+      </c>
       <c r="N131" s="1"/>
-      <c r="O131" s="1"/>
-      <c r="P131" s="1"/>
+      <c r="O131" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="P131" s="4">
+        <v>1.0</v>
+      </c>
       <c r="Q131" s="1"/>
       <c r="R131" s="1"/>
       <c r="S131" s="1"/>
@@ -6171,22 +7483,36 @@
       <c r="X131" s="1"/>
     </row>
     <row r="132" ht="12.75" customHeight="1">
-      <c r="A132" s="1"/>
+      <c r="A132" s="4" t="s">
+        <v>441</v>
+      </c>
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
-      <c r="D132" s="1"/>
-      <c r="E132" s="1"/>
-      <c r="F132" s="1"/>
+      <c r="D132" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="E132" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F132" s="4" t="s">
+        <v>38</v>
+      </c>
       <c r="G132" s="1"/>
       <c r="H132" s="1"/>
       <c r="I132" s="1"/>
       <c r="J132" s="1"/>
       <c r="K132" s="1"/>
       <c r="L132" s="1"/>
-      <c r="M132" s="1"/>
+      <c r="M132" s="4" t="s">
+        <v>442</v>
+      </c>
       <c r="N132" s="1"/>
-      <c r="O132" s="1"/>
-      <c r="P132" s="1"/>
+      <c r="O132" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="P132" s="4">
+        <v>1.0</v>
+      </c>
       <c r="Q132" s="1"/>
       <c r="R132" s="1"/>
       <c r="S132" s="1"/>
@@ -6194,25 +7520,45 @@
       <c r="U132" s="1"/>
       <c r="V132" s="1"/>
       <c r="W132" s="1"/>
-      <c r="X132" s="1"/>
+      <c r="X132" s="4" t="s">
+        <v>443</v>
+      </c>
     </row>
     <row r="133" ht="12.75" customHeight="1">
-      <c r="A133" s="1"/>
+      <c r="A133" s="4" t="s">
+        <v>444</v>
+      </c>
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
-      <c r="D133" s="1"/>
-      <c r="E133" s="1"/>
-      <c r="F133" s="1"/>
+      <c r="D133" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E133" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="F133" s="4" t="s">
+        <v>106</v>
+      </c>
       <c r="G133" s="1"/>
       <c r="H133" s="1"/>
-      <c r="I133" s="1"/>
-      <c r="J133" s="1"/>
+      <c r="I133" s="4" t="s">
+        <v>439</v>
+      </c>
+      <c r="J133" s="4" t="s">
+        <v>441</v>
+      </c>
       <c r="K133" s="1"/>
       <c r="L133" s="1"/>
-      <c r="M133" s="1"/>
+      <c r="M133" s="4" t="s">
+        <v>445</v>
+      </c>
       <c r="N133" s="1"/>
-      <c r="O133" s="1"/>
-      <c r="P133" s="1"/>
+      <c r="O133" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="P133" s="4">
+        <v>1.0</v>
+      </c>
       <c r="Q133" s="1"/>
       <c r="R133" s="1"/>
       <c r="S133" s="1"/>
@@ -6223,22 +7569,36 @@
       <c r="X133" s="1"/>
     </row>
     <row r="134" ht="12.75" customHeight="1">
-      <c r="A134" s="1"/>
+      <c r="A134" s="4" t="s">
+        <v>446</v>
+      </c>
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
-      <c r="D134" s="1"/>
-      <c r="E134" s="1"/>
-      <c r="F134" s="1"/>
+      <c r="D134" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="E134" s="4" t="s">
+        <v>447</v>
+      </c>
+      <c r="F134" s="4" t="s">
+        <v>38</v>
+      </c>
       <c r="G134" s="1"/>
       <c r="H134" s="1"/>
       <c r="I134" s="1"/>
       <c r="J134" s="1"/>
       <c r="K134" s="1"/>
       <c r="L134" s="1"/>
-      <c r="M134" s="1"/>
+      <c r="M134" s="4" t="s">
+        <v>448</v>
+      </c>
       <c r="N134" s="1"/>
-      <c r="O134" s="1"/>
-      <c r="P134" s="1"/>
+      <c r="O134" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="P134" s="4">
+        <v>1.0</v>
+      </c>
       <c r="Q134" s="1"/>
       <c r="R134" s="1"/>
       <c r="S134" s="1"/>
@@ -6246,25 +7606,45 @@
       <c r="U134" s="1"/>
       <c r="V134" s="1"/>
       <c r="W134" s="1"/>
-      <c r="X134" s="1"/>
+      <c r="X134" s="4" t="s">
+        <v>449</v>
+      </c>
     </row>
     <row r="135" ht="12.75" customHeight="1">
-      <c r="A135" s="1"/>
+      <c r="A135" s="4" t="s">
+        <v>450</v>
+      </c>
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
-      <c r="D135" s="1"/>
-      <c r="E135" s="1"/>
-      <c r="F135" s="1"/>
+      <c r="D135" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E135" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="F135" s="4" t="s">
+        <v>106</v>
+      </c>
       <c r="G135" s="1"/>
       <c r="H135" s="1"/>
-      <c r="I135" s="1"/>
-      <c r="J135" s="1"/>
+      <c r="I135" s="4" t="s">
+        <v>444</v>
+      </c>
+      <c r="J135" s="4" t="s">
+        <v>446</v>
+      </c>
       <c r="K135" s="1"/>
       <c r="L135" s="1"/>
-      <c r="M135" s="1"/>
+      <c r="M135" s="4" t="s">
+        <v>451</v>
+      </c>
       <c r="N135" s="1"/>
-      <c r="O135" s="1"/>
-      <c r="P135" s="1"/>
+      <c r="O135" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="P135" s="4">
+        <v>1.0</v>
+      </c>
       <c r="Q135" s="1"/>
       <c r="R135" s="1"/>
       <c r="S135" s="1"/>
@@ -6275,22 +7655,40 @@
       <c r="X135" s="1"/>
     </row>
     <row r="136" ht="12.75" customHeight="1">
-      <c r="A136" s="1"/>
+      <c r="A136" s="4" t="s">
+        <v>452</v>
+      </c>
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
-      <c r="D136" s="1"/>
-      <c r="E136" s="1"/>
-      <c r="F136" s="1"/>
+      <c r="D136" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="E136" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="F136" s="4" t="s">
+        <v>106</v>
+      </c>
       <c r="G136" s="1"/>
       <c r="H136" s="1"/>
-      <c r="I136" s="1"/>
-      <c r="J136" s="1"/>
+      <c r="I136" s="4" t="s">
+        <v>444</v>
+      </c>
+      <c r="J136" s="4" t="s">
+        <v>446</v>
+      </c>
       <c r="K136" s="1"/>
       <c r="L136" s="1"/>
-      <c r="M136" s="1"/>
+      <c r="M136" s="4" t="s">
+        <v>453</v>
+      </c>
       <c r="N136" s="1"/>
-      <c r="O136" s="1"/>
-      <c r="P136" s="1"/>
+      <c r="O136" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="P136" s="4">
+        <v>1.0</v>
+      </c>
       <c r="Q136" s="1"/>
       <c r="R136" s="1"/>
       <c r="S136" s="1"/>
@@ -6301,22 +7699,40 @@
       <c r="X136" s="1"/>
     </row>
     <row r="137" ht="12.75" customHeight="1">
-      <c r="A137" s="1"/>
+      <c r="A137" s="4" t="s">
+        <v>454</v>
+      </c>
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
-      <c r="D137" s="1"/>
-      <c r="E137" s="1"/>
-      <c r="F137" s="1"/>
+      <c r="D137" s="4" t="s">
+        <v>455</v>
+      </c>
+      <c r="E137" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F137" s="4" t="s">
+        <v>38</v>
+      </c>
       <c r="G137" s="1"/>
       <c r="H137" s="1"/>
-      <c r="I137" s="1"/>
-      <c r="J137" s="1"/>
+      <c r="I137" s="4" t="s">
+        <v>444</v>
+      </c>
+      <c r="J137" s="4" t="s">
+        <v>446</v>
+      </c>
       <c r="K137" s="1"/>
       <c r="L137" s="1"/>
-      <c r="M137" s="1"/>
+      <c r="M137" s="4" t="s">
+        <v>456</v>
+      </c>
       <c r="N137" s="1"/>
-      <c r="O137" s="1"/>
-      <c r="P137" s="1"/>
+      <c r="O137" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="P137" s="4">
+        <v>1.0</v>
+      </c>
       <c r="Q137" s="1"/>
       <c r="R137" s="1"/>
       <c r="S137" s="1"/>
@@ -6327,22 +7743,40 @@
       <c r="X137" s="1"/>
     </row>
     <row r="138" ht="12.75" customHeight="1">
-      <c r="A138" s="1"/>
+      <c r="A138" s="4" t="s">
+        <v>457</v>
+      </c>
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
-      <c r="D138" s="1"/>
-      <c r="E138" s="1"/>
-      <c r="F138" s="1"/>
+      <c r="D138" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E138" s="4" t="s">
+        <v>458</v>
+      </c>
+      <c r="F138" s="4" t="s">
+        <v>38</v>
+      </c>
       <c r="G138" s="1"/>
       <c r="H138" s="1"/>
-      <c r="I138" s="1"/>
-      <c r="J138" s="1"/>
+      <c r="I138" s="4" t="s">
+        <v>439</v>
+      </c>
+      <c r="J138" s="4" t="s">
+        <v>441</v>
+      </c>
       <c r="K138" s="1"/>
       <c r="L138" s="1"/>
-      <c r="M138" s="1"/>
+      <c r="M138" s="4" t="s">
+        <v>459</v>
+      </c>
       <c r="N138" s="1"/>
-      <c r="O138" s="1"/>
-      <c r="P138" s="1"/>
+      <c r="O138" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="P138" s="4">
+        <v>1.0</v>
+      </c>
       <c r="Q138" s="1"/>
       <c r="R138" s="1"/>
       <c r="S138" s="1"/>
@@ -6353,22 +7787,40 @@
       <c r="X138" s="1"/>
     </row>
     <row r="139" ht="12.75" customHeight="1">
-      <c r="A139" s="1"/>
+      <c r="A139" s="4" t="s">
+        <v>460</v>
+      </c>
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
-      <c r="D139" s="1"/>
-      <c r="E139" s="1"/>
-      <c r="F139" s="1"/>
+      <c r="D139" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E139" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="F139" s="4" t="s">
+        <v>106</v>
+      </c>
       <c r="G139" s="1"/>
       <c r="H139" s="1"/>
-      <c r="I139" s="1"/>
-      <c r="J139" s="1"/>
+      <c r="I139" s="4" t="s">
+        <v>434</v>
+      </c>
+      <c r="J139" s="4" t="s">
+        <v>437</v>
+      </c>
       <c r="K139" s="1"/>
       <c r="L139" s="1"/>
-      <c r="M139" s="1"/>
+      <c r="M139" s="4" t="s">
+        <v>461</v>
+      </c>
       <c r="N139" s="1"/>
-      <c r="O139" s="1"/>
-      <c r="P139" s="1"/>
+      <c r="O139" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="P139" s="4">
+        <v>1.0</v>
+      </c>
       <c r="Q139" s="1"/>
       <c r="R139" s="1"/>
       <c r="S139" s="1"/>
@@ -6379,22 +7831,36 @@
       <c r="X139" s="1"/>
     </row>
     <row r="140" ht="12.75" customHeight="1">
-      <c r="A140" s="1"/>
+      <c r="A140" s="4" t="s">
+        <v>462</v>
+      </c>
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
-      <c r="D140" s="1"/>
-      <c r="E140" s="1"/>
-      <c r="F140" s="1"/>
+      <c r="D140" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="E140" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="F140" s="4" t="s">
+        <v>38</v>
+      </c>
       <c r="G140" s="1"/>
       <c r="H140" s="1"/>
       <c r="I140" s="1"/>
       <c r="J140" s="1"/>
       <c r="K140" s="1"/>
       <c r="L140" s="1"/>
-      <c r="M140" s="1"/>
+      <c r="M140" s="4" t="s">
+        <v>463</v>
+      </c>
       <c r="N140" s="1"/>
-      <c r="O140" s="1"/>
-      <c r="P140" s="1"/>
+      <c r="O140" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="P140" s="4">
+        <v>1.0</v>
+      </c>
       <c r="Q140" s="1"/>
       <c r="R140" s="1"/>
       <c r="S140" s="1"/>
@@ -6402,25 +7868,45 @@
       <c r="U140" s="1"/>
       <c r="V140" s="1"/>
       <c r="W140" s="1"/>
-      <c r="X140" s="1"/>
+      <c r="X140" s="4" t="s">
+        <v>464</v>
+      </c>
     </row>
     <row r="141" ht="12.75" customHeight="1">
-      <c r="A141" s="1"/>
+      <c r="A141" s="4" t="s">
+        <v>465</v>
+      </c>
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
-      <c r="D141" s="1"/>
-      <c r="E141" s="1"/>
-      <c r="F141" s="1"/>
+      <c r="D141" s="4" t="s">
+        <v>466</v>
+      </c>
+      <c r="E141" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="F141" s="4" t="s">
+        <v>38</v>
+      </c>
       <c r="G141" s="1"/>
       <c r="H141" s="1"/>
-      <c r="I141" s="1"/>
-      <c r="J141" s="1"/>
+      <c r="I141" s="4" t="s">
+        <v>460</v>
+      </c>
+      <c r="J141" s="4" t="s">
+        <v>462</v>
+      </c>
       <c r="K141" s="1"/>
       <c r="L141" s="1"/>
-      <c r="M141" s="1"/>
+      <c r="M141" s="4" t="s">
+        <v>467</v>
+      </c>
       <c r="N141" s="1"/>
-      <c r="O141" s="1"/>
-      <c r="P141" s="1"/>
+      <c r="O141" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="P141" s="4">
+        <v>1.0</v>
+      </c>
       <c r="Q141" s="1"/>
       <c r="R141" s="1"/>
       <c r="S141" s="1"/>
@@ -6431,22 +7917,36 @@
       <c r="X141" s="1"/>
     </row>
     <row r="142" ht="12.75" customHeight="1">
-      <c r="A142" s="1"/>
+      <c r="A142" s="4" t="s">
+        <v>468</v>
+      </c>
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
-      <c r="D142" s="1"/>
-      <c r="E142" s="1"/>
-      <c r="F142" s="1"/>
+      <c r="D142" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="E142" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="F142" s="4" t="s">
+        <v>469</v>
+      </c>
       <c r="G142" s="1"/>
       <c r="H142" s="1"/>
       <c r="I142" s="1"/>
       <c r="J142" s="1"/>
       <c r="K142" s="1"/>
       <c r="L142" s="1"/>
-      <c r="M142" s="1"/>
+      <c r="M142" s="4" t="s">
+        <v>470</v>
+      </c>
       <c r="N142" s="1"/>
-      <c r="O142" s="1"/>
-      <c r="P142" s="1"/>
+      <c r="O142" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="P142" s="4">
+        <v>1.0</v>
+      </c>
       <c r="Q142" s="1"/>
       <c r="R142" s="1"/>
       <c r="S142" s="1"/>
@@ -6457,22 +7957,42 @@
       <c r="X142" s="1"/>
     </row>
     <row r="143" ht="12.75" customHeight="1">
-      <c r="A143" s="1"/>
+      <c r="A143" s="4" t="s">
+        <v>471</v>
+      </c>
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
-      <c r="D143" s="1"/>
-      <c r="E143" s="1"/>
-      <c r="F143" s="1"/>
+      <c r="D143" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="E143" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F143" s="4" t="s">
+        <v>38</v>
+      </c>
       <c r="G143" s="1"/>
       <c r="H143" s="1"/>
-      <c r="I143" s="1"/>
-      <c r="J143" s="1"/>
+      <c r="I143" s="4" t="s">
+        <v>434</v>
+      </c>
+      <c r="J143" s="4" t="s">
+        <v>437</v>
+      </c>
       <c r="K143" s="1"/>
       <c r="L143" s="1"/>
-      <c r="M143" s="1"/>
-      <c r="N143" s="1"/>
-      <c r="O143" s="1"/>
-      <c r="P143" s="1"/>
+      <c r="M143" s="4" t="s">
+        <v>472</v>
+      </c>
+      <c r="N143" s="4" t="s">
+        <v>473</v>
+      </c>
+      <c r="O143" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="P143" s="4">
+        <v>0.0</v>
+      </c>
       <c r="Q143" s="1"/>
       <c r="R143" s="1"/>
       <c r="S143" s="1"/>
@@ -6483,22 +8003,40 @@
       <c r="X143" s="1"/>
     </row>
     <row r="144" ht="12.75" customHeight="1">
-      <c r="A144" s="1"/>
+      <c r="A144" s="4" t="s">
+        <v>474</v>
+      </c>
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
-      <c r="D144" s="1"/>
-      <c r="E144" s="1"/>
-      <c r="F144" s="1"/>
+      <c r="D144" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E144" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F144" s="4" t="s">
+        <v>38</v>
+      </c>
       <c r="G144" s="1"/>
       <c r="H144" s="1"/>
-      <c r="I144" s="1"/>
-      <c r="J144" s="1"/>
+      <c r="I144" s="4" t="s">
+        <v>434</v>
+      </c>
+      <c r="J144" s="4" t="s">
+        <v>437</v>
+      </c>
       <c r="K144" s="1"/>
       <c r="L144" s="1"/>
-      <c r="M144" s="1"/>
+      <c r="M144" s="4" t="s">
+        <v>475</v>
+      </c>
       <c r="N144" s="1"/>
-      <c r="O144" s="1"/>
-      <c r="P144" s="1"/>
+      <c r="O144" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="P144" s="4">
+        <v>1.0</v>
+      </c>
       <c r="Q144" s="1"/>
       <c r="R144" s="1"/>
       <c r="S144" s="1"/>
@@ -6506,25 +8044,41 @@
       <c r="U144" s="1"/>
       <c r="V144" s="1"/>
       <c r="W144" s="1"/>
-      <c r="X144" s="1"/>
+      <c r="X144" s="4" t="s">
+        <v>476</v>
+      </c>
     </row>
     <row r="145" ht="12.75" customHeight="1">
-      <c r="A145" s="1"/>
+      <c r="A145" s="4" t="s">
+        <v>477</v>
+      </c>
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
-      <c r="D145" s="1"/>
-      <c r="E145" s="1"/>
-      <c r="F145" s="1"/>
+      <c r="D145" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="E145" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F145" s="4" t="s">
+        <v>38</v>
+      </c>
       <c r="G145" s="1"/>
       <c r="H145" s="1"/>
       <c r="I145" s="1"/>
       <c r="J145" s="1"/>
       <c r="K145" s="1"/>
       <c r="L145" s="1"/>
-      <c r="M145" s="1"/>
+      <c r="M145" s="4" t="s">
+        <v>478</v>
+      </c>
       <c r="N145" s="1"/>
-      <c r="O145" s="1"/>
-      <c r="P145" s="1"/>
+      <c r="O145" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="P145" s="4">
+        <v>1.0</v>
+      </c>
       <c r="Q145" s="1"/>
       <c r="R145" s="1"/>
       <c r="S145" s="1"/>
@@ -6532,25 +8086,42 @@
       <c r="U145" s="1"/>
       <c r="V145" s="1"/>
       <c r="W145" s="1"/>
-      <c r="X145" s="1"/>
     </row>
     <row r="146" ht="12.75" customHeight="1">
-      <c r="A146" s="1"/>
+      <c r="A146" s="4" t="s">
+        <v>479</v>
+      </c>
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
-      <c r="D146" s="1"/>
-      <c r="E146" s="1"/>
-      <c r="F146" s="1"/>
+      <c r="D146" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="E146" s="4" t="s">
+        <v>480</v>
+      </c>
+      <c r="F146" s="4" t="s">
+        <v>106</v>
+      </c>
       <c r="G146" s="1"/>
       <c r="H146" s="1"/>
-      <c r="I146" s="1"/>
-      <c r="J146" s="1"/>
+      <c r="I146" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="J146" s="4" t="s">
+        <v>477</v>
+      </c>
       <c r="K146" s="1"/>
       <c r="L146" s="1"/>
-      <c r="M146" s="1"/>
+      <c r="M146" s="4" t="s">
+        <v>481</v>
+      </c>
       <c r="N146" s="1"/>
-      <c r="O146" s="1"/>
-      <c r="P146" s="1"/>
+      <c r="O146" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="P146" s="4">
+        <v>1.0</v>
+      </c>
       <c r="Q146" s="1"/>
       <c r="R146" s="1"/>
       <c r="S146" s="1"/>
@@ -6561,22 +8132,36 @@
       <c r="X146" s="1"/>
     </row>
     <row r="147" ht="12.75" customHeight="1">
-      <c r="A147" s="1"/>
+      <c r="A147" s="4" t="s">
+        <v>482</v>
+      </c>
       <c r="B147" s="1"/>
       <c r="C147" s="1"/>
-      <c r="D147" s="1"/>
-      <c r="E147" s="1"/>
-      <c r="F147" s="1"/>
+      <c r="D147" s="4" t="s">
+        <v>483</v>
+      </c>
+      <c r="E147" s="4" t="s">
+        <v>484</v>
+      </c>
+      <c r="F147" s="4" t="s">
+        <v>38</v>
+      </c>
       <c r="G147" s="1"/>
       <c r="H147" s="1"/>
       <c r="I147" s="1"/>
       <c r="J147" s="1"/>
       <c r="K147" s="1"/>
       <c r="L147" s="1"/>
-      <c r="M147" s="1"/>
+      <c r="M147" s="4" t="s">
+        <v>485</v>
+      </c>
       <c r="N147" s="1"/>
-      <c r="O147" s="1"/>
-      <c r="P147" s="1"/>
+      <c r="O147" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="P147" s="4">
+        <v>1.0</v>
+      </c>
       <c r="Q147" s="1"/>
       <c r="R147" s="1"/>
       <c r="S147" s="1"/>
@@ -6584,25 +8169,45 @@
       <c r="U147" s="1"/>
       <c r="V147" s="1"/>
       <c r="W147" s="1"/>
-      <c r="X147" s="1"/>
+      <c r="X147" s="4" t="s">
+        <v>486</v>
+      </c>
     </row>
     <row r="148" ht="12.75" customHeight="1">
-      <c r="A148" s="1"/>
+      <c r="A148" s="4" t="s">
+        <v>487</v>
+      </c>
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
-      <c r="D148" s="1"/>
-      <c r="E148" s="1"/>
-      <c r="F148" s="1"/>
+      <c r="D148" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E148" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="F148" s="4" t="s">
+        <v>38</v>
+      </c>
       <c r="G148" s="1"/>
       <c r="H148" s="1"/>
-      <c r="I148" s="1"/>
-      <c r="J148" s="1"/>
+      <c r="I148" s="4" t="s">
+        <v>479</v>
+      </c>
+      <c r="J148" s="4" t="s">
+        <v>482</v>
+      </c>
       <c r="K148" s="1"/>
       <c r="L148" s="1"/>
-      <c r="M148" s="1"/>
+      <c r="M148" s="4" t="s">
+        <v>488</v>
+      </c>
       <c r="N148" s="1"/>
-      <c r="O148" s="1"/>
-      <c r="P148" s="1"/>
+      <c r="O148" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="P148" s="4">
+        <v>1.0</v>
+      </c>
       <c r="Q148" s="1"/>
       <c r="R148" s="1"/>
       <c r="S148" s="1"/>
@@ -6613,22 +8218,40 @@
       <c r="X148" s="1"/>
     </row>
     <row r="149" ht="12.75" customHeight="1">
-      <c r="A149" s="1"/>
+      <c r="A149" s="4" t="s">
+        <v>489</v>
+      </c>
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
-      <c r="D149" s="1"/>
-      <c r="E149" s="1"/>
-      <c r="F149" s="1"/>
+      <c r="D149" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="E149" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="F149" s="4" t="s">
+        <v>38</v>
+      </c>
       <c r="G149" s="1"/>
       <c r="H149" s="1"/>
-      <c r="I149" s="1"/>
-      <c r="J149" s="1"/>
+      <c r="I149" s="4" t="s">
+        <v>479</v>
+      </c>
+      <c r="J149" s="4" t="s">
+        <v>482</v>
+      </c>
       <c r="K149" s="1"/>
       <c r="L149" s="1"/>
-      <c r="M149" s="1"/>
+      <c r="M149" s="4" t="s">
+        <v>490</v>
+      </c>
       <c r="N149" s="1"/>
-      <c r="O149" s="1"/>
-      <c r="P149" s="1"/>
+      <c r="O149" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="P149" s="4">
+        <v>1.0</v>
+      </c>
       <c r="Q149" s="1"/>
       <c r="R149" s="1"/>
       <c r="S149" s="1"/>
@@ -6639,22 +8262,40 @@
       <c r="X149" s="1"/>
     </row>
     <row r="150" ht="12.75" customHeight="1">
-      <c r="A150" s="1"/>
+      <c r="A150" s="4" t="s">
+        <v>491</v>
+      </c>
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
-      <c r="D150" s="1"/>
-      <c r="E150" s="1"/>
-      <c r="F150" s="1"/>
+      <c r="D150" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E150" s="4" t="s">
+        <v>480</v>
+      </c>
+      <c r="F150" s="4" t="s">
+        <v>106</v>
+      </c>
       <c r="G150" s="1"/>
       <c r="H150" s="1"/>
-      <c r="I150" s="1"/>
-      <c r="J150" s="1"/>
+      <c r="I150" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="J150" s="4" t="s">
+        <v>477</v>
+      </c>
       <c r="K150" s="1"/>
       <c r="L150" s="1"/>
-      <c r="M150" s="1"/>
+      <c r="M150" s="4" t="s">
+        <v>492</v>
+      </c>
       <c r="N150" s="1"/>
-      <c r="O150" s="1"/>
-      <c r="P150" s="1"/>
+      <c r="O150" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="P150" s="4">
+        <v>1.0</v>
+      </c>
       <c r="Q150" s="1"/>
       <c r="R150" s="1"/>
       <c r="S150" s="1"/>
@@ -6665,22 +8306,36 @@
       <c r="X150" s="1"/>
     </row>
     <row r="151" ht="12.75" customHeight="1">
-      <c r="A151" s="1"/>
+      <c r="A151" s="4" t="s">
+        <v>493</v>
+      </c>
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
-      <c r="D151" s="1"/>
-      <c r="E151" s="1"/>
-      <c r="F151" s="1"/>
+      <c r="D151" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E151" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="F151" s="4" t="s">
+        <v>38</v>
+      </c>
       <c r="G151" s="1"/>
       <c r="H151" s="1"/>
       <c r="I151" s="1"/>
       <c r="J151" s="1"/>
       <c r="K151" s="1"/>
       <c r="L151" s="1"/>
-      <c r="M151" s="1"/>
+      <c r="M151" s="4" t="s">
+        <v>494</v>
+      </c>
       <c r="N151" s="1"/>
-      <c r="O151" s="1"/>
-      <c r="P151" s="1"/>
+      <c r="O151" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="P151" s="4">
+        <v>1.0</v>
+      </c>
       <c r="Q151" s="1"/>
       <c r="R151" s="1"/>
       <c r="S151" s="1"/>
@@ -6688,25 +8343,45 @@
       <c r="U151" s="1"/>
       <c r="V151" s="1"/>
       <c r="W151" s="1"/>
-      <c r="X151" s="1"/>
+      <c r="X151" s="4" t="s">
+        <v>495</v>
+      </c>
     </row>
     <row r="152" ht="12.75" customHeight="1">
-      <c r="A152" s="1"/>
+      <c r="A152" s="4" t="s">
+        <v>496</v>
+      </c>
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
-      <c r="D152" s="1"/>
-      <c r="E152" s="1"/>
-      <c r="F152" s="1"/>
+      <c r="D152" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="E152" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F152" s="4" t="s">
+        <v>38</v>
+      </c>
       <c r="G152" s="1"/>
       <c r="H152" s="1"/>
-      <c r="I152" s="1"/>
-      <c r="J152" s="1"/>
+      <c r="I152" s="4" t="s">
+        <v>491</v>
+      </c>
+      <c r="J152" s="4" t="s">
+        <v>493</v>
+      </c>
       <c r="K152" s="1"/>
       <c r="L152" s="1"/>
-      <c r="M152" s="1"/>
+      <c r="M152" s="4" t="s">
+        <v>497</v>
+      </c>
       <c r="N152" s="1"/>
-      <c r="O152" s="1"/>
-      <c r="P152" s="1"/>
+      <c r="O152" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="P152" s="4">
+        <v>1.0</v>
+      </c>
       <c r="Q152" s="1"/>
       <c r="R152" s="1"/>
       <c r="S152" s="1"/>
@@ -6717,22 +8392,40 @@
       <c r="X152" s="1"/>
     </row>
     <row r="153" ht="12.75" customHeight="1">
-      <c r="A153" s="1"/>
+      <c r="A153" s="4" t="s">
+        <v>498</v>
+      </c>
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
-      <c r="D153" s="1"/>
-      <c r="E153" s="1"/>
-      <c r="F153" s="1"/>
+      <c r="D153" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E153" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F153" s="4" t="s">
+        <v>38</v>
+      </c>
       <c r="G153" s="1"/>
       <c r="H153" s="1"/>
-      <c r="I153" s="1"/>
-      <c r="J153" s="1"/>
+      <c r="I153" s="4" t="s">
+        <v>491</v>
+      </c>
+      <c r="J153" s="4" t="s">
+        <v>493</v>
+      </c>
       <c r="K153" s="1"/>
       <c r="L153" s="1"/>
-      <c r="M153" s="1"/>
+      <c r="M153" s="4" t="s">
+        <v>499</v>
+      </c>
       <c r="N153" s="1"/>
-      <c r="O153" s="1"/>
-      <c r="P153" s="1"/>
+      <c r="O153" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="P153" s="4">
+        <v>1.0</v>
+      </c>
       <c r="Q153" s="1"/>
       <c r="R153" s="1"/>
       <c r="S153" s="1"/>
@@ -6743,22 +8436,36 @@
       <c r="X153" s="1"/>
     </row>
     <row r="154" ht="12.75" customHeight="1">
-      <c r="A154" s="1"/>
+      <c r="A154" s="4" t="s">
+        <v>500</v>
+      </c>
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
-      <c r="D154" s="1"/>
-      <c r="E154" s="1"/>
-      <c r="F154" s="1"/>
+      <c r="D154" s="4" t="s">
+        <v>501</v>
+      </c>
+      <c r="E154" s="4" t="s">
+        <v>502</v>
+      </c>
+      <c r="F154" s="4" t="s">
+        <v>38</v>
+      </c>
       <c r="G154" s="1"/>
       <c r="H154" s="1"/>
       <c r="I154" s="1"/>
       <c r="J154" s="1"/>
       <c r="K154" s="1"/>
       <c r="L154" s="1"/>
-      <c r="M154" s="1"/>
+      <c r="M154" s="4" t="s">
+        <v>503</v>
+      </c>
       <c r="N154" s="1"/>
-      <c r="O154" s="1"/>
-      <c r="P154" s="1"/>
+      <c r="O154" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="P154" s="4">
+        <v>1.0</v>
+      </c>
       <c r="Q154" s="1"/>
       <c r="R154" s="1"/>
       <c r="S154" s="1"/>
@@ -6766,25 +8473,45 @@
       <c r="U154" s="1"/>
       <c r="V154" s="1"/>
       <c r="W154" s="1"/>
-      <c r="X154" s="1"/>
+      <c r="X154" s="4" t="s">
+        <v>504</v>
+      </c>
     </row>
     <row r="155" ht="12.75" customHeight="1">
-      <c r="A155" s="1"/>
+      <c r="A155" s="4" t="s">
+        <v>505</v>
+      </c>
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
-      <c r="D155" s="1"/>
-      <c r="E155" s="1"/>
-      <c r="F155" s="1"/>
+      <c r="D155" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="E155" s="4" t="s">
+        <v>480</v>
+      </c>
+      <c r="F155" s="4" t="s">
+        <v>106</v>
+      </c>
       <c r="G155" s="1"/>
       <c r="H155" s="1"/>
-      <c r="I155" s="1"/>
-      <c r="J155" s="1"/>
+      <c r="I155" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="J155" s="4" t="s">
+        <v>500</v>
+      </c>
       <c r="K155" s="1"/>
       <c r="L155" s="1"/>
-      <c r="M155" s="1"/>
+      <c r="M155" s="4" t="s">
+        <v>506</v>
+      </c>
       <c r="N155" s="1"/>
-      <c r="O155" s="1"/>
-      <c r="P155" s="1"/>
+      <c r="O155" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="P155" s="4">
+        <v>1.0</v>
+      </c>
       <c r="Q155" s="1"/>
       <c r="R155" s="1"/>
       <c r="S155" s="1"/>
@@ -6795,22 +8522,36 @@
       <c r="X155" s="1"/>
     </row>
     <row r="156" ht="12.75" customHeight="1">
-      <c r="A156" s="1"/>
+      <c r="A156" s="4" t="s">
+        <v>507</v>
+      </c>
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
-      <c r="D156" s="1"/>
-      <c r="E156" s="1"/>
-      <c r="F156" s="1"/>
+      <c r="D156" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="E156" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="F156" s="4" t="s">
+        <v>38</v>
+      </c>
       <c r="G156" s="1"/>
       <c r="H156" s="1"/>
       <c r="I156" s="1"/>
       <c r="J156" s="1"/>
       <c r="K156" s="1"/>
       <c r="L156" s="1"/>
-      <c r="M156" s="1"/>
+      <c r="M156" s="4" t="s">
+        <v>508</v>
+      </c>
       <c r="N156" s="1"/>
-      <c r="O156" s="1"/>
-      <c r="P156" s="1"/>
+      <c r="O156" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="P156" s="4">
+        <v>1.0</v>
+      </c>
       <c r="Q156" s="1"/>
       <c r="R156" s="1"/>
       <c r="S156" s="1"/>
@@ -6818,25 +8559,45 @@
       <c r="U156" s="1"/>
       <c r="V156" s="1"/>
       <c r="W156" s="1"/>
-      <c r="X156" s="1"/>
+      <c r="X156" s="4" t="s">
+        <v>509</v>
+      </c>
     </row>
     <row r="157" ht="12.75" customHeight="1">
-      <c r="A157" s="1"/>
+      <c r="A157" s="4" t="s">
+        <v>510</v>
+      </c>
       <c r="B157" s="1"/>
       <c r="C157" s="1"/>
-      <c r="D157" s="1"/>
-      <c r="E157" s="1"/>
-      <c r="F157" s="1"/>
+      <c r="D157" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="E157" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="F157" s="4" t="s">
+        <v>38</v>
+      </c>
       <c r="G157" s="1"/>
       <c r="H157" s="1"/>
-      <c r="I157" s="1"/>
-      <c r="J157" s="1"/>
+      <c r="I157" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="J157" s="4" t="s">
+        <v>507</v>
+      </c>
       <c r="K157" s="1"/>
       <c r="L157" s="1"/>
-      <c r="M157" s="1"/>
+      <c r="M157" s="4" t="s">
+        <v>511</v>
+      </c>
       <c r="N157" s="1"/>
-      <c r="O157" s="1"/>
-      <c r="P157" s="1"/>
+      <c r="O157" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="P157" s="4">
+        <v>1.0</v>
+      </c>
       <c r="Q157" s="1"/>
       <c r="R157" s="1"/>
       <c r="S157" s="1"/>
@@ -6847,22 +8608,40 @@
       <c r="X157" s="1"/>
     </row>
     <row r="158" ht="12.75" customHeight="1">
-      <c r="A158" s="1"/>
+      <c r="A158" s="4" t="s">
+        <v>512</v>
+      </c>
       <c r="B158" s="1"/>
       <c r="C158" s="1"/>
-      <c r="D158" s="1"/>
-      <c r="E158" s="1"/>
-      <c r="F158" s="1"/>
+      <c r="D158" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="E158" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="F158" s="4" t="s">
+        <v>38</v>
+      </c>
       <c r="G158" s="1"/>
       <c r="H158" s="1"/>
-      <c r="I158" s="1"/>
-      <c r="J158" s="1"/>
+      <c r="I158" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="J158" s="4" t="s">
+        <v>507</v>
+      </c>
       <c r="K158" s="1"/>
       <c r="L158" s="1"/>
-      <c r="M158" s="1"/>
+      <c r="M158" s="4" t="s">
+        <v>513</v>
+      </c>
       <c r="N158" s="1"/>
-      <c r="O158" s="1"/>
-      <c r="P158" s="1"/>
+      <c r="O158" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="P158" s="4">
+        <v>1.0</v>
+      </c>
       <c r="Q158" s="1"/>
       <c r="R158" s="1"/>
       <c r="S158" s="1"/>
@@ -6873,22 +8652,42 @@
       <c r="X158" s="1"/>
     </row>
     <row r="159" ht="12.75" customHeight="1">
-      <c r="A159" s="1"/>
+      <c r="A159" s="4" t="s">
+        <v>514</v>
+      </c>
       <c r="B159" s="1"/>
       <c r="C159" s="1"/>
-      <c r="D159" s="1"/>
-      <c r="E159" s="1"/>
-      <c r="F159" s="1"/>
+      <c r="D159" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E159" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="F159" s="4" t="s">
+        <v>106</v>
+      </c>
       <c r="G159" s="1"/>
       <c r="H159" s="1"/>
-      <c r="I159" s="1"/>
-      <c r="J159" s="1"/>
+      <c r="I159" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="J159" s="4" t="s">
+        <v>135</v>
+      </c>
       <c r="K159" s="1"/>
       <c r="L159" s="1"/>
-      <c r="M159" s="1"/>
-      <c r="N159" s="1"/>
-      <c r="O159" s="1"/>
-      <c r="P159" s="1"/>
+      <c r="M159" s="4" t="s">
+        <v>515</v>
+      </c>
+      <c r="N159" s="4" t="s">
+        <v>416</v>
+      </c>
+      <c r="O159" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="P159" s="4">
+        <v>0.0</v>
+      </c>
       <c r="Q159" s="1"/>
       <c r="R159" s="1"/>
       <c r="S159" s="1"/>
@@ -6899,22 +8698,38 @@
       <c r="X159" s="1"/>
     </row>
     <row r="160" ht="12.75" customHeight="1">
-      <c r="A160" s="1"/>
+      <c r="A160" s="4" t="s">
+        <v>516</v>
+      </c>
       <c r="B160" s="1"/>
       <c r="C160" s="1"/>
-      <c r="D160" s="1"/>
-      <c r="E160" s="1"/>
-      <c r="F160" s="1"/>
+      <c r="D160" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="E160" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F160" s="4" t="s">
+        <v>38</v>
+      </c>
       <c r="G160" s="1"/>
       <c r="H160" s="1"/>
-      <c r="I160" s="1"/>
+      <c r="I160" s="4" t="s">
+        <v>514</v>
+      </c>
       <c r="J160" s="1"/>
       <c r="K160" s="1"/>
       <c r="L160" s="1"/>
-      <c r="M160" s="1"/>
+      <c r="M160" s="4" t="s">
+        <v>517</v>
+      </c>
       <c r="N160" s="1"/>
-      <c r="O160" s="1"/>
-      <c r="P160" s="1"/>
+      <c r="O160" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="P160" s="4">
+        <v>1.0</v>
+      </c>
       <c r="Q160" s="1"/>
       <c r="R160" s="1"/>
       <c r="S160" s="1"/>
@@ -6925,22 +8740,38 @@
       <c r="X160" s="1"/>
     </row>
     <row r="161" ht="12.75" customHeight="1">
-      <c r="A161" s="1"/>
+      <c r="A161" s="4" t="s">
+        <v>518</v>
+      </c>
       <c r="B161" s="1"/>
       <c r="C161" s="1"/>
-      <c r="D161" s="1"/>
-      <c r="E161" s="1"/>
-      <c r="F161" s="1"/>
+      <c r="D161" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E161" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F161" s="4" t="s">
+        <v>38</v>
+      </c>
       <c r="G161" s="1"/>
       <c r="H161" s="1"/>
-      <c r="I161" s="1"/>
+      <c r="I161" s="4" t="s">
+        <v>514</v>
+      </c>
       <c r="J161" s="1"/>
       <c r="K161" s="1"/>
       <c r="L161" s="1"/>
-      <c r="M161" s="1"/>
+      <c r="M161" s="4" t="s">
+        <v>519</v>
+      </c>
       <c r="N161" s="1"/>
-      <c r="O161" s="1"/>
-      <c r="P161" s="1"/>
+      <c r="O161" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="P161" s="4">
+        <v>1.0</v>
+      </c>
       <c r="Q161" s="1"/>
       <c r="R161" s="1"/>
       <c r="S161" s="1"/>
@@ -6951,22 +8782,42 @@
       <c r="X161" s="1"/>
     </row>
     <row r="162" ht="12.75" customHeight="1">
-      <c r="A162" s="1"/>
+      <c r="A162" s="4" t="s">
+        <v>520</v>
+      </c>
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
-      <c r="D162" s="1"/>
-      <c r="E162" s="1"/>
-      <c r="F162" s="1"/>
+      <c r="D162" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E162" s="4" t="s">
+        <v>458</v>
+      </c>
+      <c r="F162" s="4" t="s">
+        <v>38</v>
+      </c>
       <c r="G162" s="1"/>
       <c r="H162" s="1"/>
-      <c r="I162" s="1"/>
-      <c r="J162" s="1"/>
+      <c r="I162" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="J162" s="4" t="s">
+        <v>135</v>
+      </c>
       <c r="K162" s="1"/>
       <c r="L162" s="1"/>
-      <c r="M162" s="1"/>
-      <c r="N162" s="1"/>
-      <c r="O162" s="1"/>
-      <c r="P162" s="1"/>
+      <c r="M162" s="4" t="s">
+        <v>521</v>
+      </c>
+      <c r="N162" s="4" t="s">
+        <v>522</v>
+      </c>
+      <c r="O162" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="P162" s="4">
+        <v>0.0</v>
+      </c>
       <c r="Q162" s="1"/>
       <c r="R162" s="1"/>
       <c r="S162" s="1"/>
@@ -6977,22 +8828,40 @@
       <c r="X162" s="1"/>
     </row>
     <row r="163" ht="12.75" customHeight="1">
-      <c r="A163" s="1"/>
+      <c r="A163" s="4" t="s">
+        <v>523</v>
+      </c>
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
-      <c r="D163" s="1"/>
-      <c r="E163" s="1"/>
-      <c r="F163" s="1"/>
+      <c r="D163" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="E163" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="F163" s="4" t="s">
+        <v>106</v>
+      </c>
       <c r="G163" s="1"/>
       <c r="H163" s="1"/>
-      <c r="I163" s="1"/>
-      <c r="J163" s="1"/>
+      <c r="I163" s="4" t="s">
+        <v>414</v>
+      </c>
+      <c r="J163" s="4" t="s">
+        <v>524</v>
+      </c>
       <c r="K163" s="1"/>
       <c r="L163" s="1"/>
-      <c r="M163" s="1"/>
+      <c r="M163" s="4" t="s">
+        <v>525</v>
+      </c>
       <c r="N163" s="1"/>
-      <c r="O163" s="1"/>
-      <c r="P163" s="1"/>
+      <c r="O163" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="P163" s="4">
+        <v>1.0</v>
+      </c>
       <c r="Q163" s="1"/>
       <c r="R163" s="1"/>
       <c r="S163" s="1"/>
@@ -7003,22 +8872,38 @@
       <c r="X163" s="1"/>
     </row>
     <row r="164" ht="12.75" customHeight="1">
-      <c r="A164" s="1"/>
+      <c r="A164" s="4" t="s">
+        <v>526</v>
+      </c>
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
-      <c r="D164" s="1"/>
-      <c r="E164" s="1"/>
-      <c r="F164" s="1"/>
+      <c r="D164" s="4" t="s">
+        <v>527</v>
+      </c>
+      <c r="E164" s="4" t="s">
+        <v>528</v>
+      </c>
+      <c r="F164" s="4" t="s">
+        <v>529</v>
+      </c>
       <c r="G164" s="1"/>
       <c r="H164" s="1"/>
       <c r="I164" s="1"/>
       <c r="J164" s="1"/>
       <c r="K164" s="1"/>
       <c r="L164" s="1"/>
-      <c r="M164" s="1"/>
-      <c r="N164" s="1"/>
-      <c r="O164" s="1"/>
-      <c r="P164" s="1"/>
+      <c r="M164" s="4" t="s">
+        <v>530</v>
+      </c>
+      <c r="N164" s="4" t="s">
+        <v>531</v>
+      </c>
+      <c r="O164" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="P164" s="4">
+        <v>0.0</v>
+      </c>
       <c r="Q164" s="1"/>
       <c r="R164" s="1"/>
       <c r="S164" s="1"/>
@@ -7029,22 +8914,40 @@
       <c r="X164" s="1"/>
     </row>
     <row r="165" ht="12.75" customHeight="1">
-      <c r="A165" s="1"/>
+      <c r="A165" s="4" t="s">
+        <v>532</v>
+      </c>
       <c r="B165" s="1"/>
       <c r="C165" s="1"/>
-      <c r="D165" s="1"/>
-      <c r="E165" s="1"/>
-      <c r="F165" s="1"/>
+      <c r="D165" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E165" s="4" t="s">
+        <v>533</v>
+      </c>
+      <c r="F165" s="4" t="s">
+        <v>534</v>
+      </c>
       <c r="G165" s="1"/>
       <c r="H165" s="1"/>
-      <c r="I165" s="1"/>
-      <c r="J165" s="1"/>
+      <c r="I165" s="4" t="s">
+        <v>523</v>
+      </c>
+      <c r="J165" s="4" t="s">
+        <v>526</v>
+      </c>
       <c r="K165" s="1"/>
       <c r="L165" s="1"/>
-      <c r="M165" s="1"/>
+      <c r="M165" s="4" t="s">
+        <v>535</v>
+      </c>
       <c r="N165" s="1"/>
-      <c r="O165" s="1"/>
-      <c r="P165" s="1"/>
+      <c r="O165" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="P165" s="4">
+        <v>1.0</v>
+      </c>
       <c r="Q165" s="1"/>
       <c r="R165" s="1"/>
       <c r="S165" s="1"/>
@@ -7052,25 +8955,45 @@
       <c r="U165" s="1"/>
       <c r="V165" s="1"/>
       <c r="W165" s="1"/>
-      <c r="X165" s="1"/>
+      <c r="X165" s="4" t="s">
+        <v>536</v>
+      </c>
     </row>
     <row r="166" ht="12.75" customHeight="1">
-      <c r="A166" s="1"/>
+      <c r="A166" s="4" t="s">
+        <v>537</v>
+      </c>
       <c r="B166" s="1"/>
       <c r="C166" s="1"/>
-      <c r="D166" s="1"/>
-      <c r="E166" s="1"/>
-      <c r="F166" s="1"/>
+      <c r="D166" s="4" t="s">
+        <v>466</v>
+      </c>
+      <c r="E166" s="4" t="s">
+        <v>538</v>
+      </c>
+      <c r="F166" s="4" t="s">
+        <v>38</v>
+      </c>
       <c r="G166" s="1"/>
       <c r="H166" s="1"/>
-      <c r="I166" s="1"/>
-      <c r="J166" s="1"/>
+      <c r="I166" s="4" t="s">
+        <v>414</v>
+      </c>
+      <c r="J166" s="4" t="s">
+        <v>524</v>
+      </c>
       <c r="K166" s="1"/>
       <c r="L166" s="1"/>
-      <c r="M166" s="1"/>
+      <c r="M166" s="4" t="s">
+        <v>539</v>
+      </c>
       <c r="N166" s="1"/>
-      <c r="O166" s="1"/>
-      <c r="P166" s="1"/>
+      <c r="O166" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="P166" s="4">
+        <v>1.0</v>
+      </c>
       <c r="Q166" s="1"/>
       <c r="R166" s="1"/>
       <c r="S166" s="1"/>
@@ -7081,22 +9004,36 @@
       <c r="X166" s="1"/>
     </row>
     <row r="167" ht="12.75" customHeight="1">
-      <c r="A167" s="1"/>
+      <c r="A167" s="4" t="s">
+        <v>540</v>
+      </c>
       <c r="B167" s="1"/>
       <c r="C167" s="1"/>
-      <c r="D167" s="1"/>
+      <c r="D167" s="4" t="s">
+        <v>67</v>
+      </c>
       <c r="E167" s="1"/>
-      <c r="F167" s="1"/>
+      <c r="F167" s="4" t="s">
+        <v>541</v>
+      </c>
       <c r="G167" s="1"/>
       <c r="H167" s="1"/>
       <c r="I167" s="1"/>
-      <c r="J167" s="1"/>
+      <c r="J167" s="4" t="s">
+        <v>532</v>
+      </c>
       <c r="K167" s="1"/>
       <c r="L167" s="1"/>
-      <c r="M167" s="1"/>
+      <c r="M167" s="4" t="s">
+        <v>542</v>
+      </c>
       <c r="N167" s="1"/>
-      <c r="O167" s="1"/>
-      <c r="P167" s="1"/>
+      <c r="O167" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="P167" s="4">
+        <v>1.0</v>
+      </c>
       <c r="Q167" s="1"/>
       <c r="R167" s="1"/>
       <c r="S167" s="1"/>
@@ -7107,22 +9044,42 @@
       <c r="X167" s="1"/>
     </row>
     <row r="168" ht="12.75" customHeight="1">
-      <c r="A168" s="1"/>
+      <c r="A168" s="4" t="s">
+        <v>543</v>
+      </c>
       <c r="B168" s="1"/>
       <c r="C168" s="1"/>
-      <c r="D168" s="1"/>
-      <c r="E168" s="1"/>
-      <c r="F168" s="1"/>
+      <c r="D168" s="8" t="s">
+        <v>544</v>
+      </c>
+      <c r="E168" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="F168" s="13" t="s">
+        <v>106</v>
+      </c>
       <c r="G168" s="1"/>
       <c r="H168" s="1"/>
-      <c r="I168" s="1"/>
-      <c r="J168" s="1"/>
+      <c r="I168" s="4" t="s">
+        <v>414</v>
+      </c>
+      <c r="J168" s="4" t="s">
+        <v>524</v>
+      </c>
       <c r="K168" s="1"/>
       <c r="L168" s="1"/>
-      <c r="M168" s="1"/>
-      <c r="N168" s="1"/>
-      <c r="O168" s="1"/>
-      <c r="P168" s="1"/>
+      <c r="M168" s="13" t="s">
+        <v>545</v>
+      </c>
+      <c r="N168" s="13" t="s">
+        <v>546</v>
+      </c>
+      <c r="O168" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="P168" s="4">
+        <v>0.0</v>
+      </c>
       <c r="Q168" s="1"/>
       <c r="R168" s="1"/>
       <c r="S168" s="1"/>
@@ -7133,22 +9090,42 @@
       <c r="X168" s="1"/>
     </row>
     <row r="169" ht="12.75" customHeight="1">
-      <c r="A169" s="1"/>
+      <c r="A169" s="4" t="s">
+        <v>524</v>
+      </c>
       <c r="B169" s="1"/>
       <c r="C169" s="1"/>
-      <c r="D169" s="1"/>
-      <c r="E169" s="1"/>
-      <c r="F169" s="1"/>
+      <c r="D169" s="8" t="s">
+        <v>547</v>
+      </c>
+      <c r="E169" s="13" t="s">
+        <v>419</v>
+      </c>
+      <c r="F169" s="13" t="s">
+        <v>38</v>
+      </c>
       <c r="G169" s="1"/>
       <c r="H169" s="1"/>
-      <c r="I169" s="1"/>
-      <c r="J169" s="1"/>
+      <c r="I169" s="4" t="s">
+        <v>548</v>
+      </c>
+      <c r="J169" s="4" t="s">
+        <v>549</v>
+      </c>
       <c r="K169" s="1"/>
       <c r="L169" s="1"/>
-      <c r="M169" s="1"/>
-      <c r="N169" s="1"/>
-      <c r="O169" s="1"/>
-      <c r="P169" s="1"/>
+      <c r="M169" s="4" t="s">
+        <v>550</v>
+      </c>
+      <c r="N169" s="4" t="s">
+        <v>551</v>
+      </c>
+      <c r="O169" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="P169" s="4">
+        <v>0.0</v>
+      </c>
       <c r="Q169" s="1"/>
       <c r="R169" s="1"/>
       <c r="S169" s="1"/>
@@ -7156,15 +9133,25 @@
       <c r="U169" s="1"/>
       <c r="V169" s="1"/>
       <c r="W169" s="1"/>
-      <c r="X169" s="1"/>
+      <c r="X169" s="4" t="s">
+        <v>552</v>
+      </c>
     </row>
     <row r="170" ht="12.75" customHeight="1">
-      <c r="A170" s="1"/>
+      <c r="A170" s="4" t="s">
+        <v>548</v>
+      </c>
       <c r="B170" s="1"/>
       <c r="C170" s="1"/>
-      <c r="D170" s="1"/>
-      <c r="E170" s="1"/>
-      <c r="F170" s="1"/>
+      <c r="D170" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="E170" s="13" t="s">
+        <v>553</v>
+      </c>
+      <c r="F170" s="13" t="s">
+        <v>554</v>
+      </c>
       <c r="G170" s="1"/>
       <c r="H170" s="1"/>
       <c r="I170" s="1"/>
@@ -7173,8 +9160,12 @@
       <c r="L170" s="1"/>
       <c r="M170" s="1"/>
       <c r="N170" s="1"/>
-      <c r="O170" s="1"/>
-      <c r="P170" s="1"/>
+      <c r="O170" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="P170" s="4">
+        <v>0.0</v>
+      </c>
       <c r="Q170" s="1"/>
       <c r="R170" s="1"/>
       <c r="S170" s="1"/>
@@ -7185,12 +9176,20 @@
       <c r="X170" s="1"/>
     </row>
     <row r="171" ht="12.75" customHeight="1">
-      <c r="A171" s="1"/>
+      <c r="A171" s="4" t="s">
+        <v>549</v>
+      </c>
       <c r="B171" s="1"/>
       <c r="C171" s="1"/>
-      <c r="D171" s="1"/>
-      <c r="E171" s="1"/>
-      <c r="F171" s="1"/>
+      <c r="D171" s="8" t="s">
+        <v>555</v>
+      </c>
+      <c r="E171" s="13" t="s">
+        <v>245</v>
+      </c>
+      <c r="F171" s="13" t="s">
+        <v>556</v>
+      </c>
       <c r="G171" s="1"/>
       <c r="H171" s="1"/>
       <c r="I171" s="1"/>
@@ -7198,9 +9197,15 @@
       <c r="K171" s="1"/>
       <c r="L171" s="1"/>
       <c r="M171" s="1"/>
-      <c r="N171" s="1"/>
-      <c r="O171" s="1"/>
-      <c r="P171" s="1"/>
+      <c r="N171" s="4" t="s">
+        <v>557</v>
+      </c>
+      <c r="O171" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="P171" s="4">
+        <v>0.0</v>
+      </c>
       <c r="Q171" s="1"/>
       <c r="R171" s="1"/>
       <c r="S171" s="1"/>
@@ -7211,22 +9216,40 @@
       <c r="X171" s="1"/>
     </row>
     <row r="172" ht="12.75" customHeight="1">
-      <c r="A172" s="1"/>
+      <c r="A172" s="4" t="s">
+        <v>558</v>
+      </c>
       <c r="B172" s="1"/>
       <c r="C172" s="1"/>
-      <c r="D172" s="1"/>
-      <c r="E172" s="1"/>
-      <c r="F172" s="1"/>
+      <c r="D172" s="4" t="s">
+        <v>395</v>
+      </c>
+      <c r="E172" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="F172" s="4" t="s">
+        <v>397</v>
+      </c>
       <c r="G172" s="1"/>
       <c r="H172" s="1"/>
-      <c r="I172" s="1"/>
-      <c r="J172" s="1"/>
+      <c r="I172" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="J172" s="1" t="s">
+        <v>110</v>
+      </c>
       <c r="K172" s="1"/>
       <c r="L172" s="1"/>
-      <c r="M172" s="1"/>
+      <c r="M172" s="4" t="s">
+        <v>398</v>
+      </c>
       <c r="N172" s="1"/>
-      <c r="O172" s="1"/>
-      <c r="P172" s="1"/>
+      <c r="O172" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="P172" s="4">
+        <v>1.0</v>
+      </c>
       <c r="Q172" s="1"/>
       <c r="R172" s="1"/>
       <c r="S172" s="1"/>
@@ -7237,22 +9260,40 @@
       <c r="X172" s="1"/>
     </row>
     <row r="173" ht="12.75" customHeight="1">
-      <c r="A173" s="1"/>
+      <c r="A173" s="4" t="s">
+        <v>559</v>
+      </c>
       <c r="B173" s="1"/>
       <c r="C173" s="1"/>
-      <c r="D173" s="1"/>
-      <c r="E173" s="1"/>
-      <c r="F173" s="1"/>
+      <c r="D173" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="E173" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F173" s="4" t="s">
+        <v>45</v>
+      </c>
       <c r="G173" s="1"/>
       <c r="H173" s="1"/>
-      <c r="I173" s="1"/>
-      <c r="J173" s="1"/>
+      <c r="I173" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="J173" s="4" t="s">
+        <v>560</v>
+      </c>
       <c r="K173" s="1"/>
       <c r="L173" s="1"/>
-      <c r="M173" s="1"/>
+      <c r="M173" s="4" t="s">
+        <v>561</v>
+      </c>
       <c r="N173" s="1"/>
-      <c r="O173" s="1"/>
-      <c r="P173" s="1"/>
+      <c r="O173" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="P173" s="4">
+        <v>1.0</v>
+      </c>
       <c r="Q173" s="1"/>
       <c r="R173" s="1"/>
       <c r="S173" s="1"/>
@@ -7263,22 +9304,34 @@
       <c r="X173" s="1"/>
     </row>
     <row r="174" ht="12.75" customHeight="1">
-      <c r="A174" s="1"/>
+      <c r="A174" s="4" t="s">
+        <v>560</v>
+      </c>
       <c r="B174" s="1"/>
       <c r="C174" s="1"/>
-      <c r="D174" s="1"/>
+      <c r="D174" s="4" t="s">
+        <v>562</v>
+      </c>
       <c r="E174" s="1"/>
-      <c r="F174" s="1"/>
+      <c r="F174" s="4" t="s">
+        <v>45</v>
+      </c>
       <c r="G174" s="1"/>
       <c r="H174" s="1"/>
       <c r="I174" s="1"/>
       <c r="J174" s="1"/>
       <c r="K174" s="1"/>
       <c r="L174" s="1"/>
-      <c r="M174" s="1"/>
+      <c r="M174" s="4" t="s">
+        <v>563</v>
+      </c>
       <c r="N174" s="1"/>
-      <c r="O174" s="1"/>
-      <c r="P174" s="1"/>
+      <c r="O174" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="P174" s="4">
+        <v>1.0</v>
+      </c>
       <c r="Q174" s="1"/>
       <c r="R174" s="1"/>
       <c r="S174" s="1"/>
@@ -7289,22 +9342,40 @@
       <c r="X174" s="1"/>
     </row>
     <row r="175" ht="12.75" customHeight="1">
-      <c r="A175" s="1"/>
+      <c r="A175" s="4" t="s">
+        <v>564</v>
+      </c>
       <c r="B175" s="1"/>
       <c r="C175" s="1"/>
-      <c r="D175" s="1"/>
-      <c r="E175" s="1"/>
-      <c r="F175" s="1"/>
+      <c r="D175" s="4" t="s">
+        <v>565</v>
+      </c>
+      <c r="E175" s="4" t="s">
+        <v>566</v>
+      </c>
+      <c r="F175" s="4" t="s">
+        <v>45</v>
+      </c>
       <c r="G175" s="1"/>
       <c r="H175" s="1"/>
-      <c r="I175" s="1"/>
-      <c r="J175" s="1"/>
+      <c r="I175" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="J175" s="4" t="s">
+        <v>567</v>
+      </c>
       <c r="K175" s="1"/>
       <c r="L175" s="1"/>
-      <c r="M175" s="1"/>
+      <c r="M175" s="4" t="s">
+        <v>568</v>
+      </c>
       <c r="N175" s="1"/>
-      <c r="O175" s="1"/>
-      <c r="P175" s="1"/>
+      <c r="O175" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="P175" s="4">
+        <v>1.0</v>
+      </c>
       <c r="Q175" s="1"/>
       <c r="R175" s="1"/>
       <c r="S175" s="1"/>
@@ -7315,22 +9386,34 @@
       <c r="X175" s="1"/>
     </row>
     <row r="176" ht="12.75" customHeight="1">
-      <c r="A176" s="1"/>
+      <c r="A176" s="4" t="s">
+        <v>567</v>
+      </c>
       <c r="B176" s="1"/>
       <c r="C176" s="1"/>
-      <c r="D176" s="1"/>
+      <c r="D176" s="4" t="s">
+        <v>272</v>
+      </c>
       <c r="E176" s="1"/>
-      <c r="F176" s="1"/>
+      <c r="F176" s="4" t="s">
+        <v>569</v>
+      </c>
       <c r="G176" s="1"/>
       <c r="H176" s="1"/>
       <c r="I176" s="1"/>
       <c r="J176" s="1"/>
       <c r="K176" s="1"/>
       <c r="L176" s="1"/>
-      <c r="M176" s="1"/>
+      <c r="M176" s="4" t="s">
+        <v>570</v>
+      </c>
       <c r="N176" s="1"/>
-      <c r="O176" s="1"/>
-      <c r="P176" s="1"/>
+      <c r="O176" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="P176" s="4">
+        <v>1.0</v>
+      </c>
       <c r="Q176" s="1"/>
       <c r="R176" s="1"/>
       <c r="S176" s="1"/>
@@ -7341,22 +9424,40 @@
       <c r="X176" s="1"/>
     </row>
     <row r="177" ht="12.75" customHeight="1">
-      <c r="A177" s="1"/>
+      <c r="A177" s="4" t="s">
+        <v>571</v>
+      </c>
       <c r="B177" s="1"/>
       <c r="C177" s="1"/>
-      <c r="D177" s="1"/>
-      <c r="E177" s="1"/>
-      <c r="F177" s="1"/>
+      <c r="D177" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="E177" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="F177" s="4" t="s">
+        <v>74</v>
+      </c>
       <c r="G177" s="1"/>
       <c r="H177" s="1"/>
-      <c r="I177" s="1"/>
-      <c r="J177" s="1"/>
+      <c r="I177" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="J177" s="4" t="s">
+        <v>572</v>
+      </c>
       <c r="K177" s="1"/>
       <c r="L177" s="1"/>
-      <c r="M177" s="1"/>
+      <c r="M177" s="4" t="s">
+        <v>573</v>
+      </c>
       <c r="N177" s="1"/>
-      <c r="O177" s="1"/>
-      <c r="P177" s="1"/>
+      <c r="O177" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="P177" s="4">
+        <v>1.0</v>
+      </c>
       <c r="Q177" s="1"/>
       <c r="R177" s="1"/>
       <c r="S177" s="1"/>
@@ -7367,12 +9468,20 @@
       <c r="X177" s="1"/>
     </row>
     <row r="178" ht="12.75" customHeight="1">
-      <c r="A178" s="1"/>
+      <c r="A178" s="4" t="s">
+        <v>572</v>
+      </c>
       <c r="B178" s="1"/>
       <c r="C178" s="1"/>
-      <c r="D178" s="1"/>
-      <c r="E178" s="1"/>
-      <c r="F178" s="1"/>
+      <c r="D178" s="4" t="s">
+        <v>574</v>
+      </c>
+      <c r="E178" s="4" t="s">
+        <v>575</v>
+      </c>
+      <c r="F178" s="4" t="s">
+        <v>157</v>
+      </c>
       <c r="G178" s="1"/>
       <c r="H178" s="1"/>
       <c r="I178" s="1"/>
@@ -7380,9 +9489,15 @@
       <c r="K178" s="1"/>
       <c r="L178" s="1"/>
       <c r="M178" s="1"/>
-      <c r="N178" s="1"/>
-      <c r="O178" s="1"/>
-      <c r="P178" s="1"/>
+      <c r="N178" s="4" t="s">
+        <v>576</v>
+      </c>
+      <c r="O178" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="P178" s="4">
+        <v>0.0</v>
+      </c>
       <c r="Q178" s="1"/>
       <c r="R178" s="1"/>
       <c r="S178" s="1"/>
@@ -7393,22 +9508,40 @@
       <c r="X178" s="1"/>
     </row>
     <row r="179" ht="12.75" customHeight="1">
-      <c r="A179" s="1"/>
+      <c r="A179" s="4" t="s">
+        <v>577</v>
+      </c>
       <c r="B179" s="1"/>
       <c r="C179" s="1"/>
-      <c r="D179" s="1"/>
-      <c r="E179" s="1"/>
-      <c r="F179" s="1"/>
+      <c r="D179" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="E179" s="4" t="s">
+        <v>578</v>
+      </c>
+      <c r="F179" s="4" t="s">
+        <v>98</v>
+      </c>
       <c r="G179" s="1"/>
       <c r="H179" s="1"/>
-      <c r="I179" s="1"/>
-      <c r="J179" s="1"/>
+      <c r="I179" s="4" t="s">
+        <v>579</v>
+      </c>
+      <c r="J179" s="1" t="s">
+        <v>97</v>
+      </c>
       <c r="K179" s="1"/>
       <c r="L179" s="1"/>
-      <c r="M179" s="1"/>
+      <c r="M179" s="4" t="s">
+        <v>580</v>
+      </c>
       <c r="N179" s="1"/>
-      <c r="O179" s="1"/>
-      <c r="P179" s="1"/>
+      <c r="O179" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="P179" s="4">
+        <v>1.0</v>
+      </c>
       <c r="Q179" s="1"/>
       <c r="R179" s="1"/>
       <c r="S179" s="1"/>
@@ -7416,25 +9549,39 @@
       <c r="U179" s="1"/>
       <c r="V179" s="1"/>
       <c r="W179" s="1"/>
-      <c r="X179" s="1"/>
+      <c r="X179" s="4" t="s">
+        <v>581</v>
+      </c>
     </row>
     <row r="180" ht="12.75" customHeight="1">
-      <c r="A180" s="1"/>
+      <c r="A180" s="4" t="s">
+        <v>579</v>
+      </c>
       <c r="B180" s="1"/>
       <c r="C180" s="1"/>
-      <c r="D180" s="1"/>
+      <c r="D180" s="4" t="s">
+        <v>177</v>
+      </c>
       <c r="E180" s="1"/>
-      <c r="F180" s="1"/>
+      <c r="F180" s="4" t="s">
+        <v>582</v>
+      </c>
       <c r="G180" s="1"/>
       <c r="H180" s="1"/>
       <c r="I180" s="1"/>
-      <c r="J180" s="1"/>
+      <c r="J180" s="4" t="s">
+        <v>583</v>
+      </c>
       <c r="K180" s="1"/>
       <c r="L180" s="1"/>
       <c r="M180" s="1"/>
       <c r="N180" s="1"/>
-      <c r="O180" s="1"/>
-      <c r="P180" s="1"/>
+      <c r="O180" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="P180" s="4">
+        <v>1.0</v>
+      </c>
       <c r="Q180" s="1"/>
       <c r="R180" s="1"/>
       <c r="S180" s="1"/>
@@ -7445,22 +9592,40 @@
       <c r="X180" s="1"/>
     </row>
     <row r="181" ht="12.75" customHeight="1">
-      <c r="A181" s="1"/>
+      <c r="A181" s="4" t="s">
+        <v>584</v>
+      </c>
       <c r="B181" s="1"/>
       <c r="C181" s="1"/>
-      <c r="D181" s="1"/>
-      <c r="E181" s="1"/>
-      <c r="F181" s="1"/>
+      <c r="D181" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="E181" s="4" t="s">
+        <v>578</v>
+      </c>
+      <c r="F181" s="4" t="s">
+        <v>98</v>
+      </c>
       <c r="G181" s="1"/>
       <c r="H181" s="1"/>
-      <c r="I181" s="1"/>
-      <c r="J181" s="1"/>
+      <c r="I181" s="4" t="s">
+        <v>579</v>
+      </c>
+      <c r="J181" s="1" t="s">
+        <v>97</v>
+      </c>
       <c r="K181" s="1"/>
       <c r="L181" s="1"/>
-      <c r="M181" s="1"/>
+      <c r="M181" s="4" t="s">
+        <v>580</v>
+      </c>
       <c r="N181" s="1"/>
-      <c r="O181" s="1"/>
-      <c r="P181" s="1"/>
+      <c r="O181" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="P181" s="4">
+        <v>1.0</v>
+      </c>
       <c r="Q181" s="1"/>
       <c r="R181" s="1"/>
       <c r="S181" s="1"/>
@@ -7468,25 +9633,41 @@
       <c r="U181" s="1"/>
       <c r="V181" s="1"/>
       <c r="W181" s="1"/>
-      <c r="X181" s="1"/>
+      <c r="X181" s="4" t="s">
+        <v>581</v>
+      </c>
     </row>
     <row r="182" ht="12.75" customHeight="1">
-      <c r="A182" s="1"/>
+      <c r="A182" s="4" t="s">
+        <v>583</v>
+      </c>
       <c r="B182" s="1"/>
       <c r="C182" s="1"/>
-      <c r="D182" s="1"/>
-      <c r="E182" s="1"/>
-      <c r="F182" s="1"/>
+      <c r="D182" s="4" t="s">
+        <v>585</v>
+      </c>
+      <c r="E182" s="4" t="s">
+        <v>458</v>
+      </c>
+      <c r="F182" s="4" t="s">
+        <v>98</v>
+      </c>
       <c r="G182" s="1"/>
       <c r="H182" s="1"/>
       <c r="I182" s="1"/>
-      <c r="J182" s="1"/>
+      <c r="J182" s="4" t="s">
+        <v>586</v>
+      </c>
       <c r="K182" s="1"/>
       <c r="L182" s="1"/>
       <c r="M182" s="1"/>
       <c r="N182" s="1"/>
-      <c r="O182" s="1"/>
-      <c r="P182" s="1"/>
+      <c r="O182" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="P182" s="4">
+        <v>1.0</v>
+      </c>
       <c r="Q182" s="1"/>
       <c r="R182" s="1"/>
       <c r="S182" s="1"/>
@@ -7497,11 +9678,17 @@
       <c r="X182" s="1"/>
     </row>
     <row r="183" ht="12.75" customHeight="1">
-      <c r="A183" s="1"/>
+      <c r="A183" s="4" t="s">
+        <v>586</v>
+      </c>
       <c r="B183" s="1"/>
       <c r="C183" s="1"/>
-      <c r="D183" s="1"/>
-      <c r="E183" s="1"/>
+      <c r="D183" s="4" t="s">
+        <v>587</v>
+      </c>
+      <c r="E183" s="4" t="s">
+        <v>588</v>
+      </c>
       <c r="F183" s="1"/>
       <c r="G183" s="1"/>
       <c r="H183" s="1"/>
@@ -7511,8 +9698,12 @@
       <c r="L183" s="1"/>
       <c r="M183" s="1"/>
       <c r="N183" s="1"/>
-      <c r="O183" s="1"/>
-      <c r="P183" s="1"/>
+      <c r="O183" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="P183" s="4">
+        <v>0.0</v>
+      </c>
       <c r="Q183" s="1"/>
       <c r="R183" s="1"/>
       <c r="S183" s="1"/>
@@ -7523,22 +9714,40 @@
       <c r="X183" s="1"/>
     </row>
     <row r="184" ht="12.75" customHeight="1">
-      <c r="A184" s="1"/>
+      <c r="A184" s="4" t="s">
+        <v>589</v>
+      </c>
       <c r="B184" s="1"/>
       <c r="C184" s="1"/>
-      <c r="D184" s="1"/>
-      <c r="E184" s="1"/>
-      <c r="F184" s="1"/>
+      <c r="D184" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E184" s="4" t="s">
+        <v>538</v>
+      </c>
+      <c r="F184" s="4" t="s">
+        <v>157</v>
+      </c>
       <c r="G184" s="1"/>
       <c r="H184" s="1"/>
-      <c r="I184" s="1"/>
-      <c r="J184" s="1"/>
+      <c r="I184" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="J184" s="4" t="s">
+        <v>572</v>
+      </c>
       <c r="K184" s="1"/>
       <c r="L184" s="1"/>
-      <c r="M184" s="1"/>
+      <c r="M184" s="4" t="s">
+        <v>590</v>
+      </c>
       <c r="N184" s="1"/>
-      <c r="O184" s="1"/>
-      <c r="P184" s="1"/>
+      <c r="O184" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="P184" s="4">
+        <v>1.0</v>
+      </c>
       <c r="Q184" s="1"/>
       <c r="R184" s="1"/>
       <c r="S184" s="1"/>
@@ -7549,22 +9758,40 @@
       <c r="X184" s="1"/>
     </row>
     <row r="185" ht="12.75" customHeight="1">
-      <c r="A185" s="1"/>
+      <c r="A185" s="4" t="s">
+        <v>591</v>
+      </c>
       <c r="B185" s="1"/>
       <c r="C185" s="1"/>
-      <c r="D185" s="1"/>
-      <c r="E185" s="1"/>
-      <c r="F185" s="1"/>
+      <c r="D185" s="15" t="s">
+        <v>562</v>
+      </c>
+      <c r="E185" s="4" t="s">
+        <v>578</v>
+      </c>
+      <c r="F185" s="4" t="s">
+        <v>98</v>
+      </c>
       <c r="G185" s="1"/>
       <c r="H185" s="1"/>
-      <c r="I185" s="1"/>
-      <c r="J185" s="1"/>
+      <c r="I185" s="4" t="s">
+        <v>579</v>
+      </c>
+      <c r="J185" s="1" t="s">
+        <v>97</v>
+      </c>
       <c r="K185" s="1"/>
       <c r="L185" s="1"/>
-      <c r="M185" s="1"/>
+      <c r="M185" s="4" t="s">
+        <v>592</v>
+      </c>
       <c r="N185" s="1"/>
-      <c r="O185" s="1"/>
-      <c r="P185" s="1"/>
+      <c r="O185" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="P185" s="4">
+        <v>1.0</v>
+      </c>
       <c r="Q185" s="1"/>
       <c r="R185" s="1"/>
       <c r="S185" s="1"/>
@@ -7575,22 +9802,40 @@
       <c r="X185" s="1"/>
     </row>
     <row r="186" ht="12.75" customHeight="1">
-      <c r="A186" s="1"/>
+      <c r="A186" s="4" t="s">
+        <v>593</v>
+      </c>
       <c r="B186" s="1"/>
       <c r="C186" s="1"/>
-      <c r="D186" s="1"/>
-      <c r="E186" s="1"/>
-      <c r="F186" s="1"/>
+      <c r="D186" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E186" s="4" t="s">
+        <v>538</v>
+      </c>
+      <c r="F186" s="4" t="s">
+        <v>157</v>
+      </c>
       <c r="G186" s="1"/>
       <c r="H186" s="1"/>
-      <c r="I186" s="1"/>
-      <c r="J186" s="1"/>
+      <c r="I186" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="J186" s="4" t="s">
+        <v>572</v>
+      </c>
       <c r="K186" s="1"/>
       <c r="L186" s="1"/>
-      <c r="M186" s="1"/>
+      <c r="M186" s="4" t="s">
+        <v>594</v>
+      </c>
       <c r="N186" s="1"/>
-      <c r="O186" s="1"/>
-      <c r="P186" s="1"/>
+      <c r="O186" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="P186" s="4">
+        <v>1.0</v>
+      </c>
       <c r="Q186" s="1"/>
       <c r="R186" s="1"/>
       <c r="S186" s="1"/>
@@ -7598,25 +9843,43 @@
       <c r="U186" s="1"/>
       <c r="V186" s="1"/>
       <c r="W186" s="1"/>
-      <c r="X186" s="1"/>
+      <c r="X186" s="4" t="s">
+        <v>581</v>
+      </c>
     </row>
     <row r="187" ht="12.75" customHeight="1">
-      <c r="A187" s="1"/>
+      <c r="A187" s="4" t="s">
+        <v>595</v>
+      </c>
       <c r="B187" s="1"/>
       <c r="C187" s="1"/>
-      <c r="D187" s="1"/>
-      <c r="E187" s="1"/>
-      <c r="F187" s="1"/>
+      <c r="D187" s="4" t="s">
+        <v>596</v>
+      </c>
+      <c r="E187" s="4" t="s">
+        <v>597</v>
+      </c>
+      <c r="F187" s="4" t="s">
+        <v>51</v>
+      </c>
       <c r="G187" s="1"/>
       <c r="H187" s="1"/>
-      <c r="I187" s="1"/>
-      <c r="J187" s="1"/>
+      <c r="I187" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="J187" s="4" t="s">
+        <v>567</v>
+      </c>
       <c r="K187" s="1"/>
       <c r="L187" s="1"/>
       <c r="M187" s="1"/>
       <c r="N187" s="1"/>
-      <c r="O187" s="1"/>
-      <c r="P187" s="1"/>
+      <c r="O187" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="P187" s="4">
+        <v>1.0</v>
+      </c>
       <c r="Q187" s="1"/>
       <c r="R187" s="1"/>
       <c r="S187" s="1"/>
@@ -7627,11 +9890,17 @@
       <c r="X187" s="1"/>
     </row>
     <row r="188" ht="12.75" customHeight="1">
-      <c r="A188" s="1"/>
+      <c r="A188" s="4" t="s">
+        <v>314</v>
+      </c>
       <c r="B188" s="1"/>
       <c r="C188" s="1"/>
-      <c r="D188" s="1"/>
-      <c r="E188" s="1"/>
+      <c r="D188" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E188" s="4" t="s">
+        <v>598</v>
+      </c>
       <c r="F188" s="1"/>
       <c r="G188" s="1"/>
       <c r="H188" s="1"/>
@@ -7641,8 +9910,12 @@
       <c r="L188" s="1"/>
       <c r="M188" s="1"/>
       <c r="N188" s="1"/>
-      <c r="O188" s="1"/>
-      <c r="P188" s="1"/>
+      <c r="O188" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="P188" s="4">
+        <v>0.0</v>
+      </c>
       <c r="Q188" s="1"/>
       <c r="R188" s="1"/>
       <c r="S188" s="1"/>
